--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -1,40 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\College\Software - Project 2 COMP313\Rhythm-Road\Assets\Audio\Songs\Rainbow Road\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAA43B3-02D6-4273-8858-9F04493F36DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460005B-5F46-495A-851B-7FD98B69B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainbowroad" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -46,6 +33,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -886,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,6 +3675,17 @@
         <v>3</v>
       </c>
       <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>170000</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460005B-5F46-495A-851B-7FD98B69B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEAFABF-60E3-4AE5-9D4F-EE19B1E0DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainbowroad" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -878,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A250" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
@@ -3696,260 +3696,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C254" sqref="A1:C254"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M267" sqref="M267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2000</v>
+        <v>2994</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1">
-        <f>A1/1000</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D1:D48" si="0">A1/1000</f>
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="G1">
+        <f>A2-A1</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2000</v>
+        <v>3170</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">A2/1000</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.17</v>
       </c>
       <c r="E2">
-        <f>D2-D1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E2:E49" si="1">D2-D1</f>
+        <v>0.17599999999999971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3000</v>
+        <v>3347</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.347</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">D3-D2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.17700000000000005</v>
+      </c>
+      <c r="G3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3000</v>
+        <v>3523</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5230000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17700000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4000</v>
+        <v>3876</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8759999999999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17599999999999971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4000</v>
+        <v>4053</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.0529999999999999</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17700000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5000</v>
+        <f>A7+176</f>
+        <v>4229</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5000</v>
+        <f t="shared" ref="A9:A28" si="2">A8+176</f>
+        <v>4405</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.4050000000000002</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>4581</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.5810000000000004</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11465</v>
+        <f t="shared" si="2"/>
+        <v>4757</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>11.465</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>6.4649999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17599999999999927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13229</v>
+        <f t="shared" si="2"/>
+        <v>4933</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>13.228999999999999</v>
+        <v>4.9329999999999998</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1.7639999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14641</v>
+        <f t="shared" si="2"/>
+        <v>5109</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>14.641</v>
+        <v>5.109</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>1.4120000000000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15347</v>
+        <f t="shared" si="2"/>
+        <v>5285</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -3959,111 +3973,117 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>15.347</v>
+        <v>5.2850000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.70599999999999952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17112</v>
+        <f t="shared" si="2"/>
+        <v>5461</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>17.111999999999998</v>
+        <v>5.4610000000000003</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>1.7649999999999988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17600000000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18876</v>
+        <f t="shared" si="2"/>
+        <v>5637</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>18.876000000000001</v>
+        <v>5.6369999999999996</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1.7640000000000029</v>
+        <v>0.17599999999999927</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19582</v>
+        <f t="shared" si="2"/>
+        <v>5813</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>19.582000000000001</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.70599999999999952</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21170</v>
+        <f t="shared" si="2"/>
+        <v>5989</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>21.17</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>1.588000000000001</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21523</v>
+        <f t="shared" si="2"/>
+        <v>6165</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>21.523</v>
+        <v>6.165</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.35299999999999798</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22053</v>
+        <f t="shared" si="2"/>
+        <v>6341</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4073,16 +4093,17 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>22.053000000000001</v>
+        <v>6.3410000000000002</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.53000000000000114</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22229</v>
+        <f t="shared" si="2"/>
+        <v>6517</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4092,73 +4113,77 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>22.228999999999999</v>
+        <v>6.5170000000000003</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.17599999999999838</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22759</v>
+        <f t="shared" si="2"/>
+        <v>6693</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>22.759</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.53000000000000114</v>
+        <v>0.17599999999999927</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23112</v>
+        <f t="shared" si="2"/>
+        <v>6869</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>23.111999999999998</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.35299999999999798</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23818</v>
+        <f t="shared" si="2"/>
+        <v>7045</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>23.818000000000001</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>0.70600000000000307</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24170</v>
+        <f t="shared" si="2"/>
+        <v>7221</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -4168,35 +4193,37 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>24.17</v>
+        <v>7.2210000000000001</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.35200000000000031</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24523</v>
+        <f t="shared" si="2"/>
+        <v>7397</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>24.523</v>
+        <v>7.3970000000000002</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.35299999999999798</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24876</v>
+        <f t="shared" si="2"/>
+        <v>7573</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -4206,73 +4233,77 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>24.876000000000001</v>
+        <v>7.5730000000000004</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25582</v>
+        <f>A27+176</f>
+        <v>7749</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>25.582000000000001</v>
+        <v>7.7489999999999997</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0.70599999999999952</v>
+        <v>0.17599999999999927</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25935</v>
+        <f t="shared" ref="A29:A47" si="3">A28+176</f>
+        <v>7925</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>25.934999999999999</v>
+        <v>7.9249999999999998</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.35299999999999798</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26641</v>
+        <f t="shared" si="3"/>
+        <v>8101</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>26.640999999999998</v>
+        <v>8.1010000000000009</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.70599999999999952</v>
+        <v>0.17600000000000104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27700</v>
+        <f t="shared" si="3"/>
+        <v>8277</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4282,16 +4313,17 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>27.7</v>
+        <v>8.2769999999999992</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>1.0590000000000011</v>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28053</v>
+        <f t="shared" si="3"/>
+        <v>8453</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -4301,149 +4333,157 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>28.053000000000001</v>
+        <v>8.4529999999999994</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>28229</v>
+        <f t="shared" si="3"/>
+        <v>8629</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>28.228999999999999</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0.17599999999999838</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28406</v>
+        <f t="shared" si="3"/>
+        <v>8805</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>28.405999999999999</v>
+        <v>8.8049999999999997</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0.1769999999999996</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>28494</v>
+        <f t="shared" si="3"/>
+        <v>8981</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>28.494</v>
+        <v>8.9809999999999999</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>28582</v>
+        <f t="shared" si="3"/>
+        <v>9157</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>28.582000000000001</v>
+        <v>9.157</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>29818</v>
+        <f t="shared" si="3"/>
+        <v>9333</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>29.818000000000001</v>
+        <v>9.3330000000000002</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>1.2360000000000007</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>29906</v>
+        <f t="shared" si="3"/>
+        <v>9509</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>29.905999999999999</v>
+        <v>9.5090000000000003</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>8.7999999999997414E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>29994</v>
+        <f t="shared" si="3"/>
+        <v>9685</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>29.994</v>
+        <v>9.6850000000000005</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>31229</v>
+        <f t="shared" si="3"/>
+        <v>9861</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4453,16 +4493,17 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>31.228999999999999</v>
+        <v>9.8610000000000007</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>1.2349999999999994</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31318</v>
+        <f t="shared" si="3"/>
+        <v>10037</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4472,16 +4513,17 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>31.318000000000001</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>8.9000000000002188E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>31406</v>
+        <f t="shared" si="3"/>
+        <v>10213</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4491,168 +4533,174 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>31.405999999999999</v>
+        <v>10.212999999999999</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>8.7999999999997414E-2</v>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>32641</v>
+        <f t="shared" si="3"/>
+        <v>10389</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>32.640999999999998</v>
+        <v>10.388999999999999</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>1.2349999999999994</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>32729</v>
+        <f t="shared" si="3"/>
+        <v>10565</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>32.728999999999999</v>
+        <v>10.565</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>32817</v>
+        <f t="shared" si="3"/>
+        <v>10741</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>32.817</v>
+        <v>10.741</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>32905</v>
+        <f t="shared" si="3"/>
+        <v>10917</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>32.905000000000001</v>
+        <v>10.917</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>32993</v>
+        <f t="shared" si="3"/>
+        <v>11093</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>32.993000000000002</v>
+        <v>11.093</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>33082</v>
+        <f>A47+176</f>
+        <v>11269</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>33.082000000000001</v>
+        <v>11.269</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>8.8999999999998636E-2</v>
+        <v>0.17600000000000016</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>33170</v>
+        <v>11465</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>33.17</v>
+        <f t="shared" ref="D49:D103" si="4">A49/1000</f>
+        <v>11.465</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.19599999999999973</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>33258</v>
+        <v>13229</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>33.258000000000003</v>
+        <f t="shared" si="4"/>
+        <v>13.228999999999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" ref="E50:E104" si="5">D50-D49</f>
+        <v>1.7639999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>33347</v>
+        <v>14641</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -4661,17 +4709,17 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>33.347000000000001</v>
+        <f t="shared" si="4"/>
+        <v>14.641</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.4120000000000008</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>33876</v>
+        <v>15347</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -4680,55 +4728,55 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>33.875999999999998</v>
+        <f t="shared" si="4"/>
+        <v>15.347</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="5"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>33965</v>
+        <v>17112</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>33.965000000000003</v>
+        <f t="shared" si="4"/>
+        <v>17.111999999999998</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
-        <v>8.9000000000005741E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.7649999999999988</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>34053</v>
+        <v>18876</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>34.052999999999997</v>
+        <f t="shared" si="4"/>
+        <v>18.876000000000001</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.7640000000000029</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>35818</v>
+        <v>19582</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -4737,17 +4785,17 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>35.817999999999998</v>
+        <f t="shared" si="4"/>
+        <v>19.582000000000001</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="5"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>37229</v>
+        <v>21170</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -4756,36 +4804,36 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>37.228999999999999</v>
+        <f t="shared" si="4"/>
+        <v>21.17</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="5"/>
+        <v>1.588000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>38288</v>
+        <v>21523</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>38.287999999999997</v>
+        <f t="shared" si="4"/>
+        <v>21.523</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="5"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>38641</v>
+        <v>22053</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4794,17 +4842,17 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>38.640999999999998</v>
+        <f t="shared" si="4"/>
+        <v>22.053000000000001</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>38994</v>
+        <v>22229</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4813,36 +4861,36 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>38.994</v>
+        <f t="shared" si="4"/>
+        <v>22.228999999999999</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>39876</v>
+        <v>22759</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>39.875999999999998</v>
+        <f t="shared" si="4"/>
+        <v>22.759</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0.8819999999999979</v>
+        <f t="shared" si="5"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>41465</v>
+        <v>23112</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -4851,36 +4899,36 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>41.465000000000003</v>
+        <f t="shared" si="4"/>
+        <v>23.111999999999998</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>1.5890000000000057</v>
+        <f t="shared" si="5"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>42523</v>
+        <v>23818</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>42.523000000000003</v>
+        <f t="shared" si="4"/>
+        <v>23.818000000000001</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>1.0579999999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>42876</v>
+        <v>24170</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4889,36 +4937,36 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>42.875999999999998</v>
+        <f t="shared" si="4"/>
+        <v>24.17</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="5"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>43229</v>
+        <v>24523</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>43.228999999999999</v>
+        <f t="shared" si="4"/>
+        <v>24.523</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>43582</v>
+        <v>24876</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -4927,36 +4975,36 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>43.582000000000001</v>
+        <f t="shared" si="4"/>
+        <v>24.876000000000001</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>43935</v>
+        <v>25582</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="2">A66/1000</f>
-        <v>43.935000000000002</v>
+        <f t="shared" si="4"/>
+        <v>25.582000000000001</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>44994</v>
+        <v>25935</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -4965,17 +5013,17 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
-        <v>44.994</v>
+        <f t="shared" si="4"/>
+        <v>25.934999999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">D67-D66</f>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="5"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>45347</v>
+        <v>26641</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -4984,36 +5032,36 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
-        <v>45.347000000000001</v>
+        <f t="shared" si="4"/>
+        <v>26.640999999999998</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>46406</v>
+        <v>27700</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
-        <v>46.405999999999999</v>
+        <f t="shared" si="4"/>
+        <v>27.7</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="5"/>
+        <v>1.0590000000000011</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>47112</v>
+        <v>28053</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -5022,17 +5070,17 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
-        <v>47.112000000000002</v>
+        <f t="shared" si="4"/>
+        <v>28.053000000000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
-        <v>0.70600000000000307</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>48523</v>
+        <v>28229</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -5041,36 +5089,36 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
-        <v>48.523000000000003</v>
+        <f t="shared" si="4"/>
+        <v>28.228999999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="5"/>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>49229</v>
+        <v>28406</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
-        <v>49.228999999999999</v>
+        <f t="shared" si="4"/>
+        <v>28.405999999999999</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
-        <v>0.70599999999999596</v>
+        <f t="shared" si="5"/>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>49935</v>
+        <v>28494</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -5079,93 +5127,93 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
-        <v>49.935000000000002</v>
+        <f t="shared" si="4"/>
+        <v>28.494</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
-        <v>0.70600000000000307</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>50288</v>
+        <v>28582</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
-        <v>50.287999999999997</v>
+        <f t="shared" si="4"/>
+        <v>28.582000000000001</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>50641</v>
+        <v>29818</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
-        <v>50.640999999999998</v>
+        <f t="shared" si="4"/>
+        <v>29.818000000000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>1.2360000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>50994</v>
+        <v>29906</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
-        <v>50.994</v>
+        <f t="shared" si="4"/>
+        <v>29.905999999999999</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>8.7999999999997414E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>51700</v>
+        <v>29994</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
-        <v>51.7</v>
+        <f t="shared" si="4"/>
+        <v>29.994</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
-        <v>0.70600000000000307</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>52053</v>
+        <v>31229</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -5174,226 +5222,226 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
-        <v>52.052999999999997</v>
+        <f t="shared" si="4"/>
+        <v>31.228999999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="5"/>
+        <v>1.2349999999999994</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>52406</v>
+        <v>31318</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
-        <v>52.405999999999999</v>
+        <f t="shared" si="4"/>
+        <v>31.318000000000001</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>8.9000000000002188E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>53465</v>
+        <v>31406</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
-        <v>53.465000000000003</v>
+        <f t="shared" si="4"/>
+        <v>31.405999999999999</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
-        <v>1.0590000000000046</v>
+        <f t="shared" si="5"/>
+        <v>8.7999999999997414E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>53818</v>
+        <v>32641</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
-        <v>53.817999999999998</v>
+        <f t="shared" si="4"/>
+        <v>32.640999999999998</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="5"/>
+        <v>1.2349999999999994</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>54170</v>
+        <v>32729</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
-        <v>54.17</v>
+        <f t="shared" si="4"/>
+        <v>32.728999999999999</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
-        <v>0.35200000000000387</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>54259</v>
+        <v>32817</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
-        <v>54.259</v>
+        <f t="shared" si="4"/>
+        <v>32.817</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>54347</v>
+        <v>32905</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
-        <v>54.347000000000001</v>
+        <f t="shared" si="4"/>
+        <v>32.905000000000001</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>55229</v>
+        <v>32993</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
-        <v>55.228999999999999</v>
+        <f t="shared" si="4"/>
+        <v>32.993000000000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
-        <v>0.8819999999999979</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>55582</v>
+        <v>33082</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
-        <v>55.582000000000001</v>
+        <f t="shared" si="4"/>
+        <v>33.082000000000001</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="5"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>55670</v>
+        <v>33170</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
-        <v>55.67</v>
+        <f t="shared" si="4"/>
+        <v>33.17</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>55759</v>
+        <v>33258</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
-        <v>55.759</v>
+        <f t="shared" si="4"/>
+        <v>33.258000000000003</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>56288</v>
+        <v>33347</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
-        <v>56.287999999999997</v>
+        <f t="shared" si="4"/>
+        <v>33.347000000000001</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="5"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>56465</v>
+        <v>33876</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5402,17 +5450,17 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
-        <v>56.465000000000003</v>
+        <f t="shared" si="4"/>
+        <v>33.875999999999998</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="5"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>56641</v>
+        <v>33965</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5421,55 +5469,55 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
-        <v>56.640999999999998</v>
+        <f t="shared" si="4"/>
+        <v>33.965000000000003</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
-        <v>0.17599999999999483</v>
+        <f t="shared" si="5"/>
+        <v>8.9000000000005741E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>57170</v>
+        <v>34053</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
-        <v>57.17</v>
+        <f t="shared" si="4"/>
+        <v>34.052999999999997</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0.52900000000000347</v>
+        <f t="shared" si="5"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>58053</v>
+        <v>35818</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
-        <v>58.052999999999997</v>
+        <f t="shared" si="4"/>
+        <v>35.817999999999998</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
-        <v>0.88299999999999557</v>
+        <f t="shared" si="5"/>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>58582</v>
+        <v>37229</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5478,17 +5526,17 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
-        <v>58.582000000000001</v>
+        <f t="shared" si="4"/>
+        <v>37.228999999999999</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
-        <v>0.52900000000000347</v>
+        <f t="shared" si="5"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>59465</v>
+        <v>38288</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5497,36 +5545,36 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
-        <v>59.465000000000003</v>
+        <f t="shared" si="4"/>
+        <v>38.287999999999997</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
-        <v>0.88300000000000267</v>
+        <f t="shared" si="5"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>59994</v>
+        <v>38641</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
-        <v>59.994</v>
+        <f t="shared" si="4"/>
+        <v>38.640999999999998</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>60876</v>
+        <v>38994</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5535,17 +5583,17 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
-        <v>60.875999999999998</v>
+        <f t="shared" si="4"/>
+        <v>38.994</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
-        <v>0.8819999999999979</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>61759</v>
+        <v>39876</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5554,74 +5602,74 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
-        <v>61.759</v>
+        <f t="shared" si="4"/>
+        <v>39.875999999999998</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
-        <v>0.88300000000000267</v>
+        <f t="shared" si="5"/>
+        <v>0.8819999999999979</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>61935</v>
+        <v>41465</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
-        <v>61.935000000000002</v>
+        <f t="shared" si="4"/>
+        <v>41.465000000000003</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="5"/>
+        <v>1.5890000000000057</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>62112</v>
+        <v>42523</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
-        <v>62.112000000000002</v>
+        <f t="shared" si="4"/>
+        <v>42.523000000000003</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
-        <v>0.1769999999999996</v>
+        <f t="shared" si="5"/>
+        <v>1.0579999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>62288</v>
+        <v>42876</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
-        <v>62.287999999999997</v>
+        <f t="shared" si="4"/>
+        <v>42.875999999999998</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
-        <v>0.17599999999999483</v>
+        <f t="shared" si="5"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>62818</v>
+        <v>43229</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5630,93 +5678,93 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
-        <v>62.817999999999998</v>
+        <f t="shared" si="4"/>
+        <v>43.228999999999999</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>63700</v>
+        <v>43582</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
-        <v>63.7</v>
+        <f t="shared" si="4"/>
+        <v>43.582000000000001</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>64229</v>
+        <v>43935</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
-        <v>64.228999999999999</v>
+        <f t="shared" ref="D104:D167" si="6">A104/1000</f>
+        <v>43.935000000000002</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="5"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>65112</v>
+        <v>44994</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
-        <v>65.111999999999995</v>
+        <f t="shared" si="6"/>
+        <v>44.994</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
-        <v>0.88299999999999557</v>
+        <f t="shared" ref="E105:E168" si="7">D105-D104</f>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>65641</v>
+        <v>45347</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
-        <v>65.641000000000005</v>
+        <f t="shared" si="6"/>
+        <v>45.347000000000001</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
-        <v>0.52900000000001057</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>66523</v>
+        <v>46406</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -5725,36 +5773,36 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
-        <v>66.522999999999996</v>
+        <f t="shared" si="6"/>
+        <v>46.405999999999999</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
-        <v>0.88199999999999079</v>
+        <f t="shared" si="7"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>67406</v>
+        <v>47112</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
-        <v>67.406000000000006</v>
+        <f t="shared" si="6"/>
+        <v>47.112000000000002</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>67582</v>
+        <v>48523</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -5763,36 +5811,36 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
-        <v>67.581999999999994</v>
+        <f t="shared" si="6"/>
+        <v>48.523000000000003</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="7"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>67759</v>
+        <v>49229</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
-        <v>67.759</v>
+        <f t="shared" si="6"/>
+        <v>49.228999999999999</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="7"/>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>67935</v>
+        <v>49935</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -5801,17 +5849,17 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
-        <v>67.935000000000002</v>
+        <f t="shared" si="6"/>
+        <v>49.935000000000002</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>68465</v>
+        <v>50288</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5820,36 +5868,36 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
-        <v>68.465000000000003</v>
+        <f t="shared" si="6"/>
+        <v>50.287999999999997</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>69347</v>
+        <v>50641</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
-        <v>69.346999999999994</v>
+        <f t="shared" si="6"/>
+        <v>50.640999999999998</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
-        <v>0.88199999999999079</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>69877</v>
+        <v>50994</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5858,17 +5906,17 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
-        <v>69.876999999999995</v>
+        <f t="shared" si="6"/>
+        <v>50.994</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>70759</v>
+        <v>51700</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5877,17 +5925,17 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
-        <v>70.759</v>
+        <f t="shared" si="6"/>
+        <v>51.7</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>71465</v>
+        <v>52053</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5896,207 +5944,207 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
-        <v>71.465000000000003</v>
+        <f t="shared" si="6"/>
+        <v>52.052999999999997</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
-        <v>0.70600000000000307</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>71641</v>
+        <v>52406</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
-        <v>71.641000000000005</v>
+        <f t="shared" si="6"/>
+        <v>52.405999999999999</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>71994</v>
+        <v>53465</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
-        <v>71.994</v>
+        <f t="shared" si="6"/>
+        <v>53.465000000000003</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>1.0590000000000046</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>72523</v>
+        <v>53818</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
-        <v>72.522999999999996</v>
+        <f t="shared" si="6"/>
+        <v>53.817999999999998</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>73053</v>
+        <v>54170</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
-        <v>73.052999999999997</v>
+        <f t="shared" si="6"/>
+        <v>54.17</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="7"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>73229</v>
+        <v>54259</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
-        <v>73.228999999999999</v>
+        <f t="shared" si="6"/>
+        <v>54.259</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="7"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>73406</v>
+        <v>54347</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
-        <v>73.406000000000006</v>
+        <f t="shared" si="6"/>
+        <v>54.347000000000001</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="7"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>73582</v>
+        <v>55229</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
-        <v>73.581999999999994</v>
+        <f t="shared" si="6"/>
+        <v>55.228999999999999</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="7"/>
+        <v>0.8819999999999979</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>73935</v>
+        <v>55582</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
-        <v>73.935000000000002</v>
+        <f t="shared" si="6"/>
+        <v>55.582000000000001</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>74288</v>
+        <v>55670</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
-        <v>74.287999999999997</v>
+        <f t="shared" si="6"/>
+        <v>55.67</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>75170</v>
+        <v>55759</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
-        <v>75.17</v>
+        <f t="shared" si="6"/>
+        <v>55.759</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="7"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>75259</v>
+        <v>56288</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -6105,17 +6153,17 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
-        <v>75.259</v>
+        <f t="shared" si="6"/>
+        <v>56.287999999999997</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>75347</v>
+        <v>56465</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -6124,17 +6172,17 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
-        <v>75.346999999999994</v>
+        <f t="shared" si="6"/>
+        <v>56.465000000000003</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>75523</v>
+        <v>56641</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -6143,189 +6191,245 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
-        <v>75.522999999999996</v>
+        <f t="shared" si="6"/>
+        <v>56.640999999999998</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="7"/>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>76406</v>
+        <v>57170</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D203" si="4">A130/1000</f>
-        <v>76.406000000000006</v>
+        <f t="shared" si="6"/>
+        <v>57.17</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="7"/>
+        <v>0.52900000000000347</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>80641</v>
+        <v>58053</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="6"/>
+        <v>58.052999999999997</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="7"/>
+        <v>0.88299999999999557</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>80641</v>
+        <v>58582</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="6"/>
+        <v>58.582000000000001</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="7"/>
+        <v>0.52900000000000347</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>80641</v>
+        <v>59465</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
-        <v>80.641000000000005</v>
+        <f t="shared" si="6"/>
+        <v>59.465000000000003</v>
       </c>
       <c r="E133">
-        <f>D133-D130</f>
-        <v>4.2349999999999994</v>
+        <f t="shared" si="7"/>
+        <v>0.88300000000000267</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>83465</v>
+        <v>59994</v>
       </c>
       <c r="B134" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="6"/>
+        <v>59.994</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="7"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>83465</v>
+        <v>60876</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>1</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="6"/>
+        <v>60.875999999999998</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="7"/>
+        <v>0.8819999999999979</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>83465</v>
+        <v>61759</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
-        <v>83.465000000000003</v>
+        <f t="shared" si="6"/>
+        <v>61.759</v>
       </c>
       <c r="E136">
-        <f>D136-D133</f>
-        <v>2.8239999999999981</v>
+        <f t="shared" si="7"/>
+        <v>0.88300000000000267</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>84465</v>
+        <v>61935</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="6"/>
+        <v>61.935000000000002</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>84465</v>
+        <v>62112</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="6"/>
+        <v>62.112000000000002</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="7"/>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>84465</v>
+        <v>62288</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>2</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="6"/>
+        <v>62.287999999999997</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="7"/>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>86288</v>
+        <v>62818</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
-        <v>86.287999999999997</v>
+        <f t="shared" si="6"/>
+        <v>62.817999999999998</v>
       </c>
       <c r="E140">
-        <f>D140-D136</f>
-        <v>2.8229999999999933</v>
+        <f t="shared" si="7"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>87700</v>
+        <v>63700</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
-        <v>87.7</v>
+        <f t="shared" si="6"/>
+        <v>63.7</v>
       </c>
       <c r="E141">
-        <f t="shared" ref="E141:E204" si="5">D141-D140</f>
-        <v>1.4120000000000061</v>
+        <f t="shared" si="7"/>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>89112</v>
+        <v>64229</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -6334,183 +6438,207 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
-        <v>89.111999999999995</v>
+        <f t="shared" si="6"/>
+        <v>64.228999999999999</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="7"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>89288</v>
+        <v>65112</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
-        <v>89.287999999999997</v>
+        <f t="shared" si="6"/>
+        <v>65.111999999999995</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="7"/>
+        <v>0.88299999999999557</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>89465</v>
+        <v>65641</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
-        <v>89.465000000000003</v>
+        <f t="shared" si="6"/>
+        <v>65.641000000000005</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="7"/>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>90935</v>
+        <v>66523</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>0</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="6"/>
+        <v>66.522999999999996</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="7"/>
+        <v>0.88199999999999079</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>90935</v>
+        <v>67406</v>
       </c>
       <c r="B146" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="6"/>
+        <v>67.406000000000006</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>90935</v>
+        <v>67582</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="6"/>
+        <v>67.581999999999994</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>91935</v>
+        <v>67759</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
-        <v>91.935000000000002</v>
+        <f t="shared" si="6"/>
+        <v>67.759</v>
       </c>
       <c r="E148">
-        <f>D148-D144</f>
-        <v>2.4699999999999989</v>
+        <f t="shared" si="7"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>93347</v>
+        <v>67935</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
-        <v>93.346999999999994</v>
+        <f t="shared" si="6"/>
+        <v>67.935000000000002</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>94759</v>
+        <v>68465</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
-        <v>94.759</v>
+        <f t="shared" si="6"/>
+        <v>68.465000000000003</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
-        <v>1.4120000000000061</v>
+        <f t="shared" si="7"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>95994</v>
+        <v>69347</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
-        <v>95.994</v>
+        <f t="shared" si="6"/>
+        <v>69.346999999999994</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
-        <v>1.2349999999999994</v>
+        <f t="shared" si="7"/>
+        <v>0.88199999999999079</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>97582</v>
+        <v>69877</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
-        <v>97.581999999999994</v>
+        <f t="shared" si="6"/>
+        <v>69.876999999999995</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
-        <v>1.5879999999999939</v>
+        <f t="shared" si="7"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>98641</v>
+        <v>70759</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -6519,55 +6647,55 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <f t="shared" si="4"/>
-        <v>98.641000000000005</v>
+        <f t="shared" si="6"/>
+        <v>70.759</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
-        <v>1.0590000000000117</v>
+        <f t="shared" si="7"/>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>100053</v>
+        <v>71465</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <f t="shared" si="4"/>
-        <v>100.053</v>
+        <f t="shared" si="6"/>
+        <v>71.465000000000003</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>101818</v>
+        <v>71641</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
-        <v>101.818</v>
+        <f t="shared" si="6"/>
+        <v>71.641000000000005</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>103229</v>
+        <v>71994</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -6576,55 +6704,55 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
-        <v>103.229</v>
+        <f t="shared" si="6"/>
+        <v>71.994</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>103582</v>
+        <v>72523</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
-        <v>103.58199999999999</v>
+        <f t="shared" si="6"/>
+        <v>72.522999999999996</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>104994</v>
+        <v>73053</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
-        <v>104.994</v>
+        <f t="shared" si="6"/>
+        <v>73.052999999999997</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
-        <v>1.4120000000000061</v>
+        <f t="shared" si="7"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>106406</v>
+        <v>73229</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -6633,511 +6761,431 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
-        <v>106.40600000000001</v>
+        <f t="shared" si="6"/>
+        <v>73.228999999999999</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
-        <v>1.4120000000000061</v>
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>107817</v>
+        <v>73406</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
-        <v>107.81699999999999</v>
+        <f t="shared" si="6"/>
+        <v>73.406000000000006</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
-        <v>1.4109999999999872</v>
+        <f t="shared" si="7"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>108170</v>
+        <v>73582</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
-        <v>108.17</v>
+        <f t="shared" si="6"/>
+        <v>73.581999999999994</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="7"/>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>108523</v>
+        <v>73935</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <f t="shared" si="4"/>
-        <v>108.523</v>
+        <f t="shared" si="6"/>
+        <v>73.935000000000002</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>108700</v>
+        <v>74288</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <f t="shared" si="4"/>
-        <v>108.7</v>
+        <f t="shared" si="6"/>
+        <v>74.287999999999997</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>110112</v>
+        <v>75170</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <f t="shared" si="4"/>
-        <v>110.11199999999999</v>
+        <f t="shared" si="6"/>
+        <v>75.17</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="7"/>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>111170</v>
+        <v>75259</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <f t="shared" si="4"/>
-        <v>111.17</v>
+        <f t="shared" si="6"/>
+        <v>75.259</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
-        <v>1.0580000000000069</v>
+        <f t="shared" si="7"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>111523</v>
+        <v>75347</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <f t="shared" si="4"/>
-        <v>111.523</v>
+        <f t="shared" si="6"/>
+        <v>75.346999999999994</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>111700</v>
+        <v>75523</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <f t="shared" si="4"/>
-        <v>111.7</v>
+        <f t="shared" si="6"/>
+        <v>75.522999999999996</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>112053</v>
+        <v>76406</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="4"/>
-        <v>112.053</v>
+        <f t="shared" ref="D168:D241" si="8">A168/1000</f>
+        <v>76.406000000000006</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>112229</v>
+        <v>80641</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>0</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="4"/>
-        <v>112.229</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="5"/>
-        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>112759</v>
+        <v>80641</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>1</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="4"/>
-        <v>112.759</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="5"/>
-        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>112935</v>
+        <v>80641</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="4"/>
-        <v>112.935</v>
+        <f t="shared" si="8"/>
+        <v>80.641000000000005</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
-        <v>0.17600000000000193</v>
+        <f>D171-D168</f>
+        <v>4.2349999999999994</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>113112</v>
+        <v>83465</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="4"/>
-        <v>113.11199999999999</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="5"/>
-        <v>0.1769999999999925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>114523</v>
+        <v>83465</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="4"/>
-        <v>114.523</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="5"/>
-        <v>1.4110000000000014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>115935</v>
+        <v>83465</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="4"/>
-        <v>115.935</v>
+        <f t="shared" si="8"/>
+        <v>83.465000000000003</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
-        <v>1.4120000000000061</v>
+        <f>D174-D171</f>
+        <v>2.8239999999999981</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>117347</v>
+        <v>84465</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="4"/>
-        <v>117.34699999999999</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>117435</v>
+        <v>84465</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>1</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="4"/>
-        <v>117.435</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="5"/>
-        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>117523</v>
+        <v>84465</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="4"/>
-        <v>117.523</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>117611</v>
+        <v>86288</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
-        <v>117.611</v>
+        <f t="shared" si="8"/>
+        <v>86.287999999999997</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
-        <v>8.8000000000008072E-2</v>
+        <f>D178-D174</f>
+        <v>2.8229999999999933</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>118053</v>
+        <v>87700</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
-        <v>118.053</v>
+        <f t="shared" si="8"/>
+        <v>87.7</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
-        <v>0.44199999999999307</v>
+        <f t="shared" ref="E179:E242" si="9">D179-D178</f>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>118141</v>
+        <v>89112</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
-        <v>118.14100000000001</v>
+        <f t="shared" si="8"/>
+        <v>89.111999999999995</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
-        <v>8.8000000000008072E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>118229</v>
+        <v>89288</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
-        <v>118.229</v>
+        <f t="shared" si="8"/>
+        <v>89.287999999999997</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>118317</v>
+        <v>89465</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
-        <v>118.31699999999999</v>
+        <f t="shared" si="8"/>
+        <v>89.465000000000003</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>118759</v>
+        <v>90935</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>2</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="4"/>
-        <v>118.759</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="5"/>
-        <v>0.44200000000000728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>120170</v>
+        <v>90935</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="4"/>
-        <v>120.17</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="5"/>
-        <v>1.4110000000000014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>121582</v>
+        <v>90935</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="4"/>
-        <v>121.58199999999999</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>122288</v>
+        <v>91935</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -7146,74 +7194,74 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="4"/>
-        <v>122.288</v>
+        <f t="shared" si="8"/>
+        <v>91.935000000000002</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
-        <v>0.70600000000000307</v>
+        <f>D186-D182</f>
+        <v>2.4699999999999989</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>122376</v>
+        <v>93347</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <f t="shared" si="4"/>
-        <v>122.376</v>
+        <f t="shared" si="8"/>
+        <v>93.346999999999994</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
-        <v>8.8000000000008072E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>122464</v>
+        <v>94759</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <f t="shared" si="4"/>
-        <v>122.464</v>
+        <f t="shared" si="8"/>
+        <v>94.759</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>122553</v>
+        <v>95994</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <f t="shared" si="4"/>
-        <v>122.553</v>
+        <f t="shared" si="8"/>
+        <v>95.994</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.2349999999999994</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>122994</v>
+        <v>97582</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -7222,36 +7270,36 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="4"/>
-        <v>122.994</v>
+        <f t="shared" si="8"/>
+        <v>97.581999999999994</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
-        <v>0.4410000000000025</v>
+        <f t="shared" si="9"/>
+        <v>1.5879999999999939</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>123082</v>
+        <v>98641</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <f t="shared" si="4"/>
-        <v>123.08199999999999</v>
+        <f t="shared" si="8"/>
+        <v>98.641000000000005</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.0590000000000117</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>123170</v>
+        <v>100053</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -7260,55 +7308,55 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="4"/>
-        <v>123.17</v>
+        <f t="shared" si="8"/>
+        <v>100.053</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
-        <v>8.8000000000008072E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>123259</v>
+        <v>101818</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <f t="shared" si="4"/>
-        <v>123.259</v>
+        <f t="shared" si="8"/>
+        <v>101.818</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>124406</v>
+        <v>103229</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <f t="shared" si="4"/>
-        <v>124.40600000000001</v>
+        <f t="shared" si="8"/>
+        <v>103.229</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
-        <v>1.1470000000000056</v>
+        <f t="shared" si="9"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>125818</v>
+        <v>103582</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -7317,17 +7365,17 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <f t="shared" si="4"/>
-        <v>125.818</v>
+        <f t="shared" si="8"/>
+        <v>103.58199999999999</v>
       </c>
       <c r="E195">
-        <f t="shared" si="5"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>127583</v>
+        <v>104994</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -7336,93 +7384,93 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="4"/>
-        <v>127.583</v>
+        <f t="shared" si="8"/>
+        <v>104.994</v>
       </c>
       <c r="E196">
-        <f t="shared" si="5"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="9"/>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>128994</v>
+        <v>106406</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <f t="shared" si="4"/>
-        <v>128.994</v>
+        <f t="shared" si="8"/>
+        <v>106.40600000000001</v>
       </c>
       <c r="E197">
-        <f t="shared" si="5"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="9"/>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>130053</v>
+        <v>107817</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <f t="shared" si="4"/>
-        <v>130.053</v>
+        <f t="shared" si="8"/>
+        <v>107.81699999999999</v>
       </c>
       <c r="E198">
-        <f t="shared" si="5"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="9"/>
+        <v>1.4109999999999872</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>130406</v>
+        <v>108170</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <f t="shared" si="4"/>
-        <v>130.40600000000001</v>
+        <f t="shared" si="8"/>
+        <v>108.17</v>
       </c>
       <c r="E199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>130759</v>
+        <v>108523</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <f t="shared" si="4"/>
-        <v>130.75899999999999</v>
+        <f t="shared" si="8"/>
+        <v>108.523</v>
       </c>
       <c r="E200">
-        <f t="shared" si="5"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>131641</v>
+        <v>108700</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -7431,17 +7479,17 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <f t="shared" si="4"/>
-        <v>131.64099999999999</v>
+        <f t="shared" si="8"/>
+        <v>108.7</v>
       </c>
       <c r="E201">
-        <f t="shared" si="5"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>133230</v>
+        <v>110112</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -7450,264 +7498,264 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="4"/>
-        <v>133.22999999999999</v>
+        <f t="shared" si="8"/>
+        <v>110.11199999999999</v>
       </c>
       <c r="E202">
-        <f t="shared" si="5"/>
-        <v>1.5889999999999986</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>134288</v>
+        <v>111170</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <f t="shared" si="4"/>
-        <v>134.28800000000001</v>
+        <f t="shared" si="8"/>
+        <v>111.17</v>
       </c>
       <c r="E203">
-        <f t="shared" si="5"/>
-        <v>1.0580000000000211</v>
+        <f t="shared" si="9"/>
+        <v>1.0580000000000069</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>134641</v>
+        <v>111523</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <f t="shared" ref="D204:D254" si="6">A204/1000</f>
-        <v>134.64099999999999</v>
+        <f t="shared" si="8"/>
+        <v>111.523</v>
       </c>
       <c r="E204">
-        <f t="shared" si="5"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>134994</v>
+        <v>111700</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <f t="shared" si="6"/>
-        <v>134.994</v>
+        <f t="shared" si="8"/>
+        <v>111.7</v>
       </c>
       <c r="E205">
-        <f t="shared" ref="E205:E254" si="7">D205-D204</f>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>135347</v>
+        <v>112053</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <f t="shared" si="6"/>
-        <v>135.34700000000001</v>
+        <f t="shared" si="8"/>
+        <v>112.053</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>135700</v>
+        <v>112229</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <f t="shared" si="6"/>
-        <v>135.69999999999999</v>
+        <f t="shared" si="8"/>
+        <v>112.229</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>136759</v>
+        <v>112759</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <f t="shared" si="6"/>
-        <v>136.75899999999999</v>
+        <f t="shared" si="8"/>
+        <v>112.759</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="9"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>137112</v>
+        <v>112935</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <f t="shared" si="6"/>
-        <v>137.11199999999999</v>
+        <f t="shared" si="8"/>
+        <v>112.935</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>138877</v>
+        <v>113112</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <f t="shared" si="6"/>
-        <v>138.87700000000001</v>
+        <f t="shared" si="8"/>
+        <v>113.11199999999999</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
-        <v>1.7650000000000148</v>
+        <f t="shared" si="9"/>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>140288</v>
+        <v>114523</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
-        <f t="shared" si="6"/>
-        <v>140.28800000000001</v>
+        <f t="shared" si="8"/>
+        <v>114.523</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>141700</v>
+        <v>115935</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="6"/>
-        <v>141.69999999999999</v>
+        <f t="shared" si="8"/>
+        <v>115.935</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
-        <v>1.4119999999999777</v>
+        <f t="shared" si="9"/>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>142053</v>
+        <v>117347</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <f t="shared" si="6"/>
-        <v>142.053</v>
+        <f t="shared" si="8"/>
+        <v>117.34699999999999</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>142406</v>
+        <v>117435</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <f t="shared" si="6"/>
-        <v>142.40600000000001</v>
+        <f t="shared" si="8"/>
+        <v>117.435</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>142759</v>
+        <v>117523</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <f t="shared" si="6"/>
-        <v>142.75899999999999</v>
+        <f t="shared" si="8"/>
+        <v>117.523</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="9"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>143465</v>
+        <v>117611</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -7716,36 +7764,36 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <f t="shared" si="6"/>
-        <v>143.465</v>
+        <f t="shared" si="8"/>
+        <v>117.611</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
-        <v>0.70600000000001728</v>
+        <f t="shared" si="9"/>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>144171</v>
+        <v>118053</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <f t="shared" si="6"/>
-        <v>144.17099999999999</v>
+        <f t="shared" si="8"/>
+        <v>118.053</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
-        <v>0.70599999999998886</v>
+        <f t="shared" si="9"/>
+        <v>0.44199999999999307</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>145230</v>
+        <v>118141</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -7754,17 +7802,17 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <f t="shared" si="6"/>
-        <v>145.22999999999999</v>
+        <f t="shared" si="8"/>
+        <v>118.14100000000001</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="9"/>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>145582</v>
+        <v>118229</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
@@ -7773,17 +7821,17 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <f t="shared" si="6"/>
-        <v>145.58199999999999</v>
+        <f t="shared" si="8"/>
+        <v>118.229</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
-        <v>0.35200000000000387</v>
+        <f t="shared" si="9"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>145935</v>
+        <v>118317</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -7792,207 +7840,207 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <f t="shared" si="6"/>
-        <v>145.935</v>
+        <f t="shared" si="8"/>
+        <v>118.31699999999999</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>146112</v>
+        <v>118759</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="6"/>
-        <v>146.11199999999999</v>
+        <f t="shared" si="8"/>
+        <v>118.759</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
-        <v>0.1769999999999925</v>
+        <f t="shared" si="9"/>
+        <v>0.44200000000000728</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>146465</v>
+        <v>120170</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <f t="shared" si="6"/>
-        <v>146.465</v>
+        <f t="shared" si="8"/>
+        <v>120.17</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>146994</v>
+        <v>121582</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <f t="shared" si="6"/>
-        <v>146.994</v>
+        <f t="shared" si="8"/>
+        <v>121.58199999999999</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>147524</v>
+        <v>122288</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="6"/>
-        <v>147.524</v>
+        <f t="shared" si="8"/>
+        <v>122.288</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>148053</v>
+        <v>122376</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="6"/>
-        <v>148.053</v>
+        <f t="shared" si="8"/>
+        <v>122.376</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>148230</v>
+        <v>122464</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="6"/>
-        <v>148.22999999999999</v>
+        <f t="shared" si="8"/>
+        <v>122.464</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
-        <v>0.1769999999999925</v>
+        <f t="shared" si="9"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>148406</v>
+        <v>122553</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="6"/>
-        <v>148.40600000000001</v>
+        <f t="shared" si="8"/>
+        <v>122.553</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
-        <v>0.17600000000001614</v>
+        <f t="shared" si="9"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>148935</v>
+        <v>122994</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="6"/>
-        <v>148.935</v>
+        <f t="shared" si="8"/>
+        <v>122.994</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>0.4410000000000025</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>149818</v>
+        <v>123082</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="6"/>
-        <v>149.81800000000001</v>
+        <f t="shared" si="8"/>
+        <v>123.08199999999999</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="9"/>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>150347</v>
+        <v>123170</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="6"/>
-        <v>150.34700000000001</v>
+        <f t="shared" si="8"/>
+        <v>123.17</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>151230</v>
+        <v>123259</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -8001,55 +8049,55 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="6"/>
-        <v>151.22999999999999</v>
+        <f t="shared" si="8"/>
+        <v>123.259</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
-        <v>0.88299999999998136</v>
+        <f t="shared" si="9"/>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>151759</v>
+        <v>124406</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D232">
-        <f t="shared" si="6"/>
-        <v>151.75899999999999</v>
+        <f t="shared" si="8"/>
+        <v>124.40600000000001</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>1.1470000000000056</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>152641</v>
+        <v>125818</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <f t="shared" si="6"/>
-        <v>152.64099999999999</v>
+        <f t="shared" si="8"/>
+        <v>125.818</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>154053</v>
+        <v>127583</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
@@ -8058,207 +8106,207 @@
         <v>2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="6"/>
-        <v>154.053</v>
+        <f t="shared" si="8"/>
+        <v>127.583</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
-        <v>1.4120000000000061</v>
+        <f t="shared" si="9"/>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>154583</v>
+        <v>128994</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <f t="shared" si="6"/>
-        <v>154.583</v>
+        <f t="shared" si="8"/>
+        <v>128.994</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>155465</v>
+        <v>130053</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="6"/>
-        <v>155.465</v>
+        <f t="shared" si="8"/>
+        <v>130.053</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>155994</v>
+        <v>130406</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="6"/>
-        <v>155.994</v>
+        <f t="shared" si="8"/>
+        <v>130.40600000000001</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>156876</v>
+        <v>130759</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="6"/>
-        <v>156.876</v>
+        <f t="shared" si="8"/>
+        <v>130.75899999999999</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>157406</v>
+        <v>131641</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <f t="shared" si="6"/>
-        <v>157.40600000000001</v>
+        <f t="shared" si="8"/>
+        <v>131.64099999999999</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>158288</v>
+        <v>133230</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="6"/>
-        <v>158.28800000000001</v>
+        <f t="shared" si="8"/>
+        <v>133.22999999999999</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>1.5889999999999986</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>159171</v>
+        <v>134288</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <f t="shared" si="6"/>
-        <v>159.17099999999999</v>
+        <f t="shared" si="8"/>
+        <v>134.28800000000001</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
-        <v>0.88299999999998136</v>
+        <f t="shared" si="9"/>
+        <v>1.0580000000000211</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>159348</v>
+        <v>134641</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <f t="shared" si="6"/>
-        <v>159.34800000000001</v>
+        <f t="shared" ref="D242:D292" si="10">A242/1000</f>
+        <v>134.64099999999999</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
-        <v>0.17700000000002092</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>159524</v>
+        <v>134994</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <f t="shared" si="6"/>
-        <v>159.524</v>
+        <f t="shared" si="10"/>
+        <v>134.994</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" ref="E243:E292" si="11">D243-D242</f>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>159700</v>
+        <v>135347</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <f t="shared" si="6"/>
-        <v>159.69999999999999</v>
+        <f t="shared" si="10"/>
+        <v>135.34700000000001</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>160230</v>
+        <v>135700</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
@@ -8267,74 +8315,74 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <f t="shared" si="6"/>
-        <v>160.22999999999999</v>
+        <f t="shared" si="10"/>
+        <v>135.69999999999999</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>161112</v>
+        <v>136759</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="6"/>
-        <v>161.11199999999999</v>
+        <f t="shared" si="10"/>
+        <v>136.75899999999999</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>161641</v>
+        <v>137112</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="6"/>
-        <v>161.64099999999999</v>
+        <f t="shared" si="10"/>
+        <v>137.11199999999999</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>162523</v>
+        <v>138877</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248">
-        <f t="shared" si="6"/>
-        <v>162.523</v>
+        <f t="shared" si="10"/>
+        <v>138.87700000000001</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="11"/>
+        <v>1.7650000000000148</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>163052</v>
+        <v>140288</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
@@ -8343,106 +8391,828 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <f t="shared" si="6"/>
-        <v>163.05199999999999</v>
+        <f t="shared" si="10"/>
+        <v>140.28800000000001</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="11"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>163935</v>
+        <v>141700</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <f t="shared" si="6"/>
-        <v>163.935</v>
+        <f t="shared" si="10"/>
+        <v>141.69999999999999</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="11"/>
+        <v>1.4119999999999777</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>164994</v>
+        <v>142053</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251">
-        <f t="shared" si="6"/>
-        <v>164.994</v>
+        <f t="shared" si="10"/>
+        <v>142.053</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>165347</v>
+        <v>142406</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <f t="shared" si="6"/>
-        <v>165.34700000000001</v>
+        <f t="shared" si="10"/>
+        <v>142.40600000000001</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>166582</v>
+        <v>142759</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253">
-        <f t="shared" si="6"/>
-        <v>166.58199999999999</v>
+        <f t="shared" si="10"/>
+        <v>142.75899999999999</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
-        <v>1.2349999999999852</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>143465</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="10"/>
+        <v>143.465</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="11"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>144171</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="10"/>
+        <v>144.17099999999999</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="11"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>145230</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="10"/>
+        <v>145.22999999999999</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>145582</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="10"/>
+        <v>145.58199999999999</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="11"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>145935</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="10"/>
+        <v>145.935</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>146112</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="10"/>
+        <v>146.11199999999999</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="11"/>
+        <v>0.1769999999999925</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>146465</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="10"/>
+        <v>146.465</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>146994</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="10"/>
+        <v>146.994</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>147524</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="10"/>
+        <v>147.524</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>148053</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="10"/>
+        <v>148.053</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>148230</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="10"/>
+        <v>148.22999999999999</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="11"/>
+        <v>0.1769999999999925</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>148406</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="10"/>
+        <v>148.40600000000001</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="11"/>
+        <v>0.17600000000001614</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>148935</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="10"/>
+        <v>148.935</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>149818</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="10"/>
+        <v>149.81800000000001</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="11"/>
+        <v>0.88300000000000978</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>150347</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="10"/>
+        <v>150.34700000000001</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>151230</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="10"/>
+        <v>151.22999999999999</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="11"/>
+        <v>0.88299999999998136</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>151759</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="10"/>
+        <v>151.75899999999999</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>152641</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="10"/>
+        <v>152.64099999999999</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>154053</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="10"/>
+        <v>154.053</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="11"/>
+        <v>1.4120000000000061</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>154583</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="10"/>
+        <v>154.583</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>155465</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="10"/>
+        <v>155.465</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>155994</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="10"/>
+        <v>155.994</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>156876</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="10"/>
+        <v>156.876</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>157406</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="10"/>
+        <v>157.40600000000001</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>158288</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="10"/>
+        <v>158.28800000000001</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>159171</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="10"/>
+        <v>159.17099999999999</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="11"/>
+        <v>0.88299999999998136</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>159348</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="10"/>
+        <v>159.34800000000001</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="11"/>
+        <v>0.17700000000002092</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>159524</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="10"/>
+        <v>159.524</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="11"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>159700</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="10"/>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="11"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>160230</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="10"/>
+        <v>160.22999999999999</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>161112</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="10"/>
+        <v>161.11199999999999</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>161641</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="10"/>
+        <v>161.64099999999999</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>162523</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="10"/>
+        <v>162.523</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="11"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>163052</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="10"/>
+        <v>163.05199999999999</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="11"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>163935</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="10"/>
+        <v>163.935</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="11"/>
+        <v>0.88300000000000978</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>164994</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="10"/>
+        <v>164.994</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>165347</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="10"/>
+        <v>165.34700000000001</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>166582</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="10"/>
+        <v>166.58199999999999</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="11"/>
+        <v>1.2349999999999852</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>168170</v>
       </c>
-      <c r="B254" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <f t="shared" si="6"/>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="10"/>
         <v>168.17</v>
       </c>
-      <c r="E254">
-        <f t="shared" si="7"/>
+      <c r="E292">
+        <f t="shared" si="11"/>
         <v>1.5879999999999939</v>
       </c>
     </row>

--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEAFABF-60E3-4AE5-9D4F-EE19B1E0DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F1A9B-5425-4730-BDF4-A0BE83DDA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -3696,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M267" sqref="M267"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N304" sqref="N304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A28" si="2">A8+176</f>
+        <f t="shared" ref="A9:A27" si="2">A8+176</f>
         <v>4405</v>
       </c>
       <c r="B9" t="s">
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <f t="shared" ref="D242:D292" si="10">A242/1000</f>
+        <f t="shared" ref="D242:D293" si="10">A242/1000</f>
         <v>134.64099999999999</v>
       </c>
       <c r="E242">
@@ -9214,6 +9214,21 @@
       <c r="E292">
         <f t="shared" si="11"/>
         <v>1.5879999999999939</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>170000</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="10"/>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -5,23 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\College\Software - Project 2 COMP313\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F1A9B-5425-4730-BDF4-A0BE83DDA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7142603-70EC-4B79-9C4A-72D4DFDE9ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18300" yWindow="3930" windowWidth="21645" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainbowroad" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -878,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A247" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
@@ -3696,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N304" sqref="N304"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6932,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="D168">
-        <f t="shared" ref="D168:D241" si="8">A168/1000</f>
+        <f t="shared" ref="D168:D224" si="8">A168/1000</f>
         <v>76.406000000000006</v>
       </c>
       <c r="E168">
@@ -6942,141 +6955,197 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>80641</v>
+        <v>91935</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="8"/>
+        <v>91.935000000000002</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ref="E169:E225" si="9">D169-D168</f>
+        <v>15.528999999999996</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>80641</v>
+        <v>93347</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>1</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="8"/>
+        <v>93.346999999999994</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>80641</v>
+        <v>94759</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>80.641000000000005</v>
+        <v>94.759</v>
       </c>
       <c r="E171">
-        <f>D171-D168</f>
-        <v>4.2349999999999994</v>
+        <f t="shared" si="9"/>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>83465</v>
+        <v>95994</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="8"/>
+        <v>95.994</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="9"/>
+        <v>1.2349999999999994</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>83465</v>
+        <v>97582</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="8"/>
+        <v>97.581999999999994</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="9"/>
+        <v>1.5879999999999939</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>83465</v>
+        <v>98641</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>83.465000000000003</v>
+        <v>98.641000000000005</v>
       </c>
       <c r="E174">
-        <f>D174-D171</f>
-        <v>2.8239999999999981</v>
+        <f t="shared" si="9"/>
+        <v>1.0590000000000117</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>84465</v>
+        <v>100053</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="8"/>
+        <v>100.053</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>84465</v>
+        <v>101818</v>
       </c>
       <c r="B176" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="8"/>
+        <v>101.818</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="9"/>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>84465</v>
+        <v>103229</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="8"/>
+        <v>103.229</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="9"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>86288</v>
+        <v>103582</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>86.287999999999997</v>
+        <v>103.58199999999999</v>
       </c>
       <c r="E178">
-        <f>D178-D174</f>
-        <v>2.8229999999999933</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>87700</v>
+        <v>104994</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -7086,16 +7155,16 @@
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>87.7</v>
+        <v>104.994</v>
       </c>
       <c r="E179">
-        <f t="shared" ref="E179:E242" si="9">D179-D178</f>
+        <f t="shared" si="9"/>
         <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>89112</v>
+        <v>106406</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -7105,125 +7174,149 @@
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>89.111999999999995</v>
+        <v>106.40600000000001</v>
       </c>
       <c r="E180">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>89288</v>
+        <v>107817</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>89.287999999999997</v>
+        <v>107.81699999999999</v>
       </c>
       <c r="E181">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>1.4109999999999872</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>89465</v>
+        <v>108170</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>89.465000000000003</v>
+        <v>108.17</v>
       </c>
       <c r="E182">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>90935</v>
+        <v>108523</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="8"/>
+        <v>108.523</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>90935</v>
+        <v>108700</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C184">
         <v>1</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="8"/>
+        <v>108.7</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>90935</v>
+        <v>110112</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185">
         <v>2</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="8"/>
+        <v>110.11199999999999</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="9"/>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>91935</v>
+        <v>111170</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>91.935000000000002</v>
+        <v>111.17</v>
       </c>
       <c r="E186">
-        <f>D186-D182</f>
-        <v>2.4699999999999989</v>
+        <f t="shared" si="9"/>
+        <v>1.0580000000000069</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>93347</v>
+        <v>111523</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>93.346999999999994</v>
+        <v>111.523</v>
       </c>
       <c r="E187">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>94759</v>
+        <v>111700</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -7233,121 +7326,121 @@
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>94.759</v>
+        <v>111.7</v>
       </c>
       <c r="E188">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>95994</v>
+        <v>112053</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>95.994</v>
+        <v>112.053</v>
       </c>
       <c r="E189">
         <f t="shared" si="9"/>
-        <v>1.2349999999999994</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>97582</v>
+        <v>112229</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>97.581999999999994</v>
+        <v>112.229</v>
       </c>
       <c r="E190">
         <f t="shared" si="9"/>
-        <v>1.5879999999999939</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>98641</v>
+        <v>112759</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>98.641000000000005</v>
+        <v>112.759</v>
       </c>
       <c r="E191">
         <f t="shared" si="9"/>
-        <v>1.0590000000000117</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>100053</v>
+        <v>112935</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>100.053</v>
+        <v>112.935</v>
       </c>
       <c r="E192">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>101818</v>
+        <v>113112</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>101.818</v>
+        <v>113.11199999999999</v>
       </c>
       <c r="E193">
         <f t="shared" si="9"/>
-        <v>1.7650000000000006</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>103229</v>
+        <v>114523</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>103.229</v>
+        <v>114.523</v>
       </c>
       <c r="E194">
         <f t="shared" si="9"/>
@@ -7356,64 +7449,64 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>103582</v>
+        <v>115935</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <f t="shared" si="8"/>
-        <v>103.58199999999999</v>
+        <v>115.935</v>
       </c>
       <c r="E195">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>104994</v>
+        <v>117347</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <f t="shared" si="8"/>
-        <v>104.994</v>
+        <v>117.34699999999999</v>
       </c>
       <c r="E196">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>106406</v>
+        <v>117435</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <f t="shared" si="8"/>
-        <v>106.40600000000001</v>
+        <v>117.435</v>
       </c>
       <c r="E197">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>107817</v>
+        <v>117523</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -7423,16 +7516,16 @@
       </c>
       <c r="D198">
         <f t="shared" si="8"/>
-        <v>107.81699999999999</v>
+        <v>117.523</v>
       </c>
       <c r="E198">
         <f t="shared" si="9"/>
-        <v>1.4109999999999872</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>108170</v>
+        <v>117611</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -7442,16 +7535,16 @@
       </c>
       <c r="D199">
         <f t="shared" si="8"/>
-        <v>108.17</v>
+        <v>117.611</v>
       </c>
       <c r="E199">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>108523</v>
+        <v>118053</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -7461,16 +7554,16 @@
       </c>
       <c r="D200">
         <f t="shared" si="8"/>
-        <v>108.523</v>
+        <v>118.053</v>
       </c>
       <c r="E200">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.44199999999999307</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>108700</v>
+        <v>118141</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -7480,73 +7573,73 @@
       </c>
       <c r="D201">
         <f t="shared" si="8"/>
-        <v>108.7</v>
+        <v>118.14100000000001</v>
       </c>
       <c r="E201">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>110112</v>
+        <v>118229</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <f t="shared" si="8"/>
-        <v>110.11199999999999</v>
+        <v>118.229</v>
       </c>
       <c r="E202">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>111170</v>
+        <v>118317</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <f t="shared" si="8"/>
-        <v>111.17</v>
+        <v>118.31699999999999</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
-        <v>1.0580000000000069</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>111523</v>
+        <v>118759</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D204">
         <f t="shared" si="8"/>
-        <v>111.523</v>
+        <v>118.759</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.44200000000000728</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>111700</v>
+        <v>120170</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -7556,130 +7649,130 @@
       </c>
       <c r="D205">
         <f t="shared" si="8"/>
-        <v>111.7</v>
+        <v>120.17</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>112053</v>
+        <v>121582</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <f t="shared" si="8"/>
-        <v>112.053</v>
+        <v>121.58199999999999</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>112229</v>
+        <v>122288</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <f t="shared" si="8"/>
-        <v>112.229</v>
+        <v>122.288</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>112759</v>
+        <v>122376</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
         <f t="shared" si="8"/>
-        <v>112.759</v>
+        <v>122.376</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>112935</v>
+        <v>122464</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
         <f t="shared" si="8"/>
-        <v>112.935</v>
+        <v>122.464</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>113112</v>
+        <v>122553</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
         <f t="shared" si="8"/>
-        <v>113.11199999999999</v>
+        <v>122.553</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
-        <v>0.1769999999999925</v>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>114523</v>
+        <v>122994</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D211">
         <f t="shared" si="8"/>
-        <v>114.523</v>
+        <v>122.994</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <v>0.4410000000000025</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>115935</v>
+        <v>123082</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -7689,73 +7782,73 @@
       </c>
       <c r="D212">
         <f t="shared" si="8"/>
-        <v>115.935</v>
+        <v>123.08199999999999</v>
       </c>
       <c r="E212">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>117347</v>
+        <v>123170</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
         <f t="shared" si="8"/>
-        <v>117.34699999999999</v>
+        <v>123.17</v>
       </c>
       <c r="E213">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>8.8000000000008072E-2</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>117435</v>
+        <v>123259</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
         <f t="shared" si="8"/>
-        <v>117.435</v>
+        <v>123.259</v>
       </c>
       <c r="E214">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>117523</v>
+        <v>124406</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <f t="shared" si="8"/>
-        <v>117.523</v>
+        <v>124.40600000000001</v>
       </c>
       <c r="E215">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>1.1470000000000056</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>117611</v>
+        <v>125818</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -7765,35 +7858,35 @@
       </c>
       <c r="D216">
         <f t="shared" si="8"/>
-        <v>117.611</v>
+        <v>125.818</v>
       </c>
       <c r="E216">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>118053</v>
+        <v>127583</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
         <f t="shared" si="8"/>
-        <v>118.053</v>
+        <v>127.583</v>
       </c>
       <c r="E217">
         <f t="shared" si="9"/>
-        <v>0.44199999999999307</v>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>118141</v>
+        <v>128994</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -7803,54 +7896,54 @@
       </c>
       <c r="D218">
         <f t="shared" si="8"/>
-        <v>118.14100000000001</v>
+        <v>128.994</v>
       </c>
       <c r="E218">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>118229</v>
+        <v>130053</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
         <f t="shared" si="8"/>
-        <v>118.229</v>
+        <v>130.053</v>
       </c>
       <c r="E219">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>118317</v>
+        <v>130406</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
         <f t="shared" si="8"/>
-        <v>118.31699999999999</v>
+        <v>130.40600000000001</v>
       </c>
       <c r="E220">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>118759</v>
+        <v>130759</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -7860,149 +7953,149 @@
       </c>
       <c r="D221">
         <f t="shared" si="8"/>
-        <v>118.759</v>
+        <v>130.75899999999999</v>
       </c>
       <c r="E221">
         <f t="shared" si="9"/>
-        <v>0.44200000000000728</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>120170</v>
+        <v>131641</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
         <f t="shared" si="8"/>
-        <v>120.17</v>
+        <v>131.64099999999999</v>
       </c>
       <c r="E222">
         <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>121582</v>
+        <v>133230</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
         <f t="shared" si="8"/>
-        <v>121.58199999999999</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="E223">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>1.5889999999999986</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>122288</v>
+        <v>134288</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <f t="shared" si="8"/>
-        <v>122.288</v>
+        <v>134.28800000000001</v>
       </c>
       <c r="E224">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>1.0580000000000211</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>122376</v>
+        <v>134641</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <f t="shared" si="8"/>
-        <v>122.376</v>
+        <f t="shared" ref="D225:D276" si="10">A225/1000</f>
+        <v>134.64099999999999</v>
       </c>
       <c r="E225">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>122464</v>
+        <v>134994</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <f t="shared" si="8"/>
-        <v>122.464</v>
+        <f t="shared" si="10"/>
+        <v>134.994</v>
       </c>
       <c r="E226">
-        <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" ref="E226:E275" si="11">D226-D225</f>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>122553</v>
+        <v>135347</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <f t="shared" si="8"/>
-        <v>122.553</v>
+        <f t="shared" si="10"/>
+        <v>135.34700000000001</v>
       </c>
       <c r="E227">
-        <f t="shared" si="9"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>122994</v>
+        <v>135700</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <f t="shared" si="8"/>
-        <v>122.994</v>
+        <f t="shared" si="10"/>
+        <v>135.69999999999999</v>
       </c>
       <c r="E228">
-        <f t="shared" si="9"/>
-        <v>0.4410000000000025</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>123082</v>
+        <v>136759</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
@@ -8011,17 +8104,17 @@
         <v>2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="8"/>
-        <v>123.08199999999999</v>
+        <f t="shared" si="10"/>
+        <v>136.75899999999999</v>
       </c>
       <c r="E229">
-        <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>123170</v>
+        <v>137112</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -8030,169 +8123,169 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="8"/>
-        <v>123.17</v>
+        <f t="shared" si="10"/>
+        <v>137.11199999999999</v>
       </c>
       <c r="E230">
-        <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>123259</v>
+        <v>138877</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <f t="shared" si="8"/>
-        <v>123.259</v>
+        <f t="shared" si="10"/>
+        <v>138.87700000000001</v>
       </c>
       <c r="E231">
-        <f t="shared" si="9"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.7650000000000148</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>124406</v>
+        <v>140288</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <f t="shared" si="8"/>
-        <v>124.40600000000001</v>
+        <f t="shared" si="10"/>
+        <v>140.28800000000001</v>
       </c>
       <c r="E232">
-        <f t="shared" si="9"/>
-        <v>1.1470000000000056</v>
+        <f t="shared" si="11"/>
+        <v>1.4110000000000014</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>125818</v>
+        <v>141700</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <f t="shared" si="8"/>
-        <v>125.818</v>
+        <f t="shared" si="10"/>
+        <v>141.69999999999999</v>
       </c>
       <c r="E233">
-        <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="11"/>
+        <v>1.4119999999999777</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>127583</v>
+        <v>142053</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <f t="shared" si="8"/>
-        <v>127.583</v>
+        <f t="shared" si="10"/>
+        <v>142.053</v>
       </c>
       <c r="E234">
-        <f t="shared" si="9"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>128994</v>
+        <v>142406</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <f t="shared" si="8"/>
-        <v>128.994</v>
+        <f t="shared" si="10"/>
+        <v>142.40600000000001</v>
       </c>
       <c r="E235">
-        <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>130053</v>
+        <v>142759</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <f t="shared" si="8"/>
-        <v>130.053</v>
+        <f t="shared" si="10"/>
+        <v>142.75899999999999</v>
       </c>
       <c r="E236">
-        <f t="shared" si="9"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>130406</v>
+        <v>143465</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <f t="shared" si="8"/>
-        <v>130.40600000000001</v>
+        <f t="shared" si="10"/>
+        <v>143.465</v>
       </c>
       <c r="E237">
-        <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="11"/>
+        <v>0.70600000000001728</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>130759</v>
+        <v>144171</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <f t="shared" si="8"/>
-        <v>130.75899999999999</v>
+        <f t="shared" si="10"/>
+        <v>144.17099999999999</v>
       </c>
       <c r="E238">
-        <f t="shared" si="9"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="11"/>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>131641</v>
+        <v>145230</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -8201,36 +8294,36 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <f t="shared" si="8"/>
-        <v>131.64099999999999</v>
+        <f t="shared" si="10"/>
+        <v>145.22999999999999</v>
       </c>
       <c r="E239">
-        <f t="shared" si="9"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>133230</v>
+        <v>145582</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <f t="shared" si="8"/>
-        <v>133.22999999999999</v>
+        <f t="shared" si="10"/>
+        <v>145.58199999999999</v>
       </c>
       <c r="E240">
-        <f t="shared" si="9"/>
-        <v>1.5889999999999986</v>
+        <f t="shared" si="11"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>134288</v>
+        <v>145935</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
@@ -8239,17 +8332,17 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <f t="shared" si="8"/>
-        <v>134.28800000000001</v>
+        <f t="shared" si="10"/>
+        <v>145.935</v>
       </c>
       <c r="E241">
-        <f t="shared" si="9"/>
-        <v>1.0580000000000211</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>134641</v>
+        <v>146112</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -8258,17 +8351,17 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <f t="shared" ref="D242:D293" si="10">A242/1000</f>
-        <v>134.64099999999999</v>
+        <f t="shared" si="10"/>
+        <v>146.11199999999999</v>
       </c>
       <c r="E242">
-        <f t="shared" si="9"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="11"/>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>134994</v>
+        <v>146465</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
@@ -8278,92 +8371,92 @@
       </c>
       <c r="D243">
         <f t="shared" si="10"/>
-        <v>134.994</v>
+        <v>146.465</v>
       </c>
       <c r="E243">
-        <f t="shared" ref="E243:E292" si="11">D243-D242</f>
+        <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>135347</v>
+        <v>146994</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <f t="shared" si="10"/>
-        <v>135.34700000000001</v>
+        <v>146.994</v>
       </c>
       <c r="E244">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>135700</v>
+        <v>147524</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245">
         <f t="shared" si="10"/>
-        <v>135.69999999999999</v>
+        <v>147.524</v>
       </c>
       <c r="E245">
         <f t="shared" si="11"/>
-        <v>0.35299999999998022</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>136759</v>
+        <v>148053</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <f t="shared" si="10"/>
-        <v>136.75899999999999</v>
+        <v>148.053</v>
       </c>
       <c r="E246">
         <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>137112</v>
+        <v>148230</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D247">
         <f t="shared" si="10"/>
-        <v>137.11199999999999</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="E247">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>138877</v>
+        <v>148406</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
@@ -8373,168 +8466,168 @@
       </c>
       <c r="D248">
         <f t="shared" si="10"/>
-        <v>138.87700000000001</v>
+        <v>148.40600000000001</v>
       </c>
       <c r="E248">
         <f t="shared" si="11"/>
-        <v>1.7650000000000148</v>
+        <v>0.17600000000001614</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>140288</v>
+        <v>148935</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <f t="shared" si="10"/>
-        <v>140.28800000000001</v>
+        <v>148.935</v>
       </c>
       <c r="E249">
         <f t="shared" si="11"/>
-        <v>1.4110000000000014</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>141700</v>
+        <v>149818</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250">
         <f t="shared" si="10"/>
-        <v>141.69999999999999</v>
+        <v>149.81800000000001</v>
       </c>
       <c r="E250">
         <f t="shared" si="11"/>
-        <v>1.4119999999999777</v>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>142053</v>
+        <v>150347</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251">
         <f t="shared" si="10"/>
-        <v>142.053</v>
+        <v>150.34700000000001</v>
       </c>
       <c r="E251">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>142406</v>
+        <v>151230</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D252">
         <f t="shared" si="10"/>
-        <v>142.40600000000001</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E252">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.88299999999998136</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>142759</v>
+        <v>151759</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D253">
         <f t="shared" si="10"/>
-        <v>142.75899999999999</v>
+        <v>151.75899999999999</v>
       </c>
       <c r="E253">
         <f t="shared" si="11"/>
-        <v>0.35299999999998022</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>143465</v>
+        <v>152641</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <f t="shared" si="10"/>
-        <v>143.465</v>
+        <v>152.64099999999999</v>
       </c>
       <c r="E254">
         <f t="shared" si="11"/>
-        <v>0.70600000000001728</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>144171</v>
+        <v>154053</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D255">
         <f t="shared" si="10"/>
-        <v>144.17099999999999</v>
+        <v>154.053</v>
       </c>
       <c r="E255">
         <f t="shared" si="11"/>
-        <v>0.70599999999998886</v>
+        <v>1.4120000000000061</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>145230</v>
+        <v>154583</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
         <f t="shared" si="10"/>
-        <v>145.22999999999999</v>
+        <v>154.583</v>
       </c>
       <c r="E256">
         <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>145582</v>
+        <v>155465</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -8544,16 +8637,16 @@
       </c>
       <c r="D257">
         <f t="shared" si="10"/>
-        <v>145.58199999999999</v>
+        <v>155.465</v>
       </c>
       <c r="E257">
         <f t="shared" si="11"/>
-        <v>0.35200000000000387</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>145935</v>
+        <v>155994</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -8563,197 +8656,197 @@
       </c>
       <c r="D258">
         <f t="shared" si="10"/>
-        <v>145.935</v>
+        <v>155.994</v>
       </c>
       <c r="E258">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>146112</v>
+        <v>156876</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <f t="shared" si="10"/>
-        <v>146.11199999999999</v>
+        <v>156.876</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
-        <v>0.1769999999999925</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>146465</v>
+        <v>157406</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260">
         <f t="shared" si="10"/>
-        <v>146.465</v>
+        <v>157.40600000000001</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>146994</v>
+        <v>158288</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <f t="shared" si="10"/>
-        <v>146.994</v>
+        <v>158.28800000000001</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>147524</v>
+        <v>159171</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D262">
         <f t="shared" si="10"/>
-        <v>147.524</v>
+        <v>159.17099999999999</v>
       </c>
       <c r="E262">
         <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
+        <v>0.88299999999998136</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>148053</v>
+        <v>159348</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D263">
         <f t="shared" si="10"/>
-        <v>148.053</v>
+        <v>159.34800000000001</v>
       </c>
       <c r="E263">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.17700000000002092</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>148230</v>
+        <v>159524</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D264">
         <f t="shared" si="10"/>
-        <v>148.22999999999999</v>
+        <v>159.524</v>
       </c>
       <c r="E264">
         <f t="shared" si="11"/>
-        <v>0.1769999999999925</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>148406</v>
+        <v>159700</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D265">
         <f t="shared" si="10"/>
-        <v>148.40600000000001</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="E265">
         <f t="shared" si="11"/>
-        <v>0.17600000000001614</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>148935</v>
+        <v>160230</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <f t="shared" si="10"/>
-        <v>148.935</v>
+        <v>160.22999999999999</v>
       </c>
       <c r="E266">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>149818</v>
+        <v>161112</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
         <f t="shared" si="10"/>
-        <v>149.81800000000001</v>
+        <v>161.11199999999999</v>
       </c>
       <c r="E267">
         <f t="shared" si="11"/>
-        <v>0.88300000000000978</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>150347</v>
+        <v>161641</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268">
         <f t="shared" si="10"/>
-        <v>150.34700000000001</v>
+        <v>161.64099999999999</v>
       </c>
       <c r="E268">
         <f t="shared" si="11"/>
@@ -8762,36 +8855,36 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>151230</v>
+        <v>162523</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <f t="shared" si="10"/>
-        <v>151.22999999999999</v>
+        <v>162.523</v>
       </c>
       <c r="E269">
         <f t="shared" si="11"/>
-        <v>0.88299999999998136</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>151759</v>
+        <v>163052</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
         <f t="shared" si="10"/>
-        <v>151.75899999999999</v>
+        <v>163.05199999999999</v>
       </c>
       <c r="E270">
         <f t="shared" si="11"/>
@@ -8800,64 +8893,64 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>152641</v>
+        <v>163935</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D271">
         <f t="shared" si="10"/>
-        <v>152.64099999999999</v>
+        <v>163.935</v>
       </c>
       <c r="E271">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>154053</v>
+        <v>164994</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
         <f t="shared" si="10"/>
-        <v>154.053</v>
+        <v>164.994</v>
       </c>
       <c r="E272">
         <f t="shared" si="11"/>
-        <v>1.4120000000000061</v>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>154583</v>
+        <v>165347</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273">
         <f t="shared" si="10"/>
-        <v>154.583</v>
+        <v>165.34700000000001</v>
       </c>
       <c r="E273">
         <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>155465</v>
+        <v>166582</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -8867,16 +8960,16 @@
       </c>
       <c r="D274">
         <f t="shared" si="10"/>
-        <v>155.465</v>
+        <v>166.58199999999999</v>
       </c>
       <c r="E274">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>1.2349999999999852</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>155994</v>
+        <v>168170</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -8886,347 +8979,24 @@
       </c>
       <c r="D275">
         <f t="shared" si="10"/>
-        <v>155.994</v>
+        <v>168.17</v>
       </c>
       <c r="E275">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>1.5879999999999939</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>156876</v>
+        <v>170000</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <f t="shared" si="10"/>
-        <v>156.876</v>
-      </c>
-      <c r="E276">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>157406</v>
-      </c>
-      <c r="B277" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277">
-        <f t="shared" si="10"/>
-        <v>157.40600000000001</v>
-      </c>
-      <c r="E277">
-        <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>158288</v>
-      </c>
-      <c r="B278" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <f t="shared" si="10"/>
-        <v>158.28800000000001</v>
-      </c>
-      <c r="E278">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>159171</v>
-      </c>
-      <c r="B279" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279">
-        <v>2</v>
-      </c>
-      <c r="D279">
-        <f t="shared" si="10"/>
-        <v>159.17099999999999</v>
-      </c>
-      <c r="E279">
-        <f t="shared" si="11"/>
-        <v>0.88299999999998136</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>159348</v>
-      </c>
-      <c r="B280" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280">
-        <v>2</v>
-      </c>
-      <c r="D280">
-        <f t="shared" si="10"/>
-        <v>159.34800000000001</v>
-      </c>
-      <c r="E280">
-        <f t="shared" si="11"/>
-        <v>0.17700000000002092</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>159524</v>
-      </c>
-      <c r="B281" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281">
-        <v>2</v>
-      </c>
-      <c r="D281">
-        <f t="shared" si="10"/>
-        <v>159.524</v>
-      </c>
-      <c r="E281">
-        <f t="shared" si="11"/>
-        <v>0.17599999999998772</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>159700</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282">
-        <v>2</v>
-      </c>
-      <c r="D282">
-        <f t="shared" si="10"/>
-        <v>159.69999999999999</v>
-      </c>
-      <c r="E282">
-        <f t="shared" si="11"/>
-        <v>0.17599999999998772</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>160230</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <f t="shared" si="10"/>
-        <v>160.22999999999999</v>
-      </c>
-      <c r="E283">
-        <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>161112</v>
-      </c>
-      <c r="B284" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284">
-        <v>0</v>
-      </c>
-      <c r="D284">
-        <f t="shared" si="10"/>
-        <v>161.11199999999999</v>
-      </c>
-      <c r="E284">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>161641</v>
-      </c>
-      <c r="B285" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <f t="shared" si="10"/>
-        <v>161.64099999999999</v>
-      </c>
-      <c r="E285">
-        <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>162523</v>
-      </c>
-      <c r="B286" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <f t="shared" si="10"/>
-        <v>162.523</v>
-      </c>
-      <c r="E286">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>163052</v>
-      </c>
-      <c r="B287" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <f t="shared" si="10"/>
-        <v>163.05199999999999</v>
-      </c>
-      <c r="E287">
-        <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>163935</v>
-      </c>
-      <c r="B288" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288">
-        <v>2</v>
-      </c>
-      <c r="D288">
-        <f t="shared" si="10"/>
-        <v>163.935</v>
-      </c>
-      <c r="E288">
-        <f t="shared" si="11"/>
-        <v>0.88300000000000978</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>164994</v>
-      </c>
-      <c r="B289" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <f t="shared" si="10"/>
-        <v>164.994</v>
-      </c>
-      <c r="E289">
-        <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>165347</v>
-      </c>
-      <c r="B290" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290">
-        <v>1</v>
-      </c>
-      <c r="D290">
-        <f t="shared" si="10"/>
-        <v>165.34700000000001</v>
-      </c>
-      <c r="E290">
-        <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>166582</v>
-      </c>
-      <c r="B291" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-      <c r="D291">
-        <f t="shared" si="10"/>
-        <v>166.58199999999999</v>
-      </c>
-      <c r="E291">
-        <f t="shared" si="11"/>
-        <v>1.2349999999999852</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>168170</v>
-      </c>
-      <c r="B292" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292">
-        <f t="shared" si="10"/>
-        <v>168.17</v>
-      </c>
-      <c r="E292">
-        <f t="shared" si="11"/>
-        <v>1.5879999999999939</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>170000</v>
-      </c>
-      <c r="B293" t="s">
-        <v>4</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293">
         <f t="shared" si="10"/>
         <v>170</v>
       </c>

--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\College\Software - Project 2 COMP313\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7142603-70EC-4B79-9C4A-72D4DFDE9ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A80EF-F00E-40A7-8E14-7C5F2DD1FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="3930" windowWidth="21645" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainbowroad" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -532,8 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3709,15 +3710,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2994</v>
       </c>
@@ -3728,17 +3729,13 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:D48" si="0">A1/1000</f>
+        <f t="shared" ref="D1:D32" si="0">A1/1000</f>
         <v>2.9940000000000002</v>
       </c>
-      <c r="G1">
-        <f>A2-A1</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3170</v>
+        <v>3347</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3748,16 +3745,16 @@
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.347</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E49" si="1">D2-D1</f>
-        <v>0.17599999999999971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E2:E5" si="1">D2-D1</f>
+        <v>0.35299999999999976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3347</v>
+        <v>3700</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3767,19 +3764,16 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>3.347</v>
+        <v>3.7</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.17700000000000005</v>
-      </c>
-      <c r="G3">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3530000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3523</v>
+        <v>4053</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3789,16 +3783,16 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3.5230000000000001</v>
+        <v>4.0529999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35299999999999976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3700</v>
+        <v>4405</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3808,16 +3802,16 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>4.4050000000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.17700000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3876</v>
+        <v>4757</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3827,16 +3821,16 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.8759999999999999</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E6:E22" si="2">D6-D5</f>
+        <v>0.35199999999999942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4053</v>
+        <v>5109</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3846,17 +3840,16 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.0529999999999999</v>
+        <v>5.109</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.17700000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+176</f>
-        <v>4229</v>
+        <v>5461</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3866,17 +3859,16 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4.2290000000000001</v>
+        <v>5.4610000000000003</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A27" si="2">A8+176</f>
-        <v>4405</v>
+        <v>5813</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3886,17 +3878,16 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4.4050000000000002</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35199999999999942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
-        <v>4581</v>
+        <v>6165</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3906,17 +3897,16 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4.5810000000000004</v>
+        <v>6.165</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
-        <v>4757</v>
+        <v>6517</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -3926,17 +3916,16 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4.7569999999999997</v>
+        <v>6.5170000000000003</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
-        <v>4933</v>
+        <v>6869</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -3946,17 +3935,16 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>4.9329999999999998</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35199999999999942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
-        <v>5109</v>
+        <v>7221</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -3966,17 +3954,16 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>5.109</v>
+        <v>7.2210000000000001</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
-        <v>5285</v>
+        <v>7573</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -3986,17 +3973,16 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>5.2850000000000001</v>
+        <v>7.5730000000000004</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>5461</v>
+        <v>7925</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -4006,17 +3992,16 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>5.4610000000000003</v>
+        <v>7.9249999999999998</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35199999999999942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>5637</v>
+        <v>8277</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4026,17 +4011,16 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5.6369999999999996</v>
+        <v>8.2769999999999992</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999927</v>
+        <f t="shared" si="2"/>
+        <v>0.35199999999999942</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>5813</v>
+        <v>8629</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -4046,17 +4030,16 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>5.8129999999999997</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
-        <v>5989</v>
+        <v>8981</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -4066,17 +4049,16 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>5.9889999999999999</v>
+        <v>8.9809999999999999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
-        <v>6165</v>
+        <v>9333</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -4086,17 +4068,16 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>6.165</v>
+        <v>9.3330000000000002</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
-        <v>6341</v>
+        <v>9685</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4106,17 +4087,16 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>6.3410000000000002</v>
+        <v>9.6850000000000005</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
-        <v>6517</v>
+        <v>10037</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4126,17 +4106,16 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>6.5170000000000003</v>
+        <v>10.037000000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="2"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
-        <v>6693</v>
+        <v>10389</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -4146,17 +4125,16 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>6.6929999999999996</v>
+        <v>10.388999999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999927</v>
+        <f t="shared" si="2"/>
+        <v>0.35199999999999854</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
-        <v>6869</v>
+        <v>10741</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -4166,17 +4144,16 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>6.8689999999999998</v>
+        <v>10.741</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" ref="E23:E25" si="3">D23-D22</f>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
-        <v>7045</v>
+        <v>11093</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -4186,17 +4163,16 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>7.0449999999999999</v>
+        <v>11.093</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="3"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
-        <v>7221</v>
+        <v>11465</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -4206,17 +4182,16 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>7.2210000000000001</v>
+        <v>11.465</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="3"/>
+        <v>0.37199999999999989</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
-        <v>7397</v>
+        <v>11818</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -4226,17 +4201,16 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>7.3970000000000002</v>
+        <v>11.818</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" ref="E26:E80" si="4">D26-D25</f>
+        <v>0.35299999999999976</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
-        <v>7573</v>
+        <v>12170</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -4246,17 +4220,16 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>7.5730000000000004</v>
+        <v>12.17</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+176</f>
-        <v>7749</v>
+        <v>12523</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -4266,17 +4239,16 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>7.7489999999999997</v>
+        <v>12.523</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999927</v>
+        <f t="shared" si="4"/>
+        <v>0.35299999999999976</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ref="A29:A47" si="3">A28+176</f>
-        <v>7925</v>
+        <v>13229</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -4286,37 +4258,35 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>7.9249999999999998</v>
+        <v>13.228999999999999</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="3"/>
-        <v>8101</v>
+        <v>13935</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>8.1010000000000009</v>
+        <v>13.935</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000104</v>
+        <f t="shared" si="4"/>
+        <v>0.70600000000000129</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="3"/>
-        <v>8277</v>
+        <v>14641</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4326,57 +4296,54 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>8.2769999999999992</v>
+        <v>14.641</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0.17599999999999838</v>
+        <f t="shared" si="4"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="3"/>
-        <v>8453</v>
+        <v>15347</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>8.4529999999999994</v>
+        <v>15.347</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="3"/>
-        <v>8629</v>
+        <v>17112</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>8.6289999999999996</v>
+        <f t="shared" ref="D33:D79" si="5">A33/1000</f>
+        <v>17.111999999999998</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>1.7649999999999988</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="3"/>
-        <v>8805</v>
+        <v>17818</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -4385,18 +4352,17 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>8.8049999999999997</v>
+        <f t="shared" si="5"/>
+        <v>17.818000000000001</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="3"/>
-        <v>8981</v>
+        <v>18170</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -4405,118 +4371,112 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>8.9809999999999999</v>
+        <f t="shared" si="5"/>
+        <v>18.170000000000002</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="3"/>
-        <v>9157</v>
+        <v>18876</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>9.157</v>
+        <f t="shared" si="5"/>
+        <v>18.876000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="3"/>
-        <v>9333</v>
+        <v>19229</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>9.3330000000000002</v>
+        <f t="shared" si="5"/>
+        <v>19.228999999999999</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="3"/>
-        <v>9509</v>
+        <v>19582</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>9.5090000000000003</v>
+        <f t="shared" si="5"/>
+        <v>19.582000000000001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="3"/>
-        <v>9685</v>
+        <v>21170</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>9.6850000000000005</v>
+        <f t="shared" si="5"/>
+        <v>21.17</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>1.588000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="3"/>
-        <v>9861</v>
+        <v>21523</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>9.8610000000000007</v>
+        <f t="shared" si="5"/>
+        <v>21.523</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
-        <v>10037</v>
+        <v>22053</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4525,18 +4485,17 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>10.037000000000001</v>
+        <f t="shared" si="5"/>
+        <v>22.053000000000001</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="3"/>
-        <v>10213</v>
+        <v>22229</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4545,18 +4504,17 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>10.212999999999999</v>
+        <f t="shared" si="5"/>
+        <v>22.228999999999999</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="3"/>
-        <v>10389</v>
+        <v>22406</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4565,18 +4523,17 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>10.388999999999999</v>
+        <f t="shared" si="5"/>
+        <v>22.405999999999999</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="3"/>
-        <v>10565</v>
+        <v>22759</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -4585,18 +4542,17 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>10.565</v>
+        <f t="shared" si="5"/>
+        <v>22.759</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="3"/>
-        <v>10741</v>
+        <v>23112</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -4605,18 +4561,17 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>10.741</v>
+        <f t="shared" si="5"/>
+        <v>23.111999999999998</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="3"/>
-        <v>10917</v>
+        <v>23465</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -4625,114 +4580,112 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>10.917</v>
+        <f t="shared" si="5"/>
+        <v>23.465</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="3"/>
-        <v>11093</v>
+        <v>24170</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>11.093</v>
+        <f t="shared" si="5"/>
+        <v>24.17</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>0.70500000000000185</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>A47+176</f>
-        <v>11269</v>
+        <v>25229</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>11.269</v>
+        <f t="shared" si="5"/>
+        <v>25.228999999999999</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0.17600000000000016</v>
+        <f t="shared" si="4"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11465</v>
+        <v>25582</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D103" si="4">A49/1000</f>
-        <v>11.465</v>
+        <f t="shared" si="5"/>
+        <v>25.582000000000001</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0.19599999999999973</v>
+        <f t="shared" si="4"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13229</v>
+        <v>26288</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
+        <f t="shared" si="5"/>
+        <v>26.288</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="4"/>
-        <v>13.228999999999999</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ref="E50:E104" si="5">D50-D49</f>
-        <v>1.7639999999999993</v>
+        <v>0.70599999999999952</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>14641</v>
+        <v>26641</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
+        <f t="shared" si="5"/>
+        <v>26.640999999999998</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="4"/>
-        <v>14.641</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="5"/>
-        <v>1.4120000000000008</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>15347</v>
+        <v>26994</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -4741,112 +4694,112 @@
         <v>1</v>
       </c>
       <c r="D52">
+        <f t="shared" si="5"/>
+        <v>26.994</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="4"/>
-        <v>15.347</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="5"/>
-        <v>0.70599999999999952</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>17112</v>
+        <v>27347</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
+        <f t="shared" si="5"/>
+        <v>27.347000000000001</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="4"/>
-        <v>17.111999999999998</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="5"/>
-        <v>1.7649999999999988</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>18876</v>
+        <v>27700</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
+        <f t="shared" si="5"/>
+        <v>27.7</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="4"/>
-        <v>18.876000000000001</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="5"/>
-        <v>1.7640000000000029</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>19582</v>
+        <v>28053</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
+        <f t="shared" si="5"/>
+        <v>28.053000000000001</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="4"/>
-        <v>19.582000000000001</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="5"/>
-        <v>0.70599999999999952</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>21170</v>
+        <v>28229</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
+        <f t="shared" si="5"/>
+        <v>28.228999999999999</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="4"/>
-        <v>21.17</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="5"/>
-        <v>1.588000000000001</v>
+        <v>0.17599999999999838</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>21523</v>
+        <v>28406</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
+        <f t="shared" si="5"/>
+        <v>28.405999999999999</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="4"/>
-        <v>21.523</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999798</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>22053</v>
+        <v>28759</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4855,17 +4808,17 @@
         <v>1</v>
       </c>
       <c r="D58">
+        <f t="shared" si="5"/>
+        <v>28.759</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="4"/>
-        <v>22.053000000000001</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="5"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>22229</v>
+        <v>29112</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4874,74 +4827,74 @@
         <v>1</v>
       </c>
       <c r="D59">
+        <f t="shared" si="5"/>
+        <v>29.111999999999998</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="4"/>
-        <v>22.228999999999999</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="5"/>
-        <v>0.17599999999999838</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>22759</v>
+        <v>29465</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
+        <f t="shared" si="5"/>
+        <v>29.465</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="4"/>
-        <v>22.759</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="5"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>23112</v>
+        <v>29818</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
+        <f t="shared" si="5"/>
+        <v>29.818000000000001</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="4"/>
-        <v>23.111999999999998</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999798</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>23818</v>
+        <v>30170</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
+        <f t="shared" si="5"/>
+        <v>30.17</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="4"/>
-        <v>23.818000000000001</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="5"/>
-        <v>0.70600000000000307</v>
+        <v>0.35200000000000031</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>24170</v>
+        <v>30523</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4950,36 +4903,36 @@
         <v>1</v>
       </c>
       <c r="D63">
+        <f t="shared" si="5"/>
+        <v>30.523</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="4"/>
-        <v>24.17</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="5"/>
-        <v>0.35200000000000031</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>24523</v>
+        <v>30876</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
+        <f t="shared" si="5"/>
+        <v>30.876000000000001</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="4"/>
-        <v>24.523</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999798</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>24876</v>
+        <v>31229</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -4988,74 +4941,74 @@
         <v>1</v>
       </c>
       <c r="D65">
+        <f t="shared" si="5"/>
+        <v>31.228999999999999</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="4"/>
-        <v>24.876000000000001</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="5"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>25582</v>
+        <v>31582</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
+        <f t="shared" si="5"/>
+        <v>31.582000000000001</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="4"/>
-        <v>25.582000000000001</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="5"/>
-        <v>0.70599999999999952</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>25935</v>
+        <v>31935</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
+        <f t="shared" si="5"/>
+        <v>31.934999999999999</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="4"/>
-        <v>25.934999999999999</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="5"/>
         <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>26641</v>
+        <v>32288</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
+        <f t="shared" si="5"/>
+        <v>32.287999999999997</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="4"/>
-        <v>26.640999999999998</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="5"/>
-        <v>0.70599999999999952</v>
+        <v>0.35299999999999798</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>27700</v>
+        <v>32641</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -5064,17 +5017,17 @@
         <v>1</v>
       </c>
       <c r="D69">
+        <f t="shared" si="5"/>
+        <v>32.640999999999998</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="4"/>
-        <v>27.7</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="5"/>
-        <v>1.0590000000000011</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>28053</v>
+        <v>32994</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -5083,150 +5036,150 @@
         <v>1</v>
       </c>
       <c r="D70">
+        <f t="shared" si="5"/>
+        <v>32.994</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="4"/>
-        <v>28.053000000000001</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="5"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>28229</v>
+        <v>33347</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
+        <f t="shared" si="5"/>
+        <v>33.347000000000001</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="4"/>
-        <v>28.228999999999999</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="5"/>
-        <v>0.17599999999999838</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>28406</v>
+        <v>33700</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
+        <f t="shared" si="5"/>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="4"/>
-        <v>28.405999999999999</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="5"/>
-        <v>0.1769999999999996</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>28494</v>
+        <v>33876</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
+        <f t="shared" si="5"/>
+        <v>33.875999999999998</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="4"/>
-        <v>28.494</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>28582</v>
+        <v>33965</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
+        <f t="shared" si="5"/>
+        <v>33.965000000000003</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="4"/>
-        <v>28.582000000000001</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <v>8.9000000000005741E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>29818</v>
+        <v>34053</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
+        <f t="shared" si="5"/>
+        <v>34.052999999999997</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="4"/>
-        <v>29.818000000000001</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="5"/>
-        <v>1.2360000000000007</v>
+        <v>8.7999999999993861E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>29906</v>
+        <v>34406</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
+        <f t="shared" si="5"/>
+        <v>34.405999999999999</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="4"/>
-        <v>29.905999999999999</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="5"/>
-        <v>8.7999999999997414E-2</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>29994</v>
+        <v>34759</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
+        <f t="shared" si="5"/>
+        <v>34.759</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="4"/>
-        <v>29.994</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>31229</v>
+        <v>35112</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -5235,169 +5188,169 @@
         <v>1</v>
       </c>
       <c r="D78">
+        <f t="shared" si="5"/>
+        <v>35.112000000000002</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="4"/>
-        <v>31.228999999999999</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="5"/>
-        <v>1.2349999999999994</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>31318</v>
+        <v>35818</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
+        <f t="shared" si="5"/>
+        <v>35.817999999999998</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="4"/>
-        <v>31.318000000000001</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
-        <v>8.9000000000002188E-2</v>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>31406</v>
+        <v>36170</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
+        <f t="shared" ref="D80:D143" si="6">A80/1000</f>
+        <v>36.17</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="4"/>
-        <v>31.405999999999999</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="5"/>
-        <v>8.7999999999997414E-2</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>32641</v>
+        <v>36523</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
-        <v>32.640999999999998</v>
+        <f t="shared" si="6"/>
+        <v>36.523000000000003</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
-        <v>1.2349999999999994</v>
+        <f t="shared" ref="E81:E144" si="7">D81-D80</f>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>32729</v>
+        <v>37229</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
-        <v>32.728999999999999</v>
+        <f t="shared" si="6"/>
+        <v>37.228999999999999</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>32817</v>
+        <v>37582</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
-        <v>32.817</v>
+        <f t="shared" si="6"/>
+        <v>37.582000000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>32905</v>
+        <v>37935</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
-        <v>32.905000000000001</v>
+        <f t="shared" si="6"/>
+        <v>37.935000000000002</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>32993</v>
+        <v>38288</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
-        <v>32.993000000000002</v>
+        <f t="shared" si="6"/>
+        <v>38.287999999999997</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>33082</v>
+        <v>38641</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
-        <v>33.082000000000001</v>
+        <f t="shared" si="6"/>
+        <v>38.640999999999998</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>33170</v>
+        <v>39347</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -5406,55 +5359,55 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
-        <v>33.17</v>
+        <f t="shared" si="6"/>
+        <v>39.347000000000001</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>33258</v>
+        <v>39876</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
-        <v>33.258000000000003</v>
+        <f t="shared" si="6"/>
+        <v>39.875999999999998</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000966E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>33347</v>
+        <v>40053</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
-        <v>33.347000000000001</v>
+        <f t="shared" si="6"/>
+        <v>40.052999999999997</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>33876</v>
+        <v>40406</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5463,17 +5416,17 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
-        <v>33.875999999999998</v>
+        <f t="shared" si="6"/>
+        <v>40.405999999999999</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>33965</v>
+        <v>40759</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5482,36 +5435,36 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
-        <v>33.965000000000003</v>
+        <f t="shared" si="6"/>
+        <v>40.759</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
-        <v>8.9000000000005741E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>34053</v>
+        <v>41465</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
-        <v>34.052999999999997</v>
+        <f t="shared" si="6"/>
+        <v>41.465000000000003</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>35818</v>
+        <v>41818</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -5520,112 +5473,112 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
-        <v>35.817999999999998</v>
+        <f t="shared" si="6"/>
+        <v>41.817999999999998</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>37229</v>
+        <v>42170</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
-        <v>37.228999999999999</v>
+        <f t="shared" si="6"/>
+        <v>42.17</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="7"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>38288</v>
+        <v>42523</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
-        <v>38.287999999999997</v>
+        <f t="shared" si="6"/>
+        <v>42.523000000000003</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>38641</v>
+        <v>42876</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
-        <v>38.640999999999998</v>
+        <f t="shared" si="6"/>
+        <v>42.875999999999998</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>38994</v>
+        <v>43229</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
-        <v>38.994</v>
+        <f t="shared" si="6"/>
+        <v>43.228999999999999</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>39876</v>
+        <v>43935</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
-        <v>39.875999999999998</v>
+        <f t="shared" si="6"/>
+        <v>43.935000000000002</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
-        <v>0.8819999999999979</v>
+        <f t="shared" si="7"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>41465</v>
+        <v>44288</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -5634,169 +5587,169 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
-        <v>41.465000000000003</v>
+        <f t="shared" si="6"/>
+        <v>44.287999999999997</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
-        <v>1.5890000000000057</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>42523</v>
+        <v>44641</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
-        <v>42.523000000000003</v>
+        <f t="shared" si="6"/>
+        <v>44.640999999999998</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
-        <v>1.0579999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>42876</v>
+        <v>44994</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
-        <v>42.875999999999998</v>
+        <f t="shared" si="6"/>
+        <v>44.994</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>43229</v>
+        <v>45347</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
-        <v>43.228999999999999</v>
+        <f t="shared" si="6"/>
+        <v>45.347000000000001</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>43582</v>
+        <v>45700</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
-        <v>43.582000000000001</v>
+        <f t="shared" si="6"/>
+        <v>45.7</v>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>43935</v>
+        <v>46053</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:D167" si="6">A104/1000</f>
-        <v>43.935000000000002</v>
+        <f t="shared" si="6"/>
+        <v>46.052999999999997</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
-        <v>0.35300000000000153</v>
+        <f t="shared" si="7"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>44994</v>
+        <v>46406</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>44.994</v>
+        <v>46.405999999999999</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105:E168" si="7">D105-D104</f>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="7"/>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>45347</v>
+        <v>47112</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>45.347000000000001</v>
+        <v>47.112000000000002</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>46406</v>
+        <v>47465</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>46.405999999999999</v>
+        <v>47.465000000000003</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>1.0589999999999975</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>47112</v>
+        <v>47818</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5806,11 +5759,11 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>47.112000000000002</v>
+        <v>47.817999999999998</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
@@ -5829,50 +5782,50 @@
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>1.4110000000000014</v>
+        <v>0.7050000000000054</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>49229</v>
+        <v>48876</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>49.228999999999999</v>
+        <v>48.875999999999998</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>0.70599999999999596</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>49935</v>
+        <v>49229</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>49.935000000000002</v>
+        <v>49.228999999999999</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>50288</v>
+        <v>49935</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5882,16 +5835,16 @@
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>50.287999999999997</v>
+        <v>49.935000000000002</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>50641</v>
+        <v>50288</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -5901,16 +5854,16 @@
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>50.640999999999998</v>
+        <v>50.287999999999997</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>50994</v>
+        <v>50641</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5920,7 +5873,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>50.994</v>
+        <v>50.640999999999998</v>
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
@@ -5929,26 +5882,26 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>51700</v>
+        <v>50994</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>51.7</v>
+        <v>50.994</v>
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>52053</v>
+        <v>51347</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5958,26 +5911,26 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>52.052999999999997</v>
+        <v>51.347000000000001</v>
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>52406</v>
+        <v>51700</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>52.405999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
@@ -5986,26 +5939,26 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>53465</v>
+        <v>52053</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>53.465000000000003</v>
+        <v>52.052999999999997</v>
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>1.0590000000000046</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>53818</v>
+        <v>52406</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -6015,73 +5968,73 @@
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>53.817999999999998</v>
+        <v>52.405999999999999</v>
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>54170</v>
+        <v>52759</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>54.17</v>
+        <v>52.759</v>
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>54259</v>
+        <v>53112</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>54.259</v>
+        <v>53.112000000000002</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>8.8999999999998636E-2</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>54347</v>
+        <v>53465</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>54.347000000000001</v>
+        <v>53.465000000000003</v>
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>55229</v>
+        <v>53818</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -6091,73 +6044,73 @@
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>55.228999999999999</v>
+        <v>53.817999999999998</v>
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>0.8819999999999979</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>55582</v>
+        <v>54170</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>55.582000000000001</v>
+        <v>54.17</v>
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>55670</v>
+        <v>54259</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>55.67</v>
+        <v>54.259</v>
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>8.8000000000000966E-2</v>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>55759</v>
+        <v>54347</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>55.759</v>
+        <v>54.347000000000001</v>
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>8.8999999999998636E-2</v>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>56288</v>
+        <v>54523</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -6167,16 +6120,16 @@
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>56.287999999999997</v>
+        <v>54.523000000000003</v>
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>56465</v>
+        <v>54876</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -6186,16 +6139,16 @@
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>56.465000000000003</v>
+        <v>54.875999999999998</v>
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>0.17700000000000671</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>56641</v>
+        <v>55229</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -6205,35 +6158,35 @@
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>56.640999999999998</v>
+        <v>55.228999999999999</v>
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>0.17599999999999483</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>57170</v>
+        <v>55582</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>57.17</v>
+        <v>55.582000000000001</v>
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>0.52900000000000347</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>58053</v>
+        <v>55935</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -6243,35 +6196,35 @@
       </c>
       <c r="D131">
         <f t="shared" si="6"/>
-        <v>58.052999999999997</v>
+        <v>55.935000000000002</v>
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
-        <v>0.88299999999999557</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>58582</v>
+        <v>56288</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <f t="shared" si="6"/>
-        <v>58.582000000000001</v>
+        <v>56.287999999999997</v>
       </c>
       <c r="E132">
         <f t="shared" si="7"/>
-        <v>0.52900000000000347</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>59465</v>
+        <v>56465</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -6281,92 +6234,92 @@
       </c>
       <c r="D133">
         <f t="shared" si="6"/>
-        <v>59.465000000000003</v>
+        <v>56.465000000000003</v>
       </c>
       <c r="E133">
         <f t="shared" si="7"/>
-        <v>0.88300000000000267</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>59994</v>
+        <v>56641</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <f t="shared" si="6"/>
-        <v>59.994</v>
+        <v>56.640999999999998</v>
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>60876</v>
+        <v>57347</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <f t="shared" si="6"/>
-        <v>60.875999999999998</v>
+        <v>57.347000000000001</v>
       </c>
       <c r="E135">
         <f t="shared" si="7"/>
-        <v>0.8819999999999979</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>61759</v>
+        <v>58053</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <f t="shared" si="6"/>
-        <v>61.759</v>
+        <v>58.052999999999997</v>
       </c>
       <c r="E136">
         <f t="shared" si="7"/>
-        <v>0.88300000000000267</v>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>61935</v>
+        <v>58759</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <f t="shared" si="6"/>
-        <v>61.935000000000002</v>
+        <v>58.759</v>
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>62112</v>
+        <v>59465</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -6376,35 +6329,35 @@
       </c>
       <c r="D138">
         <f t="shared" si="6"/>
-        <v>62.112000000000002</v>
+        <v>59.465000000000003</v>
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>0.1769999999999996</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>62288</v>
+        <v>59994</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <f t="shared" si="6"/>
-        <v>62.287999999999997</v>
+        <v>59.994</v>
       </c>
       <c r="E139">
         <f t="shared" si="7"/>
-        <v>0.17599999999999483</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>62818</v>
+        <v>60170</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -6414,35 +6367,35 @@
       </c>
       <c r="D140">
         <f t="shared" si="6"/>
-        <v>62.817999999999998</v>
+        <v>60.17</v>
       </c>
       <c r="E140">
         <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>63700</v>
+        <v>60876</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <f t="shared" si="6"/>
-        <v>63.7</v>
+        <v>60.875999999999998</v>
       </c>
       <c r="E141">
         <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>64229</v>
+        <v>61759</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -6452,54 +6405,54 @@
       </c>
       <c r="D142">
         <f t="shared" si="6"/>
-        <v>64.228999999999999</v>
+        <v>61.759</v>
       </c>
       <c r="E142">
         <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <v>0.88300000000000267</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>65112</v>
+        <v>61935</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <f t="shared" si="6"/>
-        <v>65.111999999999995</v>
+        <v>61.935000000000002</v>
       </c>
       <c r="E143">
         <f t="shared" si="7"/>
-        <v>0.88299999999999557</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>65641</v>
+        <v>62112</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
-        <v>65.641000000000005</v>
+        <f t="shared" ref="D144:D210" si="8">A144/1000</f>
+        <v>62.112000000000002</v>
       </c>
       <c r="E144">
         <f t="shared" si="7"/>
-        <v>0.52900000000001057</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>66523</v>
+        <v>62288</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -6508,36 +6461,36 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
-        <v>66.522999999999996</v>
+        <f t="shared" si="8"/>
+        <v>62.287999999999997</v>
       </c>
       <c r="E145">
-        <f t="shared" si="7"/>
-        <v>0.88199999999999079</v>
+        <f t="shared" ref="E145:E211" si="9">D145-D144</f>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>67406</v>
+        <v>62994</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
-        <v>67.406000000000006</v>
+        <f t="shared" si="8"/>
+        <v>62.994</v>
       </c>
       <c r="E146">
-        <f t="shared" si="7"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>67582</v>
+        <v>63700</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -6546,131 +6499,131 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
-        <v>67.581999999999994</v>
+        <f t="shared" si="8"/>
+        <v>63.7</v>
       </c>
       <c r="E147">
-        <f t="shared" si="7"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>67759</v>
+        <v>64229</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
-        <v>67.759</v>
+        <f t="shared" si="8"/>
+        <v>64.228999999999999</v>
       </c>
       <c r="E148">
-        <f t="shared" si="7"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="9"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>67935</v>
+        <v>64406</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
-        <v>67.935000000000002</v>
+        <f t="shared" si="8"/>
+        <v>64.406000000000006</v>
       </c>
       <c r="E149">
-        <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>68465</v>
+        <v>65112</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
-        <v>68.465000000000003</v>
+        <f t="shared" si="8"/>
+        <v>65.111999999999995</v>
       </c>
       <c r="E150">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>69347</v>
+        <v>65818</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
-        <v>69.346999999999994</v>
+        <f t="shared" si="8"/>
+        <v>65.817999999999998</v>
       </c>
       <c r="E151">
-        <f t="shared" si="7"/>
-        <v>0.88199999999999079</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>69877</v>
+        <v>66523</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
-        <v>69.876999999999995</v>
+        <f t="shared" si="8"/>
+        <v>66.522999999999996</v>
       </c>
       <c r="E152">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.70499999999999829</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>70759</v>
+        <v>67406</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
-        <v>70.759</v>
+        <f t="shared" si="8"/>
+        <v>67.406000000000006</v>
       </c>
       <c r="E153">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>71465</v>
+        <v>67582</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -6679,17 +6632,17 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
-        <v>71.465000000000003</v>
+        <f t="shared" si="8"/>
+        <v>67.581999999999994</v>
       </c>
       <c r="E154">
-        <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <f t="shared" si="9"/>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>71641</v>
+        <v>67759</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -6698,17 +6651,17 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
-        <v>71.641000000000005</v>
+        <f t="shared" si="8"/>
+        <v>67.759</v>
       </c>
       <c r="E155">
-        <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="9"/>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>71994</v>
+        <v>67935</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -6717,17 +6670,17 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
-        <v>71.994</v>
+        <f t="shared" si="8"/>
+        <v>67.935000000000002</v>
       </c>
       <c r="E156">
-        <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>72523</v>
+        <v>68465</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -6736,17 +6689,17 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
-        <v>72.522999999999996</v>
+        <f t="shared" si="8"/>
+        <v>68.465000000000003</v>
       </c>
       <c r="E157">
-        <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="9"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>73053</v>
+        <v>68641</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -6755,36 +6708,36 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
-        <v>73.052999999999997</v>
+        <f t="shared" si="8"/>
+        <v>68.641000000000005</v>
       </c>
       <c r="E158">
-        <f t="shared" si="7"/>
-        <v>0.53000000000000114</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>73229</v>
+        <v>69347</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
-        <v>73.228999999999999</v>
+        <f t="shared" si="8"/>
+        <v>69.346999999999994</v>
       </c>
       <c r="E159">
-        <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="9"/>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>73406</v>
+        <v>69876</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -6793,17 +6746,17 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
-        <v>73.406000000000006</v>
+        <f t="shared" si="8"/>
+        <v>69.876000000000005</v>
       </c>
       <c r="E160">
-        <f t="shared" si="7"/>
-        <v>0.17700000000000671</v>
+        <f t="shared" si="9"/>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>73582</v>
+        <v>70053</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -6812,93 +6765,93 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
-        <v>73.581999999999994</v>
+        <f t="shared" si="8"/>
+        <v>70.052999999999997</v>
       </c>
       <c r="E161">
-        <f t="shared" si="7"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="9"/>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>73935</v>
+        <v>70759</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
-        <v>73.935000000000002</v>
+        <f t="shared" si="8"/>
+        <v>70.759</v>
       </c>
       <c r="E162">
-        <f t="shared" si="7"/>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>74288</v>
+        <v>71465</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
-        <v>74.287999999999997</v>
+        <f t="shared" si="8"/>
+        <v>71.465000000000003</v>
       </c>
       <c r="E163">
-        <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>75170</v>
+        <v>71641</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
-        <v>75.17</v>
+        <f t="shared" si="8"/>
+        <v>71.641000000000005</v>
       </c>
       <c r="E164">
-        <f t="shared" si="7"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="9"/>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>75259</v>
+        <v>71994</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
-        <v>75.259</v>
+        <f t="shared" si="8"/>
+        <v>71.994</v>
       </c>
       <c r="E165">
-        <f t="shared" si="7"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>75347</v>
+        <v>72523</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -6907,74 +6860,74 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
-        <v>75.346999999999994</v>
+        <f t="shared" si="8"/>
+        <v>72.522999999999996</v>
       </c>
       <c r="E166">
-        <f t="shared" si="7"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>75523</v>
+        <v>73053</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
-        <v>75.522999999999996</v>
+        <f t="shared" si="8"/>
+        <v>73.052999999999997</v>
       </c>
       <c r="E167">
-        <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <f t="shared" si="9"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>76406</v>
+        <v>73582</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <f t="shared" ref="D168:D224" si="8">A168/1000</f>
-        <v>76.406000000000006</v>
+        <f t="shared" si="8"/>
+        <v>73.581999999999994</v>
       </c>
       <c r="E168">
-        <f t="shared" si="7"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="9"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>91935</v>
+        <v>73935</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
-        <v>91.935000000000002</v>
+        <v>73.935000000000002</v>
       </c>
       <c r="E169">
-        <f t="shared" ref="E169:E225" si="9">D169-D168</f>
-        <v>15.528999999999996</v>
+        <f t="shared" si="9"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>93347</v>
+        <v>74288</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -6984,73 +6937,73 @@
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
-        <v>93.346999999999994</v>
+        <v>74.287999999999997</v>
       </c>
       <c r="E170">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>94759</v>
+        <v>74641</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>94.759</v>
+        <v>74.641000000000005</v>
       </c>
       <c r="E171">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>95994</v>
+        <v>75170</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
-        <v>95.994</v>
+        <v>75.17</v>
       </c>
       <c r="E172">
         <f t="shared" si="9"/>
-        <v>1.2349999999999994</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>97582</v>
+        <v>75347</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
-        <v>97.581999999999994</v>
+        <v>75.346999999999994</v>
       </c>
       <c r="E173">
         <f t="shared" si="9"/>
-        <v>1.5879999999999939</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>98641</v>
+        <v>75700</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -7060,35 +7013,35 @@
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>98.641000000000005</v>
+        <v>75.7</v>
       </c>
       <c r="E174">
         <f t="shared" si="9"/>
-        <v>1.0590000000000117</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>100053</v>
+        <v>76053</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
-        <v>100.053</v>
+        <v>76.052999999999997</v>
       </c>
       <c r="E175">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>101818</v>
+        <v>76406</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -7098,16 +7051,16 @@
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
-        <v>101.818</v>
+        <v>76.406000000000006</v>
       </c>
       <c r="E176">
         <f t="shared" si="9"/>
-        <v>1.7650000000000006</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>103229</v>
+      <c r="A177" s="1">
+        <v>77112</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -7117,16 +7070,16 @@
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
-        <v>103.229</v>
+        <v>77.111999999999995</v>
       </c>
       <c r="E177">
         <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>103582</v>
+      <c r="A178" s="1">
+        <v>77465</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -7136,54 +7089,54 @@
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>103.58199999999999</v>
+        <v>77.465000000000003</v>
       </c>
       <c r="E178">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>104994</v>
+      <c r="A179" s="1">
+        <v>77818</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>104.994</v>
+        <v>77.817999999999998</v>
       </c>
       <c r="E179">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>106406</v>
+      <c r="A180" s="1">
+        <v>78171</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>106.40600000000001</v>
+        <v>78.171000000000006</v>
       </c>
       <c r="E180">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>107817</v>
+      <c r="A181" s="1">
+        <v>78524</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -7193,16 +7146,16 @@
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>107.81699999999999</v>
+        <v>78.524000000000001</v>
       </c>
       <c r="E181">
         <f t="shared" si="9"/>
-        <v>1.4109999999999872</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>108170</v>
+      <c r="A182" s="1">
+        <v>78877</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -7212,16 +7165,16 @@
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>108.17</v>
+        <v>78.876999999999995</v>
       </c>
       <c r="E182">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>108523</v>
+      <c r="A183" s="1">
+        <v>79230</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -7231,16 +7184,16 @@
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
-        <v>108.523</v>
+        <v>79.23</v>
       </c>
       <c r="E183">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>108700</v>
+      <c r="A184" s="1">
+        <v>79583</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -7250,73 +7203,73 @@
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
-        <v>108.7</v>
+        <v>79.582999999999998</v>
       </c>
       <c r="E184">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>110112</v>
+      <c r="A185" s="1">
+        <v>79936</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
-        <v>110.11199999999999</v>
+        <v>79.936000000000007</v>
       </c>
       <c r="E185">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>111170</v>
+      <c r="A186" s="1">
+        <v>80289</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>111.17</v>
+        <v>80.289000000000001</v>
       </c>
       <c r="E186">
         <f t="shared" si="9"/>
-        <v>1.0580000000000069</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>111523</v>
+        <v>80641</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>111.523</v>
+        <v>80.641000000000005</v>
       </c>
       <c r="E187">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>111700</v>
+        <v>81170</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -7326,73 +7279,73 @@
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>111.7</v>
+        <v>81.17</v>
       </c>
       <c r="E188">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>112053</v>
+        <v>83465</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>112.053</v>
+        <v>83.465000000000003</v>
       </c>
       <c r="E189">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>2.2950000000000017</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>112229</v>
+        <v>83994</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>112.229</v>
+        <v>83.994</v>
       </c>
       <c r="E190">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>112759</v>
+        <v>86288</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>112.759</v>
+        <v>86.287999999999997</v>
       </c>
       <c r="E191">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>2.2939999999999969</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>112935</v>
+        <v>86818</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -7402,35 +7355,35 @@
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>112.935</v>
+        <v>86.817999999999998</v>
       </c>
       <c r="E192">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>113112</v>
+        <v>87700</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>113.11199999999999</v>
+        <v>87.7</v>
       </c>
       <c r="E193">
         <f t="shared" si="9"/>
-        <v>0.1769999999999925</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>114523</v>
+        <v>89112</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -7440,54 +7393,54 @@
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>114.523</v>
+        <v>89.111999999999995</v>
       </c>
       <c r="E194">
         <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>115935</v>
+        <v>89641</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <f t="shared" si="8"/>
-        <v>115.935</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="E195">
         <f t="shared" si="9"/>
-        <v>1.4120000000000061</v>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>117347</v>
+        <v>91935</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
         <f t="shared" si="8"/>
-        <v>117.34699999999999</v>
+        <v>91.935000000000002</v>
       </c>
       <c r="E196">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>2.2939999999999969</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>117435</v>
+        <v>92465</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -7497,73 +7450,73 @@
       </c>
       <c r="D197">
         <f t="shared" si="8"/>
-        <v>117.435</v>
+        <v>92.465000000000003</v>
       </c>
       <c r="E197">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>117523</v>
+        <v>93347</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <f t="shared" si="8"/>
-        <v>117.523</v>
+        <v>93.346999999999994</v>
       </c>
       <c r="E198">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>0.88199999999999079</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>117611</v>
+        <v>93700</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <f t="shared" si="8"/>
-        <v>117.611</v>
+        <v>93.7</v>
       </c>
       <c r="E199">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>118053</v>
+        <v>94759</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <f t="shared" si="8"/>
-        <v>118.053</v>
+        <v>94.759</v>
       </c>
       <c r="E200">
         <f t="shared" si="9"/>
-        <v>0.44199999999999307</v>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>118141</v>
+        <v>95288</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -7573,73 +7526,73 @@
       </c>
       <c r="D201">
         <f t="shared" si="8"/>
-        <v>118.14100000000001</v>
+        <v>95.287999999999997</v>
       </c>
       <c r="E201">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>118229</v>
+        <v>95994</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <f t="shared" si="8"/>
-        <v>118.229</v>
+        <v>95.994</v>
       </c>
       <c r="E202">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>118317</v>
+        <v>96876</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
         <f t="shared" si="8"/>
-        <v>118.31699999999999</v>
+        <v>96.876000000000005</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>118759</v>
+        <v>97582</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <f t="shared" si="8"/>
-        <v>118.759</v>
+        <v>97.581999999999994</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
-        <v>0.44200000000000728</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>120170</v>
+        <v>98112</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -7649,16 +7602,16 @@
       </c>
       <c r="D205">
         <f t="shared" si="8"/>
-        <v>120.17</v>
+        <v>98.111999999999995</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>121582</v>
+        <v>98641</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -7668,54 +7621,54 @@
       </c>
       <c r="D206">
         <f t="shared" si="8"/>
-        <v>121.58199999999999</v>
+        <v>98.641000000000005</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>122288</v>
+        <v>99347</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <f t="shared" si="8"/>
-        <v>122.288</v>
+        <v>99.346999999999994</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>122376</v>
+        <v>100053</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <f t="shared" si="8"/>
-        <v>122.376</v>
+        <v>100.053</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>122464</v>
+        <v>101818</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -7725,244 +7678,244 @@
       </c>
       <c r="D209">
         <f t="shared" si="8"/>
-        <v>122.464</v>
+        <v>101.818</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <v>1.7650000000000006</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>122553</v>
+        <v>102523</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <f t="shared" si="8"/>
-        <v>122.553</v>
+        <v>102.523</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
-        <v>8.8999999999998636E-2</v>
+        <v>0.70499999999999829</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>122994</v>
+        <v>102876</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
-        <v>122.994</v>
+        <f t="shared" ref="D211:D261" si="10">A211/1000</f>
+        <v>102.876</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
-        <v>0.4410000000000025</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>123082</v>
+        <v>103229</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
-        <v>123.08199999999999</v>
+        <f t="shared" si="10"/>
+        <v>103.229</v>
       </c>
       <c r="E212">
-        <f t="shared" si="9"/>
-        <v>8.7999999999993861E-2</v>
+        <f t="shared" ref="E212:E261" si="11">D212-D211</f>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>123170</v>
+        <v>103935</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
-        <v>123.17</v>
+        <f t="shared" si="10"/>
+        <v>103.935</v>
       </c>
       <c r="E213">
-        <f t="shared" si="9"/>
-        <v>8.8000000000008072E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>123259</v>
+        <v>104288</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
-        <v>123.259</v>
+        <f t="shared" si="10"/>
+        <v>104.288</v>
       </c>
       <c r="E214">
-        <f t="shared" si="9"/>
-        <v>8.8999999999998636E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>124406</v>
+        <v>104994</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
-        <v>124.40600000000001</v>
+        <f t="shared" si="10"/>
+        <v>104.994</v>
       </c>
       <c r="E215">
-        <f t="shared" si="9"/>
-        <v>1.1470000000000056</v>
+        <f t="shared" si="11"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>125818</v>
+        <v>106053</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
-        <v>125.818</v>
+        <f t="shared" si="10"/>
+        <v>106.053</v>
       </c>
       <c r="E216">
-        <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>127583</v>
+        <v>106406</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
-        <v>127.583</v>
+        <f t="shared" si="10"/>
+        <v>106.40600000000001</v>
       </c>
       <c r="E217">
-        <f t="shared" si="9"/>
-        <v>1.7650000000000006</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>128994</v>
+        <v>107465</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
-        <v>128.994</v>
+        <f t="shared" si="10"/>
+        <v>107.465</v>
       </c>
       <c r="E218">
-        <f t="shared" si="9"/>
-        <v>1.4110000000000014</v>
+        <f t="shared" si="11"/>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>130053</v>
+        <v>108523</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
-        <v>130.053</v>
+        <f t="shared" si="10"/>
+        <v>108.523</v>
       </c>
       <c r="E219">
-        <f t="shared" si="9"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="11"/>
+        <v>1.0579999999999927</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>130406</v>
+        <v>108876</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
-        <v>130.40600000000001</v>
+        <f t="shared" si="10"/>
+        <v>108.876</v>
       </c>
       <c r="E220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>130759</v>
+        <v>109229</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
-        <v>130.75899999999999</v>
+        <f t="shared" si="10"/>
+        <v>109.229</v>
       </c>
       <c r="E221">
-        <f t="shared" si="9"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>131641</v>
+        <v>109759</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -7971,36 +7924,36 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <f t="shared" si="8"/>
-        <v>131.64099999999999</v>
+        <f t="shared" si="10"/>
+        <v>109.759</v>
       </c>
       <c r="E222">
-        <f t="shared" si="9"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="11"/>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>133230</v>
+        <v>110112</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <f t="shared" si="8"/>
-        <v>133.22999999999999</v>
+        <f t="shared" si="10"/>
+        <v>110.11199999999999</v>
       </c>
       <c r="E223">
-        <f t="shared" si="9"/>
-        <v>1.5889999999999986</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>134288</v>
+        <v>110465</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -8009,17 +7962,17 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <f t="shared" si="8"/>
-        <v>134.28800000000001</v>
+        <f t="shared" si="10"/>
+        <v>110.465</v>
       </c>
       <c r="E224">
-        <f t="shared" si="9"/>
-        <v>1.0580000000000211</v>
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>134641</v>
+        <v>110818</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -8028,17 +7981,17 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <f t="shared" ref="D225:D276" si="10">A225/1000</f>
-        <v>134.64099999999999</v>
+        <f t="shared" si="10"/>
+        <v>110.818</v>
       </c>
       <c r="E225">
-        <f t="shared" si="9"/>
-        <v>0.35299999999998022</v>
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>134994</v>
+        <v>111170</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -8048,16 +8001,16 @@
       </c>
       <c r="D226">
         <f t="shared" si="10"/>
-        <v>134.994</v>
+        <v>111.17</v>
       </c>
       <c r="E226">
-        <f t="shared" ref="E226:E275" si="11">D226-D225</f>
-        <v>0.35300000000000864</v>
+        <f t="shared" si="11"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>135347</v>
+        <v>111523</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -8067,16 +8020,16 @@
       </c>
       <c r="D227">
         <f t="shared" si="10"/>
-        <v>135.34700000000001</v>
+        <v>111.523</v>
       </c>
       <c r="E227">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>135700</v>
+        <v>111700</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -8086,45 +8039,45 @@
       </c>
       <c r="D228">
         <f t="shared" si="10"/>
-        <v>135.69999999999999</v>
+        <v>111.7</v>
       </c>
       <c r="E228">
         <f t="shared" si="11"/>
-        <v>0.35299999999998022</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>136759</v>
+        <v>112053</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <f t="shared" si="10"/>
-        <v>136.75899999999999</v>
+        <v>112.053</v>
       </c>
       <c r="E229">
         <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>137112</v>
+        <v>112406</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <f t="shared" si="10"/>
-        <v>137.11199999999999</v>
+        <v>112.40600000000001</v>
       </c>
       <c r="E230">
         <f t="shared" si="11"/>
@@ -8133,26 +8086,26 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>138877</v>
+        <v>112759</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
         <f t="shared" si="10"/>
-        <v>138.87700000000001</v>
+        <v>112.759</v>
       </c>
       <c r="E231">
         <f t="shared" si="11"/>
-        <v>1.7650000000000148</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>140288</v>
+        <v>113112</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -8162,64 +8115,64 @@
       </c>
       <c r="D232">
         <f t="shared" si="10"/>
-        <v>140.28800000000001</v>
+        <v>113.11199999999999</v>
       </c>
       <c r="E232">
         <f t="shared" si="11"/>
-        <v>1.4110000000000014</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>141700</v>
+        <v>113465</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <f t="shared" si="10"/>
-        <v>141.69999999999999</v>
+        <v>113.465</v>
       </c>
       <c r="E233">
         <f t="shared" si="11"/>
-        <v>1.4119999999999777</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>142053</v>
+        <v>113818</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <f t="shared" si="10"/>
-        <v>142.053</v>
+        <v>113.818</v>
       </c>
       <c r="E234">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>142406</v>
+        <v>114171</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
         <f t="shared" si="10"/>
-        <v>142.40600000000001</v>
+        <v>114.17100000000001</v>
       </c>
       <c r="E235">
         <f t="shared" si="11"/>
@@ -8228,26 +8181,26 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>142759</v>
+        <v>114523</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <f t="shared" si="10"/>
-        <v>142.75899999999999</v>
+        <v>114.523</v>
       </c>
       <c r="E236">
         <f t="shared" si="11"/>
-        <v>0.35299999999998022</v>
+        <v>0.35199999999998965</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>143465</v>
+        <v>114876</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -8257,35 +8210,35 @@
       </c>
       <c r="D237">
         <f t="shared" si="10"/>
-        <v>143.465</v>
+        <v>114.876</v>
       </c>
       <c r="E237">
         <f t="shared" si="11"/>
-        <v>0.70600000000001728</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>144171</v>
+        <v>115229</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <f t="shared" si="10"/>
-        <v>144.17099999999999</v>
+        <v>115.229</v>
       </c>
       <c r="E238">
         <f t="shared" si="11"/>
-        <v>0.70599999999998886</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>145230</v>
+        <v>115582</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -8295,16 +8248,16 @@
       </c>
       <c r="D239">
         <f t="shared" si="10"/>
-        <v>145.22999999999999</v>
+        <v>115.58199999999999</v>
       </c>
       <c r="E239">
         <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>145582</v>
+        <v>115935</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
@@ -8314,16 +8267,16 @@
       </c>
       <c r="D240">
         <f t="shared" si="10"/>
-        <v>145.58199999999999</v>
+        <v>115.935</v>
       </c>
       <c r="E240">
         <f t="shared" si="11"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>145935</v>
+        <v>116288</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
@@ -8333,16 +8286,16 @@
       </c>
       <c r="D241">
         <f t="shared" si="10"/>
-        <v>145.935</v>
+        <v>116.288</v>
       </c>
       <c r="E241">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>146112</v>
+        <v>116641</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -8352,16 +8305,16 @@
       </c>
       <c r="D242">
         <f t="shared" si="10"/>
-        <v>146.11199999999999</v>
+        <v>116.64100000000001</v>
       </c>
       <c r="E242">
         <f t="shared" si="11"/>
-        <v>0.1769999999999925</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>146465</v>
+        <v>116994</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
@@ -8371,130 +8324,130 @@
       </c>
       <c r="D243">
         <f t="shared" si="10"/>
-        <v>146.465</v>
+        <v>116.994</v>
       </c>
       <c r="E243">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>146994</v>
+        <v>117347</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244">
         <f t="shared" si="10"/>
-        <v>146.994</v>
+        <v>117.34699999999999</v>
       </c>
       <c r="E244">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>147524</v>
+        <v>117700</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <f t="shared" si="10"/>
-        <v>147.524</v>
+        <v>117.7</v>
       </c>
       <c r="E245">
         <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>148053</v>
+        <v>118053</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <f t="shared" si="10"/>
-        <v>148.053</v>
+        <v>118.053</v>
       </c>
       <c r="E246">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>148230</v>
+        <v>118406</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
         <f t="shared" si="10"/>
-        <v>148.22999999999999</v>
+        <v>118.40600000000001</v>
       </c>
       <c r="E247">
         <f t="shared" si="11"/>
-        <v>0.1769999999999925</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>148406</v>
+        <v>118759</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <f t="shared" si="10"/>
-        <v>148.40600000000001</v>
+        <v>118.759</v>
       </c>
       <c r="E248">
         <f t="shared" si="11"/>
-        <v>0.17600000000001614</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>148935</v>
+        <v>119112</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <f t="shared" si="10"/>
-        <v>148.935</v>
+        <v>119.11199999999999</v>
       </c>
       <c r="E249">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>149818</v>
+        <v>119465</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -8504,16 +8457,16 @@
       </c>
       <c r="D250">
         <f t="shared" si="10"/>
-        <v>149.81800000000001</v>
+        <v>119.465</v>
       </c>
       <c r="E250">
         <f t="shared" si="11"/>
-        <v>0.88300000000000978</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>150347</v>
+        <v>119818</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
@@ -8523,111 +8476,111 @@
       </c>
       <c r="D251">
         <f t="shared" si="10"/>
-        <v>150.34700000000001</v>
+        <v>119.818</v>
       </c>
       <c r="E251">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>151230</v>
+        <v>120170</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
         <f t="shared" si="10"/>
-        <v>151.22999999999999</v>
+        <v>120.17</v>
       </c>
       <c r="E252">
         <f t="shared" si="11"/>
-        <v>0.88299999999998136</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>151759</v>
+        <v>120523</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
         <f t="shared" si="10"/>
-        <v>151.75899999999999</v>
+        <v>120.523</v>
       </c>
       <c r="E253">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>152641</v>
+        <v>120876</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
         <f t="shared" si="10"/>
-        <v>152.64099999999999</v>
+        <v>120.876</v>
       </c>
       <c r="E254">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>154053</v>
+        <v>121229</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
         <f t="shared" si="10"/>
-        <v>154.053</v>
+        <v>121.229</v>
       </c>
       <c r="E255">
         <f t="shared" si="11"/>
-        <v>1.4120000000000061</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>154583</v>
+        <v>121582</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <f t="shared" si="10"/>
-        <v>154.583</v>
+        <v>121.58199999999999</v>
       </c>
       <c r="E256">
         <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>155465</v>
+        <v>121935</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -8637,16 +8590,16 @@
       </c>
       <c r="D257">
         <f t="shared" si="10"/>
-        <v>155.465</v>
+        <v>121.935</v>
       </c>
       <c r="E257">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>155994</v>
+        <v>122288</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -8656,54 +8609,54 @@
       </c>
       <c r="D258">
         <f t="shared" si="10"/>
-        <v>155.994</v>
+        <v>122.288</v>
       </c>
       <c r="E258">
         <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>156876</v>
+        <v>122641</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
         <f t="shared" si="10"/>
-        <v>156.876</v>
+        <v>122.64100000000001</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>157406</v>
+        <v>122994</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <f t="shared" si="10"/>
-        <v>157.40600000000001</v>
+        <v>122.994</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
-        <v>0.53000000000000114</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>158288</v>
+        <v>123347</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -8713,92 +8666,92 @@
       </c>
       <c r="D261">
         <f t="shared" si="10"/>
-        <v>158.28800000000001</v>
+        <v>123.34699999999999</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>159171</v>
+        <v>123700</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <f t="shared" si="10"/>
-        <v>159.17099999999999</v>
+        <f t="shared" ref="D262:D325" si="12">A262/1000</f>
+        <v>123.7</v>
       </c>
       <c r="E262">
-        <f t="shared" si="11"/>
-        <v>0.88299999999998136</v>
+        <f t="shared" ref="E262:E325" si="13">D262-D261</f>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>159348</v>
+        <v>124053</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <f t="shared" si="10"/>
-        <v>159.34800000000001</v>
+        <f t="shared" si="12"/>
+        <v>124.053</v>
       </c>
       <c r="E263">
-        <f t="shared" si="11"/>
-        <v>0.17700000000002092</v>
+        <f t="shared" si="13"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>159524</v>
+        <v>124406</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <f t="shared" si="10"/>
-        <v>159.524</v>
+        <f t="shared" si="12"/>
+        <v>124.40600000000001</v>
       </c>
       <c r="E264">
-        <f t="shared" si="11"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>159700</v>
+        <v>124935</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D265">
-        <f t="shared" si="10"/>
-        <v>159.69999999999999</v>
+        <f t="shared" si="12"/>
+        <v>124.935</v>
       </c>
       <c r="E265">
-        <f t="shared" si="11"/>
-        <v>0.17599999999998772</v>
+        <f t="shared" si="13"/>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>160230</v>
+        <v>125465</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -8807,55 +8760,55 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <f t="shared" si="10"/>
-        <v>160.22999999999999</v>
+        <f t="shared" si="12"/>
+        <v>125.465</v>
       </c>
       <c r="E266">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>161112</v>
+        <v>125818</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <f t="shared" si="10"/>
-        <v>161.11199999999999</v>
+        <f t="shared" si="12"/>
+        <v>125.818</v>
       </c>
       <c r="E267">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="13"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>161641</v>
+        <v>126170</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <f t="shared" si="10"/>
-        <v>161.64099999999999</v>
+        <f t="shared" si="12"/>
+        <v>126.17</v>
       </c>
       <c r="E268">
-        <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>162523</v>
+        <v>126524</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
@@ -8864,17 +8817,17 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <f t="shared" si="10"/>
-        <v>162.523</v>
+        <f t="shared" si="12"/>
+        <v>126.524</v>
       </c>
       <c r="E269">
-        <f t="shared" si="11"/>
-        <v>0.882000000000005</v>
+        <f t="shared" si="13"/>
+        <v>0.3539999999999992</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>163052</v>
+        <v>126877</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -8883,17 +8836,17 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <f t="shared" si="10"/>
-        <v>163.05199999999999</v>
+        <f t="shared" si="12"/>
+        <v>126.877</v>
       </c>
       <c r="E270">
-        <f t="shared" si="11"/>
-        <v>0.52899999999999636</v>
+        <f t="shared" si="13"/>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>163935</v>
+        <v>127583</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -8902,55 +8855,55 @@
         <v>2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="10"/>
-        <v>163.935</v>
+        <f t="shared" si="12"/>
+        <v>127.583</v>
       </c>
       <c r="E271">
-        <f t="shared" si="11"/>
-        <v>0.88300000000000978</v>
+        <f t="shared" si="13"/>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>164994</v>
+        <v>127935</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="10"/>
-        <v>164.994</v>
+        <f t="shared" si="12"/>
+        <v>127.935</v>
       </c>
       <c r="E272">
-        <f t="shared" si="11"/>
-        <v>1.0589999999999975</v>
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>165347</v>
+        <v>128288</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="10"/>
-        <v>165.34700000000001</v>
+        <f t="shared" si="12"/>
+        <v>128.28800000000001</v>
       </c>
       <c r="E273">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>166582</v>
+        <v>128994</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -8959,17 +8912,17 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <f t="shared" si="10"/>
-        <v>166.58199999999999</v>
+        <f t="shared" si="12"/>
+        <v>128.994</v>
       </c>
       <c r="E274">
-        <f t="shared" si="11"/>
-        <v>1.2349999999999852</v>
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>168170</v>
+        <v>129347</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -8978,27 +8931,1684 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <f t="shared" si="10"/>
-        <v>168.17</v>
+        <f t="shared" si="12"/>
+        <v>129.34700000000001</v>
       </c>
       <c r="E275">
-        <f t="shared" si="11"/>
-        <v>1.5879999999999939</v>
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
+        <v>129700</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="12"/>
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>130053</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="12"/>
+        <v>130.053</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>130406</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="12"/>
+        <v>130.40600000000001</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>131112</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="12"/>
+        <v>131.11199999999999</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>131641</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="12"/>
+        <v>131.64099999999999</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="13"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>131818</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="12"/>
+        <v>131.81800000000001</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="13"/>
+        <v>0.17700000000002092</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>132171</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="12"/>
+        <v>132.17099999999999</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>132524</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="12"/>
+        <v>132.524</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>133230</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="12"/>
+        <v>133.22999999999999</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>133583</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="12"/>
+        <v>133.583</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>133935</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="12"/>
+        <v>133.935</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>134288</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="12"/>
+        <v>134.28800000000001</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>134641</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="12"/>
+        <v>134.64099999999999</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>134994</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="12"/>
+        <v>134.994</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>135700</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="12"/>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>136053</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="12"/>
+        <v>136.053</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>136406</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="12"/>
+        <v>136.40600000000001</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>136759</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="12"/>
+        <v>136.75899999999999</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>137112</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="12"/>
+        <v>137.11199999999999</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>137465</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="12"/>
+        <v>137.465</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>137818</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="12"/>
+        <v>137.81800000000001</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>138170</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="12"/>
+        <v>138.16999999999999</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="13"/>
+        <v>0.35199999999997544</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>138877</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="12"/>
+        <v>138.87700000000001</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="13"/>
+        <v>0.70700000000002206</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>139230</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="12"/>
+        <v>139.22999999999999</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>139583</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="12"/>
+        <v>139.583</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>140288</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="12"/>
+        <v>140.28800000000001</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="13"/>
+        <v>0.70500000000001251</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>140641</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="12"/>
+        <v>140.64099999999999</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>140994</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="12"/>
+        <v>140.994</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>141700</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="12"/>
+        <v>141.69999999999999</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>142053</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="12"/>
+        <v>142.053</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>142406</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="12"/>
+        <v>142.40600000000001</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>142759</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="12"/>
+        <v>142.75899999999999</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>143112</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="12"/>
+        <v>143.11199999999999</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>143465</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="12"/>
+        <v>143.465</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>143818</v>
+      </c>
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="12"/>
+        <v>143.81800000000001</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>144171</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="12"/>
+        <v>144.17099999999999</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="13"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>144523</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="12"/>
+        <v>144.523</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>144876</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="12"/>
+        <v>144.876</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>145230</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="12"/>
+        <v>145.22999999999999</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="13"/>
+        <v>0.35399999999998499</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>145582</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="12"/>
+        <v>145.58199999999999</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>145935</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="12"/>
+        <v>145.935</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>146465</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="12"/>
+        <v>146.465</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="13"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>146641</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="12"/>
+        <v>146.64099999999999</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="13"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>146994</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="12"/>
+        <v>146.994</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>147524</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="12"/>
+        <v>147.524</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="13"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>147700</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="12"/>
+        <v>147.69999999999999</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="13"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>148053</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="12"/>
+        <v>148.053</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>148406</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="12"/>
+        <v>148.40600000000001</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>149112</v>
+      </c>
+      <c r="B324" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="12"/>
+        <v>149.11199999999999</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>149818</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="12"/>
+        <v>149.81800000000001</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="13"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>150523</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <f t="shared" ref="D326:D389" si="14">A326/1000</f>
+        <v>150.523</v>
+      </c>
+      <c r="E326">
+        <f t="shared" ref="E326:E389" si="15">D326-D325</f>
+        <v>0.70499999999998408</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>151230</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="14"/>
+        <v>151.22999999999999</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="15"/>
+        <v>0.70699999999999363</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>151759</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="14"/>
+        <v>151.75899999999999</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>151935</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="14"/>
+        <v>151.935</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="15"/>
+        <v>0.17600000000001614</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>152641</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="14"/>
+        <v>152.64099999999999</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>153524</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="14"/>
+        <v>153.524</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="15"/>
+        <v>0.88300000000000978</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>153700</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="14"/>
+        <v>153.69999999999999</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="15"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>153877</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="14"/>
+        <v>153.87700000000001</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="15"/>
+        <v>0.17700000000002092</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>154053</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="14"/>
+        <v>154.053</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="15"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>154759</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="14"/>
+        <v>154.75899999999999</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>155465</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="14"/>
+        <v>155.465</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="15"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>155994</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="14"/>
+        <v>155.994</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>156171</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="14"/>
+        <v>156.17099999999999</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="15"/>
+        <v>0.1769999999999925</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>156877</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="14"/>
+        <v>156.87700000000001</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="15"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>157406</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="14"/>
+        <v>157.40600000000001</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>157582</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="14"/>
+        <v>157.58199999999999</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="15"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>158288</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="14"/>
+        <v>158.28800000000001</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="15"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>159171</v>
+      </c>
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="14"/>
+        <v>159.17099999999999</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="15"/>
+        <v>0.88299999999998136</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>159347</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="14"/>
+        <v>159.34700000000001</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="15"/>
+        <v>0.17600000000001614</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>159524</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="14"/>
+        <v>159.524</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="15"/>
+        <v>0.1769999999999925</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>159700</v>
+      </c>
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="14"/>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="15"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>160230</v>
+      </c>
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="14"/>
+        <v>160.22999999999999</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="15"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>160406</v>
+      </c>
+      <c r="B348" t="s">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="14"/>
+        <v>160.40600000000001</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="15"/>
+        <v>0.17600000000001614</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>161112</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="14"/>
+        <v>161.11199999999999</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>161818</v>
+      </c>
+      <c r="B350" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="14"/>
+        <v>161.81800000000001</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="15"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>162523</v>
+      </c>
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="14"/>
+        <v>162.523</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="15"/>
+        <v>0.70499999999998408</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>163052</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="14"/>
+        <v>163.05199999999999</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>163229</v>
+      </c>
+      <c r="B353" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="14"/>
+        <v>163.22900000000001</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="15"/>
+        <v>0.17700000000002092</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>163935</v>
+      </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="14"/>
+        <v>163.935</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>164288</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="14"/>
+        <v>164.28800000000001</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>164994</v>
+      </c>
+      <c r="B356" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="14"/>
+        <v>164.994</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>165347</v>
+      </c>
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="14"/>
+        <v>165.34700000000001</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>165876</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="14"/>
+        <v>165.876</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>166229</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="14"/>
+        <v>166.22900000000001</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>166582</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="14"/>
+        <v>166.58199999999999</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="15"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>168170</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="14"/>
+        <v>168.17</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="15"/>
+        <v>1.5879999999999939</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>169053</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="14"/>
+        <v>169.053</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="15"/>
+        <v>0.88300000000000978</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>170000</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B363" t="s">
         <v>4</v>
       </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <f t="shared" si="10"/>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="14"/>
         <v>170</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="15"/>
+        <v>0.94700000000000273</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
+++ b/Assets/Resources/Rainbow Road/rainbowroadxlsx.xlsx
@@ -5,36 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\College\Software - Project 2 COMP313\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Rhythm-Road\Rhythm-Road\Assets\Resources\Rainbow Road\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A80EF-F00E-40A7-8E14-7C5F2DD1FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E06D9B7-32A6-4B3E-94B0-05029A7E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28380" yWindow="3900" windowWidth="24825" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainbowroad" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="5">
   <si>
     <t>M</t>
   </si>
@@ -532,9 +519,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3710,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I362" sqref="I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D143" si="6">A80/1000</f>
+        <f t="shared" ref="D80:D147" si="6">A80/1000</f>
         <v>36.17</v>
       </c>
       <c r="E80">
@@ -5249,7 +5235,7 @@
         <v>36.523000000000003</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81:E144" si="7">D81-D80</f>
+        <f t="shared" ref="E81:E148" si="7">D81-D80</f>
         <v>0.35300000000000153</v>
       </c>
     </row>
@@ -5353,7 +5339,7 @@
         <v>39347</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5369,45 +5355,45 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>39876</v>
+        <v>39347</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>39.875999999999998</v>
+        <v>39.347000000000001</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>40053</v>
+        <v>39347</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>40.052999999999997</v>
+        <v>39.347000000000001</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>0.1769999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>40406</v>
+        <v>39876</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5417,16 +5403,16 @@
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>40.405999999999999</v>
+        <v>39.875999999999998</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>40759</v>
+        <v>40053</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5436,54 +5422,54 @@
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>40.759</v>
+        <v>40.052999999999997</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.1769999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>41465</v>
+        <v>40406</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>41.465000000000003</v>
+        <v>40.405999999999999</v>
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>41818</v>
+        <v>40759</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>41.817999999999998</v>
+        <v>40.759</v>
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>42170</v>
+        <v>41465</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5493,16 +5479,16 @@
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>42.17</v>
+        <v>41.465000000000003</v>
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>0.35200000000000387</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>42523</v>
+        <v>41818</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5512,16 +5498,16 @@
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>42.523000000000003</v>
+        <v>41.817999999999998</v>
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>42876</v>
+        <v>42170</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5531,16 +5517,16 @@
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>42.875999999999998</v>
+        <v>42.17</v>
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>43229</v>
+        <v>42523</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5550,7 +5536,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>43.228999999999999</v>
+        <v>42.523000000000003</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
@@ -5559,45 +5545,45 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>43935</v>
+        <v>42876</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>43.935000000000002</v>
+        <v>42.875999999999998</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>44288</v>
+        <v>43229</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>44.287999999999997</v>
+        <v>43.228999999999999</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>44641</v>
+        <v>43935</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5607,16 +5593,16 @@
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>44.640999999999998</v>
+        <v>43.935000000000002</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>44994</v>
+        <v>44288</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -5626,16 +5612,16 @@
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>44.994</v>
+        <v>44.287999999999997</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>45347</v>
+        <v>44641</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5645,7 +5631,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>45.347000000000001</v>
+        <v>44.640999999999998</v>
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
@@ -5654,7 +5640,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>45700</v>
+        <v>44994</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -5664,7 +5650,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>45.7</v>
+        <v>44.994</v>
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
@@ -5673,7 +5659,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>46053</v>
+        <v>45347</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -5683,16 +5669,16 @@
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>46.052999999999997</v>
+        <v>45.347000000000001</v>
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>46406</v>
+        <v>45700</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -5702,7 +5688,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>46.405999999999999</v>
+        <v>45.7</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
@@ -5711,36 +5697,36 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>47112</v>
+        <v>46053</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>47.112000000000002</v>
+        <v>46.052999999999997</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>47465</v>
+        <v>46406</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>47.465000000000003</v>
+        <v>46.405999999999999</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
@@ -5749,7 +5735,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>47818</v>
+        <v>47112</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5759,45 +5745,45 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>47.817999999999998</v>
+        <v>47.112000000000002</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>48523</v>
+        <v>47465</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>48.523000000000003</v>
+        <v>47.465000000000003</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>0.7050000000000054</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>48876</v>
+        <v>47818</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>48.875999999999998</v>
+        <v>47.817999999999998</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
@@ -5806,7 +5792,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>49229</v>
+        <v>48523</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -5816,54 +5802,54 @@
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>49.228999999999999</v>
+        <v>48.523000000000003</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.7050000000000054</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>49935</v>
+        <v>48876</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>49.935000000000002</v>
+        <v>48.875999999999998</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>50288</v>
+        <v>49229</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>50.287999999999997</v>
+        <v>49.228999999999999</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>50641</v>
+        <v>49935</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5873,16 +5859,16 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>50.640999999999998</v>
+        <v>49.935000000000002</v>
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>50994</v>
+        <v>50288</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5892,16 +5878,16 @@
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>50.994</v>
+        <v>50.287999999999997</v>
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>51347</v>
+        <v>50641</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5911,7 +5897,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>51.347000000000001</v>
+        <v>50.640999999999998</v>
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
@@ -5920,7 +5906,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>51700</v>
+        <v>50994</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -5930,7 +5916,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>51.7</v>
+        <v>50.994</v>
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
@@ -5939,7 +5925,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>52053</v>
+        <v>51347</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -5949,16 +5935,16 @@
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>52.052999999999997</v>
+        <v>51.347000000000001</v>
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>52406</v>
+        <v>51700</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -5968,7 +5954,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>52.405999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
@@ -5977,7 +5963,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>52759</v>
+        <v>52053</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5987,16 +5973,16 @@
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>52.759</v>
+        <v>52.052999999999997</v>
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>53112</v>
+        <v>52406</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -6006,7 +5992,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>53.112000000000002</v>
+        <v>52.405999999999999</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
@@ -6015,7 +6001,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>53465</v>
+        <v>52759</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -6025,7 +6011,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>53.465000000000003</v>
+        <v>52.759</v>
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
@@ -6034,7 +6020,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>53818</v>
+        <v>53112</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -6044,16 +6030,16 @@
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>53.817999999999998</v>
+        <v>53.112000000000002</v>
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>54170</v>
+        <v>53465</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -6063,16 +6049,16 @@
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>54.17</v>
+        <v>53.465000000000003</v>
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>54259</v>
+        <v>53818</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -6082,16 +6068,16 @@
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>54.259</v>
+        <v>53.817999999999998</v>
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>8.8999999999998636E-2</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>54347</v>
+        <v>54170</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -6101,16 +6087,16 @@
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>54.347000000000001</v>
+        <v>54.17</v>
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>8.8000000000000966E-2</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>54523</v>
+        <v>54259</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -6120,16 +6106,16 @@
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>54.523000000000003</v>
+        <v>54.259</v>
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <v>8.8999999999998636E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>54876</v>
+        <v>54347</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -6139,16 +6125,16 @@
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>54.875999999999998</v>
+        <v>54.347000000000001</v>
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>8.8000000000000966E-2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>55229</v>
+        <v>54523</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -6158,16 +6144,16 @@
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>55.228999999999999</v>
+        <v>54.523000000000003</v>
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>55582</v>
+        <v>54876</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -6177,16 +6163,16 @@
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>55.582000000000001</v>
+        <v>54.875999999999998</v>
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>0.35300000000000153</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>55935</v>
+        <v>55229</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -6196,7 +6182,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="6"/>
-        <v>55.935000000000002</v>
+        <v>55.228999999999999</v>
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
@@ -6205,7 +6191,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>56288</v>
+        <v>55582</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -6215,16 +6201,16 @@
       </c>
       <c r="D132">
         <f t="shared" si="6"/>
-        <v>56.287999999999997</v>
+        <v>55.582000000000001</v>
       </c>
       <c r="E132">
         <f t="shared" si="7"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>56465</v>
+        <v>55935</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -6234,16 +6220,16 @@
       </c>
       <c r="D133">
         <f t="shared" si="6"/>
-        <v>56.465000000000003</v>
+        <v>55.935000000000002</v>
       </c>
       <c r="E133">
         <f t="shared" si="7"/>
-        <v>0.17700000000000671</v>
+        <v>0.35300000000000153</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>56641</v>
+        <v>56288</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -6253,64 +6239,64 @@
       </c>
       <c r="D134">
         <f t="shared" si="6"/>
-        <v>56.640999999999998</v>
+        <v>56.287999999999997</v>
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>0.17599999999999483</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>57347</v>
+        <v>56465</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <f t="shared" si="6"/>
-        <v>57.347000000000001</v>
+        <v>56.465000000000003</v>
       </c>
       <c r="E135">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>58053</v>
+        <v>56641</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <f t="shared" si="6"/>
-        <v>58.052999999999997</v>
+        <v>56.640999999999998</v>
       </c>
       <c r="E136">
         <f t="shared" si="7"/>
-        <v>0.70599999999999596</v>
+        <v>0.17599999999999483</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>58759</v>
+        <v>57347</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <f t="shared" si="6"/>
-        <v>58.759</v>
+        <v>57.347000000000001</v>
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
@@ -6319,26 +6305,26 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>59465</v>
+        <v>58053</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <f t="shared" si="6"/>
-        <v>59.465000000000003</v>
+        <v>58.052999999999997</v>
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>0.70600000000000307</v>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>59994</v>
+        <v>58759</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -6348,235 +6334,235 @@
       </c>
       <c r="D139">
         <f t="shared" si="6"/>
-        <v>59.994</v>
+        <v>58.759</v>
       </c>
       <c r="E139">
         <f t="shared" si="7"/>
-        <v>0.52899999999999636</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>60170</v>
+        <v>59465</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <f t="shared" si="6"/>
-        <v>60.17</v>
+        <v>59.465000000000003</v>
       </c>
       <c r="E140">
         <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>60876</v>
+        <v>59994</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <f t="shared" si="6"/>
-        <v>60.875999999999998</v>
+        <v>59.994</v>
       </c>
       <c r="E141">
         <f t="shared" si="7"/>
-        <v>0.70599999999999596</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>61759</v>
+        <v>60170</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <f t="shared" si="6"/>
-        <v>61.759</v>
+        <v>60.17</v>
       </c>
       <c r="E142">
         <f t="shared" si="7"/>
-        <v>0.88300000000000267</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>61935</v>
+        <v>60876</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143">
         <f t="shared" si="6"/>
-        <v>61.935000000000002</v>
+        <v>60.875999999999998</v>
       </c>
       <c r="E143">
         <f t="shared" si="7"/>
-        <v>0.17600000000000193</v>
+        <v>0.70599999999999596</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>62112</v>
+        <v>60876</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <f t="shared" ref="D144:D210" si="8">A144/1000</f>
-        <v>62.112000000000002</v>
+        <f t="shared" si="6"/>
+        <v>60.875999999999998</v>
       </c>
       <c r="E144">
         <f t="shared" si="7"/>
-        <v>0.1769999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>60876</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="6"/>
+        <v>60.875999999999998</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>61759</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="6"/>
+        <v>61.759</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>0.88300000000000267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>61935</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="6"/>
+        <v>61.935000000000002</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>0.17600000000000193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>62112</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ref="D148:D220" si="8">A148/1000</f>
+        <v>62.112000000000002</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="7"/>
+        <v>0.1769999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>62288</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
         <f t="shared" si="8"/>
         <v>62.287999999999997</v>
       </c>
-      <c r="E145">
-        <f t="shared" ref="E145:E211" si="9">D145-D144</f>
+      <c r="E149">
+        <f t="shared" ref="E149:E221" si="9">D149-D148</f>
         <v>0.17599999999999483</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>62994</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
         <f t="shared" si="8"/>
         <v>62.994</v>
       </c>
-      <c r="E146">
+      <c r="E150">
         <f t="shared" si="9"/>
         <v>0.70600000000000307</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>63700</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="8"/>
         <v>63.7</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>64229</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="8"/>
-        <v>64.228999999999999</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>64406</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="8"/>
-        <v>64.406000000000006</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>65112</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150">
-        <v>2</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="8"/>
-        <v>65.111999999999995</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="9"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>65818</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="8"/>
-        <v>65.817999999999998</v>
       </c>
       <c r="E151">
         <f t="shared" si="9"/>
@@ -6585,26 +6571,26 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>66523</v>
+        <v>64229</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <f t="shared" si="8"/>
-        <v>66.522999999999996</v>
+        <v>64.228999999999999</v>
       </c>
       <c r="E152">
         <f t="shared" si="9"/>
-        <v>0.70499999999999829</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>67406</v>
+        <v>64406</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -6614,35 +6600,35 @@
       </c>
       <c r="D153">
         <f t="shared" si="8"/>
-        <v>67.406000000000006</v>
+        <v>64.406000000000006</v>
       </c>
       <c r="E153">
         <f t="shared" si="9"/>
-        <v>0.88300000000000978</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>67582</v>
+        <v>65112</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <f t="shared" si="8"/>
-        <v>67.581999999999994</v>
+        <v>65.111999999999995</v>
       </c>
       <c r="E154">
         <f t="shared" si="9"/>
-        <v>0.17599999999998772</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>67759</v>
+        <v>65818</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -6652,73 +6638,73 @@
       </c>
       <c r="D155">
         <f t="shared" si="8"/>
-        <v>67.759</v>
+        <v>65.817999999999998</v>
       </c>
       <c r="E155">
         <f t="shared" si="9"/>
-        <v>0.17700000000000671</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>67935</v>
+        <v>66523</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <f t="shared" si="8"/>
-        <v>67.935000000000002</v>
+        <v>66.522999999999996</v>
       </c>
       <c r="E156">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.70499999999999829</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>68465</v>
+        <v>67406</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <f t="shared" si="8"/>
-        <v>68.465000000000003</v>
+        <v>67.406000000000006</v>
       </c>
       <c r="E157">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>68641</v>
+        <v>67582</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <f t="shared" si="8"/>
-        <v>68.641000000000005</v>
+        <v>67.581999999999994</v>
       </c>
       <c r="E158">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>69347</v>
+        <v>67759</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -6728,35 +6714,35 @@
       </c>
       <c r="D159">
         <f t="shared" si="8"/>
-        <v>69.346999999999994</v>
+        <v>67.759</v>
       </c>
       <c r="E159">
         <f t="shared" si="9"/>
-        <v>0.70599999999998886</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>69876</v>
+        <v>67935</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <f t="shared" si="8"/>
-        <v>69.876000000000005</v>
+        <v>67.935000000000002</v>
       </c>
       <c r="E160">
         <f t="shared" si="9"/>
-        <v>0.52900000000001057</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>70053</v>
+        <v>68465</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -6766,216 +6752,216 @@
       </c>
       <c r="D161">
         <f t="shared" si="8"/>
-        <v>70.052999999999997</v>
+        <v>68.465000000000003</v>
       </c>
       <c r="E161">
         <f t="shared" si="9"/>
-        <v>0.1769999999999925</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>70759</v>
+        <v>68641</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <f t="shared" si="8"/>
-        <v>70.759</v>
+        <v>68.641000000000005</v>
       </c>
       <c r="E162">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>71465</v>
+        <v>69347</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <f t="shared" si="8"/>
-        <v>71.465000000000003</v>
+        <v>69.346999999999994</v>
       </c>
       <c r="E163">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>71641</v>
+        <v>69876</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <f t="shared" si="8"/>
-        <v>71.641000000000005</v>
+        <v>69.876000000000005</v>
       </c>
       <c r="E164">
         <f t="shared" si="9"/>
-        <v>0.17600000000000193</v>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>71994</v>
+        <v>70053</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <f t="shared" si="8"/>
-        <v>71.994</v>
+        <v>70.052999999999997</v>
       </c>
       <c r="E165">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>72523</v>
+        <v>70759</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
         <f t="shared" si="8"/>
-        <v>72.522999999999996</v>
+        <v>70.759</v>
       </c>
       <c r="E166">
         <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>73053</v>
+        <v>70759</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
         <f t="shared" si="8"/>
-        <v>73.052999999999997</v>
+        <v>70.759</v>
       </c>
       <c r="E167">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>73582</v>
+        <v>70759</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <f t="shared" si="8"/>
-        <v>73.581999999999994</v>
+        <v>70.759</v>
       </c>
       <c r="E168">
         <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>73935</v>
+        <v>71465</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
-        <v>73.935000000000002</v>
+        <v>71.465000000000003</v>
       </c>
       <c r="E169">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.70600000000000307</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>74288</v>
+        <v>71641</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
-        <v>74.287999999999997</v>
+        <v>71.641000000000005</v>
       </c>
       <c r="E170">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.17600000000000193</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>74641</v>
+        <v>71994</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>74.641000000000005</v>
+        <v>71.994</v>
       </c>
       <c r="E171">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>75170</v>
+        <v>72523</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
-        <v>75.17</v>
+        <v>72.522999999999996</v>
       </c>
       <c r="E172">
         <f t="shared" si="9"/>
@@ -6984,83 +6970,83 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>75347</v>
+        <v>73053</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
-        <v>75.346999999999994</v>
+        <v>73.052999999999997</v>
       </c>
       <c r="E173">
         <f t="shared" si="9"/>
-        <v>0.1769999999999925</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>75700</v>
+        <v>73582</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>75.7</v>
+        <v>73.581999999999994</v>
       </c>
       <c r="E174">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>76053</v>
+        <v>73935</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
-        <v>76.052999999999997</v>
+        <v>73.935000000000002</v>
       </c>
       <c r="E175">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>76406</v>
+        <v>74288</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
-        <v>76.406000000000006</v>
+        <v>74.287999999999997</v>
       </c>
       <c r="E176">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>77112</v>
+      <c r="A177">
+        <v>74641</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -7070,64 +7056,64 @@
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
-        <v>77.111999999999995</v>
+        <v>74.641000000000005</v>
       </c>
       <c r="E177">
         <f t="shared" si="9"/>
-        <v>0.70599999999998886</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>77465</v>
+      <c r="A178">
+        <v>75170</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>77.465000000000003</v>
+        <v>75.17</v>
       </c>
       <c r="E178">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>77818</v>
+      <c r="A179">
+        <v>75347</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>77.817999999999998</v>
+        <v>75.346999999999994</v>
       </c>
       <c r="E179">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>78171</v>
+      <c r="A180">
+        <v>75700</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>78.171000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="E180">
         <f t="shared" si="9"/>
@@ -7135,18 +7121,18 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>78524</v>
+      <c r="A181">
+        <v>76053</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>78.524000000000001</v>
+        <v>76.052999999999997</v>
       </c>
       <c r="E181">
         <f t="shared" si="9"/>
@@ -7154,27 +7140,27 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>78877</v>
+      <c r="A182">
+        <v>76406</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>78.876999999999995</v>
+        <v>76.406000000000006</v>
       </c>
       <c r="E182">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>79230</v>
+      <c r="A183">
+        <v>77112</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -7184,16 +7170,16 @@
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
-        <v>79.23</v>
+        <v>77.111999999999995</v>
       </c>
       <c r="E183">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>79583</v>
+      <c r="A184">
+        <v>77465</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -7203,16 +7189,16 @@
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
-        <v>79.582999999999998</v>
+        <v>77.465000000000003</v>
       </c>
       <c r="E184">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>79936</v>
+      <c r="A185">
+        <v>77818</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -7222,16 +7208,16 @@
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
-        <v>79.936000000000007</v>
+        <v>77.817999999999998</v>
       </c>
       <c r="E185">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>80289</v>
+      <c r="A186">
+        <v>78171</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -7241,16 +7227,16 @@
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>80.289000000000001</v>
+        <v>78.171000000000006</v>
       </c>
       <c r="E186">
         <f t="shared" si="9"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>80641</v>
+        <v>78524</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -7260,54 +7246,54 @@
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>80.641000000000005</v>
+        <v>78.524000000000001</v>
       </c>
       <c r="E187">
         <f t="shared" si="9"/>
-        <v>0.35200000000000387</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>81170</v>
+        <v>78877</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>81.17</v>
+        <v>78.876999999999995</v>
       </c>
       <c r="E188">
         <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>83465</v>
+        <v>79230</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>83.465000000000003</v>
+        <v>79.23</v>
       </c>
       <c r="E189">
         <f t="shared" si="9"/>
-        <v>2.2950000000000017</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>83994</v>
+        <v>79583</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -7317,35 +7303,35 @@
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>83.994</v>
+        <v>79.582999999999998</v>
       </c>
       <c r="E190">
         <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>86288</v>
+        <v>79936</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>86.287999999999997</v>
+        <v>79.936000000000007</v>
       </c>
       <c r="E191">
         <f t="shared" si="9"/>
-        <v>2.2939999999999969</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>86818</v>
+        <v>80289</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -7355,35 +7341,35 @@
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>86.817999999999998</v>
+        <v>80.289000000000001</v>
       </c>
       <c r="E192">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>87700</v>
+        <v>80641</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>87.7</v>
+        <v>80.641000000000005</v>
       </c>
       <c r="E193">
         <f t="shared" si="9"/>
-        <v>0.882000000000005</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>89112</v>
+        <v>81170</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -7393,149 +7379,149 @@
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>89.111999999999995</v>
+        <v>81.17</v>
       </c>
       <c r="E194">
         <f t="shared" si="9"/>
-        <v>1.4119999999999919</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>89641</v>
+        <v>83465</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <f t="shared" si="8"/>
-        <v>89.641000000000005</v>
+        <v>83.465000000000003</v>
       </c>
       <c r="E195">
         <f t="shared" si="9"/>
-        <v>0.52900000000001057</v>
+        <v>2.2950000000000017</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>91935</v>
+        <v>83994</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <f t="shared" si="8"/>
-        <v>91.935000000000002</v>
+        <v>83.994</v>
       </c>
       <c r="E196">
         <f t="shared" si="9"/>
-        <v>2.2939999999999969</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>92465</v>
+        <v>83994</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <f t="shared" si="8"/>
-        <v>92.465000000000003</v>
+        <v>83.994</v>
       </c>
       <c r="E197">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>93347</v>
+        <v>83994</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <f t="shared" si="8"/>
-        <v>93.346999999999994</v>
+        <v>83.994</v>
       </c>
       <c r="E198">
         <f t="shared" si="9"/>
-        <v>0.88199999999999079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>93700</v>
+        <v>86288</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <f t="shared" si="8"/>
-        <v>93.7</v>
+        <v>86.287999999999997</v>
       </c>
       <c r="E199">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>2.2939999999999969</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>94759</v>
+        <v>86818</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <f t="shared" si="8"/>
-        <v>94.759</v>
+        <v>86.817999999999998</v>
       </c>
       <c r="E200">
         <f t="shared" si="9"/>
-        <v>1.0589999999999975</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>95288</v>
+        <v>87700</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <f t="shared" si="8"/>
-        <v>95.287999999999997</v>
+        <v>87.7</v>
       </c>
       <c r="E201">
         <f t="shared" si="9"/>
-        <v>0.52899999999999636</v>
+        <v>0.882000000000005</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>95994</v>
+        <v>89112</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -7545,130 +7531,130 @@
       </c>
       <c r="D202">
         <f t="shared" si="8"/>
-        <v>95.994</v>
+        <v>89.111999999999995</v>
       </c>
       <c r="E202">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>1.4119999999999919</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>96876</v>
+        <v>89641</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <f t="shared" si="8"/>
-        <v>96.876000000000005</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
-        <v>0.882000000000005</v>
+        <v>0.52900000000001057</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>97582</v>
+        <v>89641</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
         <f t="shared" si="8"/>
-        <v>97.581999999999994</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
-        <v>0.70599999999998886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>98112</v>
+        <v>89641</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D205">
         <f t="shared" si="8"/>
-        <v>98.111999999999995</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
-        <v>0.53000000000000114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>98641</v>
+        <v>91935</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
         <f t="shared" si="8"/>
-        <v>98.641000000000005</v>
+        <v>91.935000000000002</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
-        <v>0.52900000000001057</v>
+        <v>2.2939999999999969</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>99347</v>
+        <v>92465</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <f t="shared" si="8"/>
-        <v>99.346999999999994</v>
+        <v>92.465000000000003</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
-        <v>0.70599999999998886</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>100053</v>
+        <v>93347</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
         <f t="shared" si="8"/>
-        <v>100.053</v>
+        <v>93.346999999999994</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
-        <v>0.70600000000000307</v>
+        <v>0.88199999999999079</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>101818</v>
+        <v>93700</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -7678,35 +7664,35 @@
       </c>
       <c r="D209">
         <f t="shared" si="8"/>
-        <v>101.818</v>
+        <v>93.7</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
-        <v>1.7650000000000006</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>102523</v>
+        <v>94759</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <f t="shared" si="8"/>
-        <v>102.523</v>
+        <v>94.759</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
-        <v>0.70499999999999829</v>
+        <v>1.0589999999999975</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>102876</v>
+        <v>95288</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -7715,540 +7701,540 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <f t="shared" ref="D211:D261" si="10">A211/1000</f>
-        <v>102.876</v>
+        <f t="shared" si="8"/>
+        <v>95.287999999999997</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>95994</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="8"/>
+        <v>95.994</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>96876</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="8"/>
+        <v>96.876000000000005</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="9"/>
+        <v>0.882000000000005</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>97582</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="8"/>
+        <v>97.581999999999994</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="9"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>98112</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="8"/>
+        <v>98.111999999999995</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="9"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>98641</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="8"/>
+        <v>98.641000000000005</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="9"/>
+        <v>0.52900000000001057</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>99347</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="8"/>
+        <v>99.346999999999994</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="9"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>100053</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="8"/>
+        <v>100.053</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="9"/>
+        <v>0.70600000000000307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>101818</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="8"/>
+        <v>101.818</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="9"/>
+        <v>1.7650000000000006</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>102523</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="8"/>
+        <v>102.523</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="9"/>
+        <v>0.70499999999999829</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>102876</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <f t="shared" ref="D221:D273" si="10">A221/1000</f>
+        <v>102.876</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="9"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>103229</v>
       </c>
-      <c r="B212" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
         <f t="shared" si="10"/>
         <v>103.229</v>
       </c>
-      <c r="E212">
-        <f t="shared" ref="E212:E261" si="11">D212-D211</f>
+      <c r="E222">
+        <f t="shared" ref="E222:E273" si="11">D222-D221</f>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>103935</v>
       </c>
-      <c r="B213" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
         <f t="shared" si="10"/>
         <v>103.935</v>
       </c>
-      <c r="E213">
+      <c r="E223">
         <f t="shared" si="11"/>
         <v>0.70600000000000307</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>104288</v>
       </c>
-      <c r="B214" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
         <f t="shared" si="10"/>
         <v>104.288</v>
       </c>
-      <c r="E214">
+      <c r="E224">
         <f t="shared" si="11"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>104994</v>
       </c>
-      <c r="B215" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
         <f t="shared" si="10"/>
         <v>104.994</v>
       </c>
-      <c r="E215">
+      <c r="E225">
         <f t="shared" si="11"/>
         <v>0.70600000000000307</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>106053</v>
       </c>
-      <c r="B216" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
         <f t="shared" si="10"/>
         <v>106.053</v>
       </c>
-      <c r="E216">
+      <c r="E226">
         <f t="shared" si="11"/>
         <v>1.0589999999999975</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>106406</v>
       </c>
-      <c r="B217" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
         <f t="shared" si="10"/>
         <v>106.40600000000001</v>
       </c>
-      <c r="E217">
+      <c r="E227">
         <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>107465</v>
       </c>
-      <c r="B218" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218">
-        <v>2</v>
-      </c>
-      <c r="D218">
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
         <f t="shared" si="10"/>
         <v>107.465</v>
       </c>
-      <c r="E218">
+      <c r="E228">
         <f t="shared" si="11"/>
         <v>1.0589999999999975</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>107465</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="10"/>
+        <v>107.465</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>107465</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="10"/>
+        <v>107.465</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>108523</v>
       </c>
-      <c r="B219" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
         <f t="shared" si="10"/>
         <v>108.523</v>
       </c>
-      <c r="E219">
+      <c r="E231">
         <f t="shared" si="11"/>
         <v>1.0579999999999927</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>108876</v>
       </c>
-      <c r="B220" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
         <f t="shared" si="10"/>
         <v>108.876</v>
       </c>
-      <c r="E220">
+      <c r="E232">
         <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>109229</v>
       </c>
-      <c r="B221" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
         <f t="shared" si="10"/>
         <v>109.229</v>
       </c>
-      <c r="E221">
+      <c r="E233">
         <f t="shared" si="11"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>109759</v>
       </c>
-      <c r="B222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
         <f t="shared" si="10"/>
         <v>109.759</v>
       </c>
-      <c r="E222">
+      <c r="E234">
         <f t="shared" si="11"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>110112</v>
       </c>
-      <c r="B223" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
         <f t="shared" si="10"/>
         <v>110.11199999999999</v>
       </c>
-      <c r="E223">
+      <c r="E235">
         <f t="shared" si="11"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>110465</v>
       </c>
-      <c r="B224" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
         <f t="shared" si="10"/>
         <v>110.465</v>
       </c>
-      <c r="E224">
+      <c r="E236">
         <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>110818</v>
       </c>
-      <c r="B225" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
         <f t="shared" si="10"/>
         <v>110.818</v>
       </c>
-      <c r="E225">
+      <c r="E237">
         <f t="shared" si="11"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>111170</v>
       </c>
-      <c r="B226" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
         <f t="shared" si="10"/>
         <v>111.17</v>
       </c>
-      <c r="E226">
+      <c r="E238">
         <f t="shared" si="11"/>
         <v>0.35200000000000387</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>111523</v>
       </c>
-      <c r="B227" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
         <f t="shared" si="10"/>
         <v>111.523</v>
-      </c>
-      <c r="E227">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>111700</v>
-      </c>
-      <c r="B228" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <f t="shared" si="10"/>
-        <v>111.7</v>
-      </c>
-      <c r="E228">
-        <f t="shared" si="11"/>
-        <v>0.17700000000000671</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>112053</v>
-      </c>
-      <c r="B229" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <f t="shared" si="10"/>
-        <v>112.053</v>
-      </c>
-      <c r="E229">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>112406</v>
-      </c>
-      <c r="B230" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="10"/>
-        <v>112.40600000000001</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>112759</v>
-      </c>
-      <c r="B231" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <f t="shared" si="10"/>
-        <v>112.759</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>113112</v>
-      </c>
-      <c r="B232" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <f t="shared" si="10"/>
-        <v>113.11199999999999</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>113465</v>
-      </c>
-      <c r="B233" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <f t="shared" si="10"/>
-        <v>113.465</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>113818</v>
-      </c>
-      <c r="B234" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <f t="shared" si="10"/>
-        <v>113.818</v>
-      </c>
-      <c r="E234">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>114171</v>
-      </c>
-      <c r="B235" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <f t="shared" si="10"/>
-        <v>114.17100000000001</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>114523</v>
-      </c>
-      <c r="B236" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <f t="shared" si="10"/>
-        <v>114.523</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="11"/>
-        <v>0.35199999999998965</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>114876</v>
-      </c>
-      <c r="B237" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <f t="shared" si="10"/>
-        <v>114.876</v>
-      </c>
-      <c r="E237">
-        <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>115229</v>
-      </c>
-      <c r="B238" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <f t="shared" si="10"/>
-        <v>115.229</v>
-      </c>
-      <c r="E238">
-        <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>115582</v>
-      </c>
-      <c r="B239" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <f t="shared" si="10"/>
-        <v>115.58199999999999</v>
       </c>
       <c r="E239">
         <f t="shared" si="11"/>
@@ -8257,7 +8243,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>115935</v>
+        <v>111700</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
@@ -8267,16 +8253,16 @@
       </c>
       <c r="D240">
         <f t="shared" si="10"/>
-        <v>115.935</v>
+        <v>111.7</v>
       </c>
       <c r="E240">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.17700000000000671</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>116288</v>
+        <v>112053</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
@@ -8286,7 +8272,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="10"/>
-        <v>116.288</v>
+        <v>112.053</v>
       </c>
       <c r="E241">
         <f t="shared" si="11"/>
@@ -8295,7 +8281,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>116641</v>
+        <v>112406</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -8305,7 +8291,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="10"/>
-        <v>116.64100000000001</v>
+        <v>112.40600000000001</v>
       </c>
       <c r="E242">
         <f t="shared" si="11"/>
@@ -8314,7 +8300,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>116994</v>
+        <v>112759</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
@@ -8324,7 +8310,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="10"/>
-        <v>116.994</v>
+        <v>112.759</v>
       </c>
       <c r="E243">
         <f t="shared" si="11"/>
@@ -8333,7 +8319,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>117347</v>
+        <v>113112</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
@@ -8343,7 +8329,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="10"/>
-        <v>117.34699999999999</v>
+        <v>113.11199999999999</v>
       </c>
       <c r="E244">
         <f t="shared" si="11"/>
@@ -8352,7 +8338,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>117700</v>
+        <v>113465</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
@@ -8362,7 +8348,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="10"/>
-        <v>117.7</v>
+        <v>113.465</v>
       </c>
       <c r="E245">
         <f t="shared" si="11"/>
@@ -8371,7 +8357,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>118053</v>
+        <v>113818</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
@@ -8381,7 +8367,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="10"/>
-        <v>118.053</v>
+        <v>113.818</v>
       </c>
       <c r="E246">
         <f t="shared" si="11"/>
@@ -8390,7 +8376,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>118406</v>
+        <v>114171</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
@@ -8400,7 +8386,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="10"/>
-        <v>118.40600000000001</v>
+        <v>114.17100000000001</v>
       </c>
       <c r="E247">
         <f t="shared" si="11"/>
@@ -8409,7 +8395,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>118759</v>
+        <v>114523</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
@@ -8419,16 +8405,16 @@
       </c>
       <c r="D248">
         <f t="shared" si="10"/>
-        <v>118.759</v>
+        <v>114.523</v>
       </c>
       <c r="E248">
         <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
+        <v>0.35199999999998965</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>119112</v>
+        <v>114876</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
@@ -8438,16 +8424,16 @@
       </c>
       <c r="D249">
         <f t="shared" si="10"/>
-        <v>119.11199999999999</v>
+        <v>114.876</v>
       </c>
       <c r="E249">
         <f t="shared" si="11"/>
-        <v>0.35299999999999443</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>119465</v>
+        <v>115229</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -8457,16 +8443,16 @@
       </c>
       <c r="D250">
         <f t="shared" si="10"/>
-        <v>119.465</v>
+        <v>115.229</v>
       </c>
       <c r="E250">
         <f t="shared" si="11"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999999443</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>119818</v>
+        <v>115582</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
@@ -8476,7 +8462,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="10"/>
-        <v>119.818</v>
+        <v>115.58199999999999</v>
       </c>
       <c r="E251">
         <f t="shared" si="11"/>
@@ -8485,7 +8471,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>120170</v>
+        <v>115935</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
@@ -8495,16 +8481,16 @@
       </c>
       <c r="D252">
         <f t="shared" si="10"/>
-        <v>120.17</v>
+        <v>115.935</v>
       </c>
       <c r="E252">
         <f t="shared" si="11"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>120523</v>
+        <v>116288</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
@@ -8514,7 +8500,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="10"/>
-        <v>120.523</v>
+        <v>116.288</v>
       </c>
       <c r="E253">
         <f t="shared" si="11"/>
@@ -8523,7 +8509,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>120876</v>
+        <v>116641</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
@@ -8533,7 +8519,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="10"/>
-        <v>120.876</v>
+        <v>116.64100000000001</v>
       </c>
       <c r="E254">
         <f t="shared" si="11"/>
@@ -8542,7 +8528,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>121229</v>
+        <v>116994</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
@@ -8552,7 +8538,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="10"/>
-        <v>121.229</v>
+        <v>116.994</v>
       </c>
       <c r="E255">
         <f t="shared" si="11"/>
@@ -8561,7 +8547,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>121582</v>
+        <v>117347</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -8571,7 +8557,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="10"/>
-        <v>121.58199999999999</v>
+        <v>117.34699999999999</v>
       </c>
       <c r="E256">
         <f t="shared" si="11"/>
@@ -8580,7 +8566,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>121935</v>
+        <v>117700</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -8590,7 +8576,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="10"/>
-        <v>121.935</v>
+        <v>117.7</v>
       </c>
       <c r="E257">
         <f t="shared" si="11"/>
@@ -8599,7 +8585,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>122288</v>
+        <v>118053</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -8609,7 +8595,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="10"/>
-        <v>122.288</v>
+        <v>118.053</v>
       </c>
       <c r="E258">
         <f t="shared" si="11"/>
@@ -8618,7 +8604,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>122641</v>
+        <v>118406</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
@@ -8628,7 +8614,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="10"/>
-        <v>122.64100000000001</v>
+        <v>118.40600000000001</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
@@ -8637,7 +8623,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>122994</v>
+        <v>118759</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -8647,7 +8633,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="10"/>
-        <v>122.994</v>
+        <v>118.759</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
@@ -8656,7 +8642,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>123347</v>
+        <v>119112</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -8666,7 +8652,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="10"/>
-        <v>123.34699999999999</v>
+        <v>119.11199999999999</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
@@ -8675,7 +8661,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>123700</v>
+        <v>119465</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
@@ -8684,445 +8670,445 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <f t="shared" ref="D262:D325" si="12">A262/1000</f>
-        <v>123.7</v>
+        <f t="shared" si="10"/>
+        <v>119.465</v>
       </c>
       <c r="E262">
-        <f t="shared" ref="E262:E325" si="13">D262-D261</f>
+        <f t="shared" si="11"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
+        <v>119818</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="10"/>
+        <v>119.818</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>120170</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="10"/>
+        <v>120.17</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="11"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>120523</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="10"/>
+        <v>120.523</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>120876</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="10"/>
+        <v>120.876</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>121229</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="10"/>
+        <v>121.229</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>121582</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="10"/>
+        <v>121.58199999999999</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>121935</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="10"/>
+        <v>121.935</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>122288</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="10"/>
+        <v>122.288</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>122641</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="10"/>
+        <v>122.64100000000001</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="11"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>122994</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="10"/>
+        <v>122.994</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>123347</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="10"/>
+        <v>123.34699999999999</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="11"/>
+        <v>0.35299999999999443</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>123700</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <f t="shared" ref="D274:D337" si="12">A274/1000</f>
+        <v>123.7</v>
+      </c>
+      <c r="E274">
+        <f t="shared" ref="E274:E337" si="13">D274-D273</f>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>124053</v>
       </c>
-      <c r="B263" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263">
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
         <f t="shared" si="12"/>
         <v>124.053</v>
       </c>
-      <c r="E263">
+      <c r="E275">
         <f t="shared" si="13"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>124406</v>
       </c>
-      <c r="B264" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264">
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
         <f t="shared" si="12"/>
         <v>124.40600000000001</v>
       </c>
-      <c r="E264">
+      <c r="E276">
         <f t="shared" si="13"/>
         <v>0.35300000000000864</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>124935</v>
       </c>
-      <c r="B265" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-      <c r="D265">
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
         <f t="shared" si="12"/>
         <v>124.935</v>
       </c>
-      <c r="E265">
+      <c r="E277">
         <f t="shared" si="13"/>
         <v>0.52899999999999636</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>125465</v>
       </c>
-      <c r="B266" t="s">
-        <v>3</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
         <f t="shared" si="12"/>
         <v>125.465</v>
       </c>
-      <c r="E266">
+      <c r="E278">
         <f t="shared" si="13"/>
         <v>0.53000000000000114</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>125818</v>
       </c>
-      <c r="B267" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
         <f t="shared" si="12"/>
         <v>125.818</v>
       </c>
-      <c r="E267">
+      <c r="E279">
         <f t="shared" si="13"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>126170</v>
       </c>
-      <c r="B268" t="s">
-        <v>3</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
         <f t="shared" si="12"/>
         <v>126.17</v>
       </c>
-      <c r="E268">
+      <c r="E280">
         <f t="shared" si="13"/>
         <v>0.35200000000000387</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>126524</v>
       </c>
-      <c r="B269" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
         <f t="shared" si="12"/>
         <v>126.524</v>
       </c>
-      <c r="E269">
+      <c r="E281">
         <f t="shared" si="13"/>
         <v>0.3539999999999992</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>126877</v>
       </c>
-      <c r="B270" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
         <f t="shared" si="12"/>
         <v>126.877</v>
       </c>
-      <c r="E270">
+      <c r="E282">
         <f t="shared" si="13"/>
         <v>0.35299999999999443</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>127583</v>
       </c>
-      <c r="B271" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271">
-        <v>2</v>
-      </c>
-      <c r="D271">
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
         <f t="shared" si="12"/>
         <v>127.583</v>
       </c>
-      <c r="E271">
+      <c r="E283">
         <f t="shared" si="13"/>
         <v>0.70600000000000307</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>127935</v>
       </c>
-      <c r="B272" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272">
-        <v>2</v>
-      </c>
-      <c r="D272">
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
         <f t="shared" si="12"/>
         <v>127.935</v>
       </c>
-      <c r="E272">
+      <c r="E284">
         <f t="shared" si="13"/>
         <v>0.35200000000000387</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>128288</v>
       </c>
-      <c r="B273" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273">
-        <v>2</v>
-      </c>
-      <c r="D273">
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
         <f t="shared" si="12"/>
         <v>128.28800000000001</v>
-      </c>
-      <c r="E273">
-        <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>128994</v>
-      </c>
-      <c r="B274" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <f t="shared" si="12"/>
-        <v>128.994</v>
-      </c>
-      <c r="E274">
-        <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>129347</v>
-      </c>
-      <c r="B275" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <f t="shared" si="12"/>
-        <v>129.34700000000001</v>
-      </c>
-      <c r="E275">
-        <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>129700</v>
-      </c>
-      <c r="B276" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <f t="shared" si="12"/>
-        <v>129.69999999999999</v>
-      </c>
-      <c r="E276">
-        <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>130053</v>
-      </c>
-      <c r="B277" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <f t="shared" si="12"/>
-        <v>130.053</v>
-      </c>
-      <c r="E277">
-        <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>130406</v>
-      </c>
-      <c r="B278" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <f t="shared" si="12"/>
-        <v>130.40600000000001</v>
-      </c>
-      <c r="E278">
-        <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>131112</v>
-      </c>
-      <c r="B279" t="s">
-        <v>3</v>
-      </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279">
-        <f t="shared" si="12"/>
-        <v>131.11199999999999</v>
-      </c>
-      <c r="E279">
-        <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>131641</v>
-      </c>
-      <c r="B280" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <f t="shared" si="12"/>
-        <v>131.64099999999999</v>
-      </c>
-      <c r="E280">
-        <f t="shared" si="13"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>131818</v>
-      </c>
-      <c r="B281" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <f t="shared" si="12"/>
-        <v>131.81800000000001</v>
-      </c>
-      <c r="E281">
-        <f t="shared" si="13"/>
-        <v>0.17700000000002092</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>132171</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <f t="shared" si="12"/>
-        <v>132.17099999999999</v>
-      </c>
-      <c r="E282">
-        <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>132524</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <f t="shared" si="12"/>
-        <v>132.524</v>
-      </c>
-      <c r="E283">
-        <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>133230</v>
-      </c>
-      <c r="B284" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284">
-        <v>2</v>
-      </c>
-      <c r="D284">
-        <f t="shared" si="12"/>
-        <v>133.22999999999999</v>
-      </c>
-      <c r="E284">
-        <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>133583</v>
-      </c>
-      <c r="B285" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285">
-        <v>2</v>
-      </c>
-      <c r="D285">
-        <f t="shared" si="12"/>
-        <v>133.583</v>
       </c>
       <c r="E285">
         <f t="shared" si="13"/>
@@ -9131,36 +9117,36 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>133935</v>
+        <v>128994</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
         <f t="shared" si="12"/>
-        <v>133.935</v>
+        <v>128.994</v>
       </c>
       <c r="E286">
         <f t="shared" si="13"/>
-        <v>0.35200000000000387</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>134288</v>
+        <v>129347</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <f t="shared" si="12"/>
-        <v>134.28800000000001</v>
+        <v>129.34700000000001</v>
       </c>
       <c r="E287">
         <f t="shared" si="13"/>
@@ -9169,17 +9155,17 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>134641</v>
+        <v>129700</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <f t="shared" si="12"/>
-        <v>134.64099999999999</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="E288">
         <f t="shared" si="13"/>
@@ -9188,17 +9174,17 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>134994</v>
+        <v>130053</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289">
         <f t="shared" si="12"/>
-        <v>134.994</v>
+        <v>130.053</v>
       </c>
       <c r="E289">
         <f t="shared" si="13"/>
@@ -9207,7 +9193,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>135700</v>
+        <v>130406</v>
       </c>
       <c r="B290" t="s">
         <v>3</v>
@@ -9217,35 +9203,35 @@
       </c>
       <c r="D290">
         <f t="shared" si="12"/>
-        <v>135.69999999999999</v>
+        <v>130.40600000000001</v>
       </c>
       <c r="E290">
         <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>136053</v>
+        <v>131112</v>
       </c>
       <c r="B291" t="s">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <f t="shared" si="12"/>
-        <v>136.053</v>
+        <v>131.11199999999999</v>
       </c>
       <c r="E291">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>136406</v>
+        <v>131641</v>
       </c>
       <c r="B292" t="s">
         <v>3</v>
@@ -9255,16 +9241,16 @@
       </c>
       <c r="D292">
         <f t="shared" si="12"/>
-        <v>136.40600000000001</v>
+        <v>131.64099999999999</v>
       </c>
       <c r="E292">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>136759</v>
+        <v>131818</v>
       </c>
       <c r="B293" t="s">
         <v>3</v>
@@ -9274,16 +9260,16 @@
       </c>
       <c r="D293">
         <f t="shared" si="12"/>
-        <v>136.75899999999999</v>
+        <v>131.81800000000001</v>
       </c>
       <c r="E293">
         <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
+        <v>0.17700000000002092</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>137112</v>
+        <v>132171</v>
       </c>
       <c r="B294" t="s">
         <v>3</v>
@@ -9293,16 +9279,16 @@
       </c>
       <c r="D294">
         <f t="shared" si="12"/>
-        <v>137.11199999999999</v>
+        <v>132.17099999999999</v>
       </c>
       <c r="E294">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>137465</v>
+        <v>132524</v>
       </c>
       <c r="B295" t="s">
         <v>3</v>
@@ -9312,7 +9298,7 @@
       </c>
       <c r="D295">
         <f t="shared" si="12"/>
-        <v>137.465</v>
+        <v>132.524</v>
       </c>
       <c r="E295">
         <f t="shared" si="13"/>
@@ -9321,121 +9307,121 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>137818</v>
+        <v>133230</v>
       </c>
       <c r="B296" t="s">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296">
         <f t="shared" si="12"/>
-        <v>137.81800000000001</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="E296">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>138170</v>
+        <v>133583</v>
       </c>
       <c r="B297" t="s">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
         <f t="shared" si="12"/>
-        <v>138.16999999999999</v>
+        <v>133.583</v>
       </c>
       <c r="E297">
         <f t="shared" si="13"/>
-        <v>0.35199999999997544</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>138877</v>
+        <v>133935</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D298">
         <f t="shared" si="12"/>
-        <v>138.87700000000001</v>
+        <v>133.935</v>
       </c>
       <c r="E298">
         <f t="shared" si="13"/>
-        <v>0.70700000000002206</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>139230</v>
+        <v>134288</v>
       </c>
       <c r="B299" t="s">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D299">
         <f t="shared" si="12"/>
-        <v>139.22999999999999</v>
+        <v>134.28800000000001</v>
       </c>
       <c r="E299">
         <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>139583</v>
+        <v>134641</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D300">
         <f t="shared" si="12"/>
-        <v>139.583</v>
+        <v>134.64099999999999</v>
       </c>
       <c r="E300">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>140288</v>
+        <v>134994</v>
       </c>
       <c r="B301" t="s">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
         <f t="shared" si="12"/>
-        <v>140.28800000000001</v>
+        <v>134.994</v>
       </c>
       <c r="E301">
         <f t="shared" si="13"/>
-        <v>0.70500000000001251</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>140641</v>
+        <v>135700</v>
       </c>
       <c r="B302" t="s">
         <v>3</v>
@@ -9445,16 +9431,16 @@
       </c>
       <c r="D302">
         <f t="shared" si="12"/>
-        <v>140.64099999999999</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="E302">
         <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>140994</v>
+        <v>136053</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
@@ -9464,7 +9450,7 @@
       </c>
       <c r="D303">
         <f t="shared" si="12"/>
-        <v>140.994</v>
+        <v>136.053</v>
       </c>
       <c r="E303">
         <f t="shared" si="13"/>
@@ -9473,55 +9459,55 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>141700</v>
+        <v>136406</v>
       </c>
       <c r="B304" t="s">
         <v>3</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304">
         <f t="shared" si="12"/>
-        <v>141.69999999999999</v>
+        <v>136.40600000000001</v>
       </c>
       <c r="E304">
         <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>142053</v>
+        <v>136759</v>
       </c>
       <c r="B305" t="s">
         <v>3</v>
       </c>
       <c r="C305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <f t="shared" si="12"/>
-        <v>142.053</v>
+        <v>136.75899999999999</v>
       </c>
       <c r="E305">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>142406</v>
+        <v>137112</v>
       </c>
       <c r="B306" t="s">
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306">
         <f t="shared" si="12"/>
-        <v>142.40600000000001</v>
+        <v>137.11199999999999</v>
       </c>
       <c r="E306">
         <f t="shared" si="13"/>
@@ -9530,36 +9516,36 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>142759</v>
+        <v>137465</v>
       </c>
       <c r="B307" t="s">
         <v>3</v>
       </c>
       <c r="C307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307">
         <f t="shared" si="12"/>
-        <v>142.75899999999999</v>
+        <v>137.465</v>
       </c>
       <c r="E307">
         <f t="shared" si="13"/>
-        <v>0.35299999999998022</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>143112</v>
+        <v>137818</v>
       </c>
       <c r="B308" t="s">
         <v>3</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308">
         <f t="shared" si="12"/>
-        <v>143.11199999999999</v>
+        <v>137.81800000000001</v>
       </c>
       <c r="E308">
         <f t="shared" si="13"/>
@@ -9568,55 +9554,55 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>143465</v>
+        <v>138170</v>
       </c>
       <c r="B309" t="s">
         <v>3</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309">
         <f t="shared" si="12"/>
-        <v>143.465</v>
+        <v>138.16999999999999</v>
       </c>
       <c r="E309">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35199999999997544</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>143818</v>
+        <v>138877</v>
       </c>
       <c r="B310" t="s">
         <v>3</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D310">
         <f t="shared" si="12"/>
-        <v>143.81800000000001</v>
+        <v>138.87700000000001</v>
       </c>
       <c r="E310">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.70700000000002206</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>144171</v>
+        <v>139230</v>
       </c>
       <c r="B311" t="s">
         <v>3</v>
       </c>
       <c r="C311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D311">
         <f t="shared" si="12"/>
-        <v>144.17099999999999</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="E311">
         <f t="shared" si="13"/>
@@ -9625,83 +9611,83 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>144523</v>
+        <v>139583</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D312">
         <f t="shared" si="12"/>
-        <v>144.523</v>
+        <v>139.583</v>
       </c>
       <c r="E312">
         <f t="shared" si="13"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>144876</v>
+        <v>140288</v>
       </c>
       <c r="B313" t="s">
         <v>3</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <f t="shared" si="12"/>
-        <v>144.876</v>
+        <v>140.28800000000001</v>
       </c>
       <c r="E313">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.70500000000001251</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>145230</v>
+        <v>140641</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314">
         <f t="shared" si="12"/>
-        <v>145.22999999999999</v>
+        <v>140.64099999999999</v>
       </c>
       <c r="E314">
         <f t="shared" si="13"/>
-        <v>0.35399999999998499</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>145582</v>
+        <v>140994</v>
       </c>
       <c r="B315" t="s">
         <v>3</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D315">
         <f t="shared" si="12"/>
-        <v>145.58199999999999</v>
+        <v>140.994</v>
       </c>
       <c r="E315">
         <f t="shared" si="13"/>
-        <v>0.35200000000000387</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>145935</v>
+        <v>141700</v>
       </c>
       <c r="B316" t="s">
         <v>3</v>
@@ -9711,121 +9697,121 @@
       </c>
       <c r="D316">
         <f t="shared" si="12"/>
-        <v>145.935</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="E316">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>146465</v>
+        <v>142053</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317">
         <f t="shared" si="12"/>
-        <v>146.465</v>
+        <v>142.053</v>
       </c>
       <c r="E317">
         <f t="shared" si="13"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>146641</v>
+        <v>142406</v>
       </c>
       <c r="B318" t="s">
         <v>3</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318">
         <f t="shared" si="12"/>
-        <v>146.64099999999999</v>
+        <v>142.40600000000001</v>
       </c>
       <c r="E318">
         <f t="shared" si="13"/>
-        <v>0.17599999999998772</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>146994</v>
+        <v>142759</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319">
         <f t="shared" si="12"/>
-        <v>146.994</v>
+        <v>142.75899999999999</v>
       </c>
       <c r="E319">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>147524</v>
+        <v>143112</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D320">
         <f t="shared" si="12"/>
-        <v>147.524</v>
+        <v>143.11199999999999</v>
       </c>
       <c r="E320">
         <f t="shared" si="13"/>
-        <v>0.53000000000000114</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>147700</v>
+        <v>143465</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D321">
         <f t="shared" si="12"/>
-        <v>147.69999999999999</v>
+        <v>143.465</v>
       </c>
       <c r="E321">
         <f t="shared" si="13"/>
-        <v>0.17599999999998772</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>148053</v>
+        <v>143818</v>
       </c>
       <c r="B322" t="s">
         <v>3</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D322">
         <f t="shared" si="12"/>
-        <v>148.053</v>
+        <v>143.81800000000001</v>
       </c>
       <c r="E322">
         <f t="shared" si="13"/>
@@ -9834,45 +9820,45 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>148406</v>
+        <v>144171</v>
       </c>
       <c r="B323" t="s">
         <v>3</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D323">
         <f t="shared" si="12"/>
-        <v>148.40600000000001</v>
+        <v>144.17099999999999</v>
       </c>
       <c r="E323">
         <f t="shared" si="13"/>
-        <v>0.35300000000000864</v>
+        <v>0.35299999999998022</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>149112</v>
+        <v>144523</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324">
         <f t="shared" si="12"/>
-        <v>149.11199999999999</v>
+        <v>144.523</v>
       </c>
       <c r="E324">
         <f t="shared" si="13"/>
-        <v>0.70599999999998886</v>
+        <v>0.35200000000000387</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>149818</v>
+        <v>144876</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
@@ -9882,292 +9868,292 @@
       </c>
       <c r="D325">
         <f t="shared" si="12"/>
-        <v>149.81800000000001</v>
+        <v>144.876</v>
       </c>
       <c r="E325">
         <f t="shared" si="13"/>
-        <v>0.70600000000001728</v>
+        <v>0.35300000000000864</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>150523</v>
+        <v>145230</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326">
-        <f t="shared" ref="D326:D389" si="14">A326/1000</f>
-        <v>150.523</v>
+        <f t="shared" si="12"/>
+        <v>145.22999999999999</v>
       </c>
       <c r="E326">
-        <f t="shared" ref="E326:E389" si="15">D326-D325</f>
-        <v>0.70499999999998408</v>
+        <f t="shared" si="13"/>
+        <v>0.35399999999998499</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
+        <v>145582</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="12"/>
+        <v>145.58199999999999</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="13"/>
+        <v>0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>145935</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="12"/>
+        <v>145.935</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>146465</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="12"/>
+        <v>146.465</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="13"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>146641</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="12"/>
+        <v>146.64099999999999</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="13"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>146994</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="12"/>
+        <v>146.994</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>147524</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="12"/>
+        <v>147.524</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="13"/>
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>147700</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="12"/>
+        <v>147.69999999999999</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="13"/>
+        <v>0.17599999999998772</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>148053</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="12"/>
+        <v>148.053</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>148406</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="12"/>
+        <v>148.40600000000001</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="13"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>149112</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="12"/>
+        <v>149.11199999999999</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="13"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>149818</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="12"/>
+        <v>149.81800000000001</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="13"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>150523</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <f t="shared" ref="D338:D376" si="14">A338/1000</f>
+        <v>150.523</v>
+      </c>
+      <c r="E338">
+        <f t="shared" ref="E338:E376" si="15">D338-D337</f>
+        <v>0.70499999999998408</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>151230</v>
       </c>
-      <c r="B327" t="s">
-        <v>3</v>
-      </c>
-      <c r="C327">
-        <v>2</v>
-      </c>
-      <c r="D327">
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
         <f t="shared" si="14"/>
         <v>151.22999999999999</v>
       </c>
-      <c r="E327">
+      <c r="E339">
         <f t="shared" si="15"/>
         <v>0.70699999999999363</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>151759</v>
       </c>
-      <c r="B328" t="s">
-        <v>3</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-      <c r="D328">
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
         <f t="shared" si="14"/>
         <v>151.75899999999999</v>
-      </c>
-      <c r="E328">
-        <f t="shared" si="15"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>151935</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-      <c r="D329">
-        <f t="shared" si="14"/>
-        <v>151.935</v>
-      </c>
-      <c r="E329">
-        <f t="shared" si="15"/>
-        <v>0.17600000000001614</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>152641</v>
-      </c>
-      <c r="B330" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330">
-        <v>2</v>
-      </c>
-      <c r="D330">
-        <f t="shared" si="14"/>
-        <v>152.64099999999999</v>
-      </c>
-      <c r="E330">
-        <f t="shared" si="15"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>153524</v>
-      </c>
-      <c r="B331" t="s">
-        <v>3</v>
-      </c>
-      <c r="C331">
-        <v>0</v>
-      </c>
-      <c r="D331">
-        <f t="shared" si="14"/>
-        <v>153.524</v>
-      </c>
-      <c r="E331">
-        <f t="shared" si="15"/>
-        <v>0.88300000000000978</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>153700</v>
-      </c>
-      <c r="B332" t="s">
-        <v>3</v>
-      </c>
-      <c r="C332">
-        <v>0</v>
-      </c>
-      <c r="D332">
-        <f t="shared" si="14"/>
-        <v>153.69999999999999</v>
-      </c>
-      <c r="E332">
-        <f t="shared" si="15"/>
-        <v>0.17599999999998772</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>153877</v>
-      </c>
-      <c r="B333" t="s">
-        <v>3</v>
-      </c>
-      <c r="C333">
-        <v>0</v>
-      </c>
-      <c r="D333">
-        <f t="shared" si="14"/>
-        <v>153.87700000000001</v>
-      </c>
-      <c r="E333">
-        <f t="shared" si="15"/>
-        <v>0.17700000000002092</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>154053</v>
-      </c>
-      <c r="B334" t="s">
-        <v>3</v>
-      </c>
-      <c r="C334">
-        <v>0</v>
-      </c>
-      <c r="D334">
-        <f t="shared" si="14"/>
-        <v>154.053</v>
-      </c>
-      <c r="E334">
-        <f t="shared" si="15"/>
-        <v>0.17599999999998772</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>154759</v>
-      </c>
-      <c r="B335" t="s">
-        <v>3</v>
-      </c>
-      <c r="C335">
-        <v>1</v>
-      </c>
-      <c r="D335">
-        <f t="shared" si="14"/>
-        <v>154.75899999999999</v>
-      </c>
-      <c r="E335">
-        <f t="shared" si="15"/>
-        <v>0.70599999999998886</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>155465</v>
-      </c>
-      <c r="B336" t="s">
-        <v>3</v>
-      </c>
-      <c r="C336">
-        <v>2</v>
-      </c>
-      <c r="D336">
-        <f t="shared" si="14"/>
-        <v>155.465</v>
-      </c>
-      <c r="E336">
-        <f t="shared" si="15"/>
-        <v>0.70600000000001728</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>155994</v>
-      </c>
-      <c r="B337" t="s">
-        <v>3</v>
-      </c>
-      <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337">
-        <f t="shared" si="14"/>
-        <v>155.994</v>
-      </c>
-      <c r="E337">
-        <f t="shared" si="15"/>
-        <v>0.52899999999999636</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>156171</v>
-      </c>
-      <c r="B338" t="s">
-        <v>3</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338">
-        <f t="shared" si="14"/>
-        <v>156.17099999999999</v>
-      </c>
-      <c r="E338">
-        <f t="shared" si="15"/>
-        <v>0.1769999999999925</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>156877</v>
-      </c>
-      <c r="B339" t="s">
-        <v>3</v>
-      </c>
-      <c r="C339">
-        <v>2</v>
-      </c>
-      <c r="D339">
-        <f t="shared" si="14"/>
-        <v>156.87700000000001</v>
-      </c>
-      <c r="E339">
-        <f t="shared" si="15"/>
-        <v>0.70600000000001728</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>157406</v>
-      </c>
-      <c r="B340" t="s">
-        <v>3</v>
-      </c>
-      <c r="C340">
-        <v>1</v>
-      </c>
-      <c r="D340">
-        <f t="shared" si="14"/>
-        <v>157.40600000000001</v>
       </c>
       <c r="E340">
         <f t="shared" si="15"/>
@@ -10176,7 +10162,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>157582</v>
+        <v>151935</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -10186,54 +10172,54 @@
       </c>
       <c r="D341">
         <f t="shared" si="14"/>
-        <v>157.58199999999999</v>
+        <v>151.935</v>
       </c>
       <c r="E341">
         <f t="shared" si="15"/>
-        <v>0.17599999999998772</v>
+        <v>0.17600000000001614</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>158288</v>
+        <v>152641</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D342">
         <f t="shared" si="14"/>
-        <v>158.28800000000001</v>
+        <v>152.64099999999999</v>
       </c>
       <c r="E342">
         <f t="shared" si="15"/>
-        <v>0.70600000000001728</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>159171</v>
+        <v>152641</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
       <c r="D343">
         <f t="shared" si="14"/>
-        <v>159.17099999999999</v>
+        <v>152.64099999999999</v>
       </c>
       <c r="E343">
         <f t="shared" si="15"/>
-        <v>0.88299999999998136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>159347</v>
+        <v>153524</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
@@ -10243,16 +10229,16 @@
       </c>
       <c r="D344">
         <f t="shared" si="14"/>
-        <v>159.34700000000001</v>
+        <v>153.524</v>
       </c>
       <c r="E344">
         <f t="shared" si="15"/>
-        <v>0.17600000000001614</v>
+        <v>0.88300000000000978</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>159524</v>
+        <v>153700</v>
       </c>
       <c r="B345" t="s">
         <v>3</v>
@@ -10262,16 +10248,16 @@
       </c>
       <c r="D345">
         <f t="shared" si="14"/>
-        <v>159.524</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="E345">
         <f t="shared" si="15"/>
-        <v>0.1769999999999925</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>159700</v>
+        <v>153877</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -10281,35 +10267,35 @@
       </c>
       <c r="D346">
         <f t="shared" si="14"/>
-        <v>159.69999999999999</v>
+        <v>153.87700000000001</v>
       </c>
       <c r="E346">
         <f t="shared" si="15"/>
-        <v>0.17599999999998772</v>
+        <v>0.17700000000002092</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>160230</v>
+        <v>154053</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347">
         <f t="shared" si="14"/>
-        <v>160.22999999999999</v>
+        <v>154.053</v>
       </c>
       <c r="E347">
         <f t="shared" si="15"/>
-        <v>0.53000000000000114</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>160406</v>
+        <v>154759</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -10319,16 +10305,16 @@
       </c>
       <c r="D348">
         <f t="shared" si="14"/>
-        <v>160.40600000000001</v>
+        <v>154.75899999999999</v>
       </c>
       <c r="E348">
         <f t="shared" si="15"/>
-        <v>0.17600000000001614</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>161112</v>
+        <v>155465</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -10338,16 +10324,16 @@
       </c>
       <c r="D349">
         <f t="shared" si="14"/>
-        <v>161.11199999999999</v>
+        <v>155.465</v>
       </c>
       <c r="E349">
         <f t="shared" si="15"/>
-        <v>0.70599999999998886</v>
+        <v>0.70600000000001728</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>161818</v>
+        <v>155994</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
@@ -10357,54 +10343,54 @@
       </c>
       <c r="D350">
         <f t="shared" si="14"/>
-        <v>161.81800000000001</v>
+        <v>155.994</v>
       </c>
       <c r="E350">
         <f t="shared" si="15"/>
-        <v>0.70600000000001728</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>162523</v>
+        <v>156171</v>
       </c>
       <c r="B351" t="s">
         <v>3</v>
       </c>
       <c r="C351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D351">
         <f t="shared" si="14"/>
-        <v>162.523</v>
+        <v>156.17099999999999</v>
       </c>
       <c r="E351">
         <f t="shared" si="15"/>
-        <v>0.70499999999998408</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>163052</v>
+        <v>156877</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D352">
         <f t="shared" si="14"/>
-        <v>163.05199999999999</v>
+        <v>156.87700000000001</v>
       </c>
       <c r="E352">
         <f t="shared" si="15"/>
-        <v>0.52899999999999636</v>
+        <v>0.70600000000001728</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>163229</v>
+        <v>157406</v>
       </c>
       <c r="B353" t="s">
         <v>3</v>
@@ -10414,35 +10400,35 @@
       </c>
       <c r="D353">
         <f t="shared" si="14"/>
-        <v>163.22900000000001</v>
+        <v>157.40600000000001</v>
       </c>
       <c r="E353">
         <f t="shared" si="15"/>
-        <v>0.17700000000002092</v>
+        <v>0.52899999999999636</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>163935</v>
+        <v>157582</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D354">
         <f t="shared" si="14"/>
-        <v>163.935</v>
+        <v>157.58199999999999</v>
       </c>
       <c r="E354">
         <f t="shared" si="15"/>
-        <v>0.70599999999998886</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>164288</v>
+        <v>158288</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
@@ -10452,130 +10438,130 @@
       </c>
       <c r="D355">
         <f t="shared" si="14"/>
-        <v>164.28800000000001</v>
+        <v>158.28800000000001</v>
       </c>
       <c r="E355">
         <f t="shared" si="15"/>
-        <v>0.35300000000000864</v>
+        <v>0.70600000000001728</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>164994</v>
+        <v>159171</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D356">
         <f t="shared" si="14"/>
-        <v>164.994</v>
+        <v>159.17099999999999</v>
       </c>
       <c r="E356">
         <f t="shared" si="15"/>
-        <v>0.70599999999998886</v>
+        <v>0.88299999999998136</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>165347</v>
+        <v>159347</v>
       </c>
       <c r="B357" t="s">
         <v>3</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D357">
         <f t="shared" si="14"/>
-        <v>165.34700000000001</v>
+        <v>159.34700000000001</v>
       </c>
       <c r="E357">
         <f t="shared" si="15"/>
-        <v>0.35300000000000864</v>
+        <v>0.17600000000001614</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>165876</v>
+        <v>159524</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
       </c>
       <c r="C358">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D358">
         <f t="shared" si="14"/>
-        <v>165.876</v>
+        <v>159.524</v>
       </c>
       <c r="E358">
         <f t="shared" si="15"/>
-        <v>0.52899999999999636</v>
+        <v>0.1769999999999925</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>166229</v>
+        <v>159700</v>
       </c>
       <c r="B359" t="s">
         <v>3</v>
       </c>
       <c r="C359">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D359">
         <f t="shared" si="14"/>
-        <v>166.22900000000001</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="E359">
         <f t="shared" si="15"/>
-        <v>0.35300000000000864</v>
+        <v>0.17599999999998772</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>166582</v>
+        <v>160230</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
       </c>
       <c r="C360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D360">
         <f t="shared" si="14"/>
-        <v>166.58199999999999</v>
+        <v>160.22999999999999</v>
       </c>
       <c r="E360">
         <f t="shared" si="15"/>
-        <v>0.35299999999998022</v>
+        <v>0.53000000000000114</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>168170</v>
+        <v>160406</v>
       </c>
       <c r="B361" t="s">
         <v>3</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361">
         <f t="shared" si="14"/>
-        <v>168.17</v>
+        <v>160.40600000000001</v>
       </c>
       <c r="E361">
         <f t="shared" si="15"/>
-        <v>1.5879999999999939</v>
+        <v>0.17600000000001614</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>169053</v>
+        <v>161112</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
@@ -10585,28 +10571,275 @@
       </c>
       <c r="D362">
         <f t="shared" si="14"/>
-        <v>169.053</v>
+        <v>161.11199999999999</v>
       </c>
       <c r="E362">
         <f t="shared" si="15"/>
-        <v>0.88300000000000978</v>
+        <v>0.70599999999998886</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>170000</v>
+        <v>161818</v>
       </c>
       <c r="B363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363">
         <v>1</v>
       </c>
       <c r="D363">
         <f t="shared" si="14"/>
+        <v>161.81800000000001</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="15"/>
+        <v>0.70600000000001728</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>162523</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="14"/>
+        <v>162.523</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="15"/>
+        <v>0.70499999999998408</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>163052</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="14"/>
+        <v>163.05199999999999</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>163229</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="14"/>
+        <v>163.22900000000001</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="15"/>
+        <v>0.17700000000002092</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>163935</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="14"/>
+        <v>163.935</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>164288</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="14"/>
+        <v>164.28800000000001</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>164994</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="14"/>
+        <v>164.994</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="15"/>
+        <v>0.70599999999998886</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>165347</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="14"/>
+        <v>165.34700000000001</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>165876</v>
+      </c>
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="14"/>
+        <v>165.876</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="15"/>
+        <v>0.52899999999999636</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>166229</v>
+      </c>
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="14"/>
+        <v>166.22900000000001</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="15"/>
+        <v>0.35300000000000864</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>166582</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="14"/>
+        <v>166.58199999999999</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="15"/>
+        <v>0.35299999999998022</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>168170</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="14"/>
+        <v>168.17</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="15"/>
+        <v>1.5879999999999939</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>169053</v>
+      </c>
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="14"/>
+        <v>169.053</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="15"/>
+        <v>0.88300000000000978</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>170000</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="E363">
+      <c r="E376">
         <f t="shared" si="15"/>
         <v>0.94700000000000273</v>
       </c>
